--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1342.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1342.xlsx
@@ -9276,10 +9276,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.03624689716191735</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0005996641057789058</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9289,16 +9289,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.08621536020446702</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0007318413773024545</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.1133743001605976</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0007288579112195676</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.03624689716191735</v>
+        <v>0.06524441489145122</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005996641057789058</v>
+        <v>0.001798992317336717</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.06453888000000001</v>
+        <v>0.06093708211035258</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001067723109933775</v>
+        <v>0.001008135418853805</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.09194159391994117</v>
+        <v>0.1333227269941452</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006823182019237744</v>
+        <v>0.001598159112056442</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1363870286640874</v>
+        <v>0.1779465633863502</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007141501649421332</v>
+        <v>0.001600106962564638</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06524441489145122</v>
+        <v>0.06785247794602539</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001798992317336717</v>
+        <v>0.003182524631503389</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.07619400813337159</v>
+        <v>0.1015618035172543</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001450249158260681</v>
+        <v>0.003203169329801325</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.12453888</v>
+        <v>0.1796153337593063</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001036624378576481</v>
+        <v>0.00317145478198151</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.18453888</v>
+        <v>0.2576688640013582</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001100745474158531</v>
+        <v>0.003559077033112584</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06766939007337719</v>
+        <v>0.07848999432970474</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002186374464094286</v>
+        <v>0.004773786947255084</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09274994420152032</v>
+        <v>0.1111074178706512</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002175373737391022</v>
+        <v>0.004794955444930429</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1684698244141921</v>
+        <v>0.1976487608683847</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002046954605771323</v>
+        <v>0.004794477336169327</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2421681825270176</v>
+        <v>0.2795480837148931</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.0021424504948264</v>
+        <v>0.004800320887693915</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.06307177066264455</v>
+        <v>0.08303823596649942</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002915165952125715</v>
+        <v>0.006365049263006778</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1015618035172543</v>
+        <v>0.1231671807245037</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002800376163482792</v>
+        <v>0.006393273926573906</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1796153337593063</v>
+        <v>0.218454469068701</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002491773837228557</v>
+        <v>0.006392636448225768</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2576688640013582</v>
+        <v>0.3056810722126955</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002561590597069708</v>
+        <v>0.006400427850258553</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.03624689716191735</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.06526905451025855</v>
+        <v>0.08460310397173681</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003643957440157144</v>
+        <v>0.007956311578758472</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1080340435959117</v>
+        <v>0.1319784744902058</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003625622895651704</v>
+        <v>0.007991592408217382</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.192564700846046</v>
+        <v>0.2360602758204108</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003411591009618872</v>
+        <v>0.00799079556028221</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2790080580396429</v>
+        <v>0.3281876306758877</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003570750824710666</v>
+        <v>0.008000534812823191</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.07626546238963935</v>
+        <v>0.09629049946074453</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004372748928188572</v>
+        <v>0.009547573894510167</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1142985648351458</v>
+        <v>0.1406287067973689</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004350747474782045</v>
+        <v>0.009589910889860859</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.2025740813483805</v>
+        <v>0.250246201466629</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004093909211542647</v>
+        <v>0.009588954672338654</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2933047491186687</v>
+        <v>0.3504985172045345</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004284900989652799</v>
+        <v>0.00960064177538783</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.07206521507420702</v>
+        <v>0.09320632354884995</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005101540416220001</v>
+        <v>0.01113883621026186</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1192419550428746</v>
+        <v>0.1476052852756041</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005075872053912385</v>
+        <v>0.01118822937150434</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.211634495649473</v>
+        <v>0.2630922663504706</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004776227413466421</v>
+        <v>0.01118711378439509</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3032917501758977</v>
+        <v>0.3694444898987005</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004999051154594931</v>
+        <v>0.01120074873795247</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08467253333738156</v>
+        <v>0.0964564773513806</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005830331904251429</v>
+        <v>0.01273009852601356</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1258652490941563</v>
+        <v>0.1522956175545224</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005800996633042726</v>
+        <v>0.01278654785314781</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2225480098174513</v>
+        <v>0.2739784908150504</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005458545615390195</v>
+        <v>0.01278527289645154</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3182703029157423</v>
+        <v>0.3855563068584504</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005713201319537065</v>
+        <v>0.01280085570051711</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08909163795258324</v>
+        <v>0.107146861983664</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006559123392282858</v>
+        <v>0.01432136084176525</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.131169481864049</v>
+        <v>0.1578871112637351</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006526121212173067</v>
+        <v>0.01438486633479129</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2306166899204428</v>
+        <v>0.2838848952034833</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00614086381731397</v>
+        <v>0.01438343200850798</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.3307416490426149</v>
+        <v>0.398564726183849</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006427351484479198</v>
+        <v>0.01440096266308174</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08832674969323198</v>
+        <v>0.09838337856102755</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007287914880314287</v>
+        <v>0.01591262315751694</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1351556882276108</v>
+        <v>0.1631671740328532</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007251245791303408</v>
+        <v>0.01598318481643476</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.237442602026575</v>
+        <v>0.2908914998588842</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006823182019237744</v>
+        <v>0.01598159112056442</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.3474070302609276</v>
+        <v>0.4131005059749606</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007141501649421332</v>
+        <v>0.01600106962564638</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.08538208933274796</v>
+        <v>0.1032719281987988</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008016706368345715</v>
+        <v>0.01750388547326864</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1401249030598998</v>
+        <v>0.168423213491488</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.007976370370433748</v>
+        <v>0.01758150329807824</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2460278122039755</v>
+        <v>0.298778325124368</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007505500221161519</v>
+        <v>0.01757975023262086</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.357867688275093</v>
+        <v>0.4225944043318501</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007855651814363464</v>
+        <v>0.01760117658821102</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.08826187764455129</v>
+        <v>0.1019184120123052</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008745497856377144</v>
+        <v>0.01909514778902033</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1460781612359742</v>
+        <v>0.1722426372692504</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008701494949564089</v>
+        <v>0.01917982177972172</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2529743865207715</v>
+        <v>0.3041253913430494</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008187818423085294</v>
+        <v>0.01917790934467731</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3695248647895235</v>
+        <v>0.4341771793545823</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008569801979305599</v>
+        <v>0.01920128355077566</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.09197033540206204</v>
+        <v>0.1014287311168743</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009474289344408573</v>
+        <v>0.02068641010477203</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1504164976308919</v>
+        <v>0.1747128529957517</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009426619528694431</v>
+        <v>0.02077814026136519</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2633843910450908</v>
+        <v>0.3074127188580434</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008870136625009068</v>
+        <v>0.02077606845673375</v>
       </c>
       <c r="N78" t="n">
-        <v>0.3799798015086314</v>
+        <v>0.4421795891432215</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009283952144247732</v>
+        <v>0.0208013905133403</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.09851168337870028</v>
+        <v>0.1129087866278334</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01020308083244</v>
+        <v>0.02227767242052372</v>
       </c>
       <c r="J79" t="n">
-        <v>0.155140947119711</v>
+        <v>0.1768212683006029</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01015174410782477</v>
+        <v>0.02237645874300867</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2702598918450604</v>
+        <v>0.312420328012465</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009552454826932842</v>
+        <v>0.02237422756879019</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3932337401368291</v>
+        <v>0.4464323917978328</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009998102309189863</v>
+        <v>0.02240149747590494</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.09489014234788615</v>
+        <v>0.1054282538491624</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01093187232047143</v>
+        <v>0.02386893473627542</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1592525445774899</v>
+        <v>0.1798552908134153</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01087686868695511</v>
+        <v>0.02397477722465215</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2768029549888081</v>
+        <v>0.3167282391494288</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01023477302885662</v>
+        <v>0.02397238668084663</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4015879223785289</v>
+        <v>0.4541663454184804</v>
       </c>
       <c r="O80" t="n">
-        <v>0.010712252474132</v>
+        <v>0.02400160443846958</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1061099330830397</v>
+        <v>0.1069169547904328</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01166066380850286</v>
+        <v>0.02546019705202711</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1631523248792863</v>
+        <v>0.1831349643875921</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01160199326608545</v>
+        <v>0.02557309570629562</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2843156465444614</v>
+        <v>0.3214327341391195</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01091709123078039</v>
+        <v>0.02557054579290307</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4109435899381432</v>
+        <v>0.4592554400134088</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01142640263907413</v>
+        <v>0.02560171140103421</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.109175276357581</v>
+        <v>0.1163575716667428</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01238945529653429</v>
+        <v>0.0270514593677788</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1653413229001587</v>
+        <v>0.1835493918347681</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01232711784521579</v>
+        <v>0.0271714141879391</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2893000325801478</v>
+        <v>0.3253231782069524</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01159940943270417</v>
+        <v>0.02716870490495951</v>
       </c>
       <c r="N82" t="n">
-        <v>0.418301984520084</v>
+        <v>0.4672698821570337</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01214055280401626</v>
+        <v>0.02720181836359885</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1060903929449303</v>
+        <v>0.1207407292286324</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01311824678456572</v>
+        <v>0.0286427216835305</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1705205735151648</v>
+        <v>0.1859854636445487</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01305224242434613</v>
+        <v>0.02876973266958258</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2965581791639944</v>
+        <v>0.3317746008878437</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01228172763462794</v>
+        <v>0.02876686401701596</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4297643478287644</v>
+        <v>0.4722927440970413</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0128547029689584</v>
+        <v>0.02880192532616349</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1038595036185075</v>
+        <v>0.1130570522266413</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01384703827259715</v>
+        <v>0.03023398399928219</v>
       </c>
       <c r="J84" t="n">
-        <v>0.172491111599363</v>
+        <v>0.1881283909627741</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01377736700347648</v>
+        <v>0.03036805115122605</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3003921523641292</v>
+        <v>0.3352608554378764</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01296404583655171</v>
+        <v>0.0303650231290724</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4357319215685961</v>
+        <v>0.4786863794600332</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01356885313390053</v>
+        <v>0.03040203228872813</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1154868291517328</v>
+        <v>0.1232971654113096</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01457582976062857</v>
+        <v>0.03182524631503389</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1766539720278112</v>
+        <v>0.1912633849352851</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01450249158260682</v>
+        <v>0.03196636963286953</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3059040182486793</v>
+        <v>0.3385557951131343</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01364636403847549</v>
+        <v>0.03196318224112884</v>
       </c>
       <c r="N85" t="n">
-        <v>0.4447059474439918</v>
+        <v>0.483813141872611</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01428300329884266</v>
+        <v>0.03200213925129276</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1079765903180263</v>
+        <v>0.113451693533177</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01530462124866</v>
+        <v>0.03341650863078558</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1782101896755677</v>
+        <v>0.1927756567079218</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01522761616173716</v>
+        <v>0.03356468811451301</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3125958428857724</v>
+        <v>0.3403332731697007</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01432868224039926</v>
+        <v>0.03356134135318528</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4512876671593637</v>
+        <v>0.4904353849613766</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0149971534637848</v>
+        <v>0.03360224621385741</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1083330078908079</v>
+        <v>0.1205112613427836</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01603341273669143</v>
+        <v>0.03500777094653727</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1815607994176904</v>
+        <v>0.1956504174265248</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0159527407408675</v>
+        <v>0.03516300659615648</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3142696923435357</v>
+        <v>0.3444671428636592</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01501100044232304</v>
+        <v>0.03515950046524172</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4580783224191243</v>
+        <v>0.4936154623529313</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01571130362872693</v>
+        <v>0.03520235317642204</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1165603026434981</v>
+        <v>0.1254664935906693</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01676220422472286</v>
+        <v>0.03659903326228897</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1844068361292375</v>
+        <v>0.1959728782369347</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01667786531999784</v>
+        <v>0.03676132507779996</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3221276326900968</v>
+        <v>0.3476312574510935</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01569331864424681</v>
+        <v>0.03675765957729817</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4660791549276859</v>
+        <v>0.4946157276738771</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01642545379366906</v>
+        <v>0.03680246013898668</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1176626953495166</v>
+        <v>0.1163080150273739</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01749099571275429</v>
+        <v>0.03819029557804067</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1870493346852671</v>
+        <v>0.1970282502849918</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01740298989912818</v>
+        <v>0.03835964355944343</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3254717299935834</v>
+        <v>0.3501994701880867</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01637563684617059</v>
+        <v>0.03835581868935461</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4716914063894611</v>
+        <v>0.4984985345508155</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0171396039586112</v>
+        <v>0.03840256710155132</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1136444067822837</v>
+        <v>0.1220264504034374</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01821978720078572</v>
+        <v>0.03978155789379236</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1879893299608372</v>
+        <v>0.1984017447165365</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01812811447825852</v>
+        <v>0.03995796204108691</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3297040503221227</v>
+        <v>0.3512456343307226</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01705795504809436</v>
+        <v>0.03995397780141106</v>
       </c>
       <c r="N90" t="n">
-        <v>0.4772163185088617</v>
+        <v>0.506526236610348</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01785375412355333</v>
+        <v>0.04000267406411596</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1225096577152195</v>
+        <v>0.1286124244693997</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01894857868881715</v>
+        <v>0.04137282020954405</v>
       </c>
       <c r="J91" t="n">
-        <v>0.189127856831006</v>
+        <v>0.2001785726774095</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01885323905738886</v>
+        <v>0.04155628052273039</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3308266597438423</v>
+        <v>0.3524436031350847</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01774027325001814</v>
+        <v>0.0415521369134675</v>
       </c>
       <c r="N91" t="n">
-        <v>0.4778551329903006</v>
+        <v>0.5060611874790765</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01856790428849546</v>
+        <v>0.0416027810266806</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1132626689217439</v>
+        <v>0.1250565619758006</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01967737017684857</v>
+        <v>0.04296408252529575</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1915659501708316</v>
+        <v>0.201743945313451</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0195783636365192</v>
+        <v>0.04315459900437386</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3335416243268693</v>
+        <v>0.3560672298572564</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01842259145194191</v>
+        <v>0.04315029602552393</v>
       </c>
       <c r="N92" t="n">
-        <v>0.4817090915381897</v>
+        <v>0.5083657407836025</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0192820544534376</v>
+        <v>0.04320288798924523</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1129076611752772</v>
+        <v>0.1304888297829024</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02040616166488</v>
+        <v>0.04455534484104744</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1922046448553721</v>
+        <v>0.2008830737705016</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02030348821564954</v>
+        <v>0.04475291748601734</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3376510101393319</v>
+        <v>0.3554903677533209</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01910490965386568</v>
+        <v>0.04474845513758038</v>
       </c>
       <c r="N93" t="n">
-        <v>0.4883794358569419</v>
+        <v>0.511902250150528</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01999620461837973</v>
+        <v>0.04480299495180987</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1214488552492395</v>
+        <v>0.1194818263120782</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02113495315291143</v>
+        <v>0.04614660715679914</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1933449757596855</v>
+        <v>0.2031236070345086</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02102861279477988</v>
+        <v>0.04635123596766082</v>
       </c>
       <c r="L94" t="n">
-        <v>0.339556883249357</v>
+        <v>0.3592306675186127</v>
       </c>
       <c r="M94" t="n">
-        <v>0.01978722785578946</v>
+        <v>0.04634661424963682</v>
       </c>
       <c r="N94" t="n">
-        <v>0.4906674076509692</v>
+        <v>0.5153377280027166</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02071035478332186</v>
+        <v>0.04640310191437451</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1198904719170507</v>
+        <v>0.1244675361201229</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02186374464094286</v>
+        <v>0.04773786947255083</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1956879777588301</v>
+        <v>0.2031234427309919</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02175373737391022</v>
+        <v>0.04794955444930429</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3431613097250721</v>
+        <v>0.3588305900914635</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02046954605771323</v>
+        <v>0.04794477336169326</v>
       </c>
       <c r="N95" t="n">
-        <v>0.494974248624684</v>
+        <v>0.5149205515779829</v>
       </c>
       <c r="O95" t="n">
-        <v>0.021424504948264</v>
+        <v>0.04800320887693915</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1162367319521311</v>
+        <v>0.1283686257871971</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02259253612897429</v>
+        <v>0.04932913178830253</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1966346857278637</v>
+        <v>0.2021628784886886</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02247886195304056</v>
+        <v>0.04954787293094777</v>
       </c>
       <c r="L96" t="n">
-        <v>0.3452663556346049</v>
+        <v>0.358719543830001</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02115186425963701</v>
+        <v>0.0495429324737497</v>
       </c>
       <c r="N96" t="n">
-        <v>0.4979012004824986</v>
+        <v>0.5138374542861672</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02213865511320613</v>
+        <v>0.04960331583950378</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1164918561279006</v>
+        <v>0.1201935701666546</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02332132761700572</v>
+        <v>0.05092039410405422</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1962861345418447</v>
+        <v>0.2012768658072988</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0232039865321709</v>
+        <v>0.05114619141259125</v>
       </c>
       <c r="L97" t="n">
-        <v>0.347174087046083</v>
+        <v>0.3556870215344072</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02183418246156078</v>
+        <v>0.05114109158580615</v>
       </c>
       <c r="N97" t="n">
-        <v>0.4962495049288255</v>
+        <v>0.5109231743325756</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02285280527814826</v>
+        <v>0.05120342280206842</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1186600652177795</v>
+        <v>0.1279473102853281</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02405011910503715</v>
+        <v>0.05251165641980592</v>
       </c>
       <c r="J98" t="n">
-        <v>0.198043359075831</v>
+        <v>0.20217328250662</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02392911111130125</v>
+        <v>0.05274450989423472</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3466865700276334</v>
+        <v>0.3559468427446129</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02251650066348455</v>
+        <v>0.05273925069786258</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5007204036680774</v>
+        <v>0.5121062387203754</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02356695544309039</v>
+        <v>0.05280352976463307</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1277455799951877</v>
+        <v>0.1276347871700504</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02477891059306857</v>
+        <v>0.05410291873555761</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1972073942048808</v>
+        <v>0.2004599227392812</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02465423569043159</v>
+        <v>0.05434282837587821</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3491058706473837</v>
+        <v>0.3565127875486922</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02319881886540833</v>
+        <v>0.05433740980991902</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4982151384046658</v>
+        <v>0.5086064881740086</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02428110560803253</v>
+        <v>0.0544036367271977</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.121741711509487</v>
+        <v>0.128260941847654</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02550770208110001</v>
+        <v>0.05569418105130931</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1981782597528898</v>
+        <v>0.2009445806579115</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02537936026956193</v>
+        <v>0.05594114685752167</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3488340549734619</v>
+        <v>0.3551986360347197</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02388113706733211</v>
+        <v>0.05593556892197547</v>
       </c>
       <c r="N100" t="n">
-        <v>0.5031349508430039</v>
+        <v>0.5093437634179172</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02499525577297466</v>
+        <v>0.05600374368976233</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1255627898808728</v>
+        <v>0.1248307153449717</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02623649356913143</v>
+        <v>0.057285443367061</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1968848818767518</v>
+        <v>0.2002350504151397</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02610448484869227</v>
+        <v>0.05753946533916515</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3474731890739949</v>
+        <v>0.3544181682907693</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02456345526925588</v>
+        <v>0.05753372803403192</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5031077101997288</v>
+        <v>0.5103379051765432</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02570940593791679</v>
+        <v>0.05760385065232698</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1182088042235376</v>
+        <v>0.1153490486888362</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02696528505716286</v>
+        <v>0.0588767056828127</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1961087430890478</v>
+        <v>0.198639126163595</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02682960942782261</v>
+        <v>0.05913778382080863</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3498253390171103</v>
+        <v>0.3541851644049158</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02524577347117965</v>
+        <v>0.05913188714608836</v>
       </c>
       <c r="N102" t="n">
-        <v>0.4995484159303872</v>
+        <v>0.5068087541743292</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02642355610285893</v>
+        <v>0.05920395761489162</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.119703492279581</v>
+        <v>0.11782088290608</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02769407654519429</v>
+        <v>0.06046796799856438</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1954857347178939</v>
+        <v>0.1993646020559062</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02755473400695295</v>
+        <v>0.06073610230245211</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3477246432383579</v>
+        <v>0.351313404465233</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02592809167310343</v>
+        <v>0.0607300462581448</v>
       </c>
       <c r="N103" t="n">
-        <v>0.5014904764037112</v>
+        <v>0.5026761511357171</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02713770626780106</v>
+        <v>0.06080406457745626</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1140705917911023</v>
+        <v>0.1162511590235359</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02842286803322572</v>
+        <v>0.06205923031431608</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1961517480914065</v>
+        <v>0.1985192722447024</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02827985858608329</v>
+        <v>0.06233442078409559</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3475319536003303</v>
+        <v>0.3490166685597955</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02661040987502721</v>
+        <v>0.06232820537020124</v>
       </c>
       <c r="N104" t="n">
-        <v>0.4969573242629</v>
+        <v>0.5022599367851491</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02785185643274319</v>
+        <v>0.06240417154002089</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1183338405002012</v>
+        <v>0.1216448180680365</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02915165952125715</v>
+        <v>0.06365049263006778</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1940426745377017</v>
+        <v>0.1972109308826126</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02900498316521363</v>
+        <v>0.06393273926573906</v>
       </c>
       <c r="L105" t="n">
-        <v>0.347326173864476</v>
+        <v>0.3469087367766774</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02729272807695098</v>
+        <v>0.06392636448225768</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4960723921511531</v>
+        <v>0.4988799518470672</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02856600659768533</v>
+        <v>0.06400427850258553</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1205169761489771</v>
+        <v>0.1180068010664145</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02988045100928858</v>
+        <v>0.06524175494581948</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1931944053848958</v>
+        <v>0.1951473721222657</v>
       </c>
       <c r="K106" t="n">
-        <v>0.02973010774434397</v>
+        <v>0.06553105774738253</v>
       </c>
       <c r="L106" t="n">
-        <v>0.34328641483883</v>
+        <v>0.348103389203953</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02797504627887475</v>
+        <v>0.06552452359431413</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4989591127116699</v>
+        <v>0.4970560370459136</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02928015676262746</v>
+        <v>0.06560438546515017</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1196437364795296</v>
+        <v>0.1143420490455027</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03060924249732001</v>
+        <v>0.06683301726157116</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1913428319611051</v>
+        <v>0.1938363901162907</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03045523232347431</v>
+        <v>0.06712937622902601</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3414917873314275</v>
+        <v>0.3428144059296969</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02865736448079853</v>
+        <v>0.06712268270637056</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4973409185876502</v>
+        <v>0.4962080331061307</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02999430692756959</v>
+        <v>0.06720449242771481</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1097378592339581</v>
+        <v>0.1216555030321336</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03133803398535143</v>
+        <v>0.06842427957732286</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1906238455944459</v>
+        <v>0.1941857790173167</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03118035690260465</v>
+        <v>0.06872769471066949</v>
       </c>
       <c r="L108" t="n">
-        <v>0.3387214021503031</v>
+        <v>0.343455567041983</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0293396826827223</v>
+        <v>0.06872084181842701</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4942412424222931</v>
+        <v>0.4932557807521603</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03070845709251173</v>
+        <v>0.06880459939027946</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1098230821543622</v>
+        <v>0.1189521040531399</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03206682547338286</v>
+        <v>0.07001554189307455</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1888733376130343</v>
+        <v>0.1920033329779725</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03190548148173499</v>
+        <v>0.07032601319231296</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3365543701034919</v>
+        <v>0.3391406526288856</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03002200088464608</v>
+        <v>0.07031900093048345</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4922835168587983</v>
+        <v>0.4879191207084447</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03142260725745386</v>
+        <v>0.07040470635284408</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1209231429828413</v>
+        <v>0.1162367931353543</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03279561696141429</v>
+        <v>0.07160680420882624</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1877271993449867</v>
+        <v>0.1925968461508872</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03263060606086534</v>
+        <v>0.07192433167395644</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3335698019990287</v>
+        <v>0.3383834427784793</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03070431908656985</v>
+        <v>0.0719171600425399</v>
       </c>
       <c r="N110" t="n">
-        <v>0.4907911745403652</v>
+        <v>0.484917893699426</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03213675742239599</v>
+        <v>0.07200481331540871</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1150617794614951</v>
+        <v>0.1155145113056096</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03352440844944572</v>
+        <v>0.07319806652457794</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1850213221184193</v>
+        <v>0.1899741126886899</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03335573063999567</v>
+        <v>0.07352265015559992</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3334468086449488</v>
+        <v>0.3362977175788382</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03138663728849362</v>
+        <v>0.07351531915459635</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4868876481101935</v>
+        <v>0.4827719404495464</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03285090758733813</v>
+        <v>0.07360492027797336</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1122627293324229</v>
+        <v>0.1147901995907382</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03425319993747715</v>
+        <v>0.07478932884032964</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1845915972614483</v>
+        <v>0.1891429267440093</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03408085521912602</v>
+        <v>0.07512096863724339</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3296645008492867</v>
+        <v>0.3354972571180365</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0320689554904174</v>
+        <v>0.07511347826665278</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4826963702114823</v>
+        <v>0.4810011016832479</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03356505775228026</v>
+        <v>0.075205027240538</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1185497303377244</v>
+        <v>0.115068799017573</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03498199142550858</v>
+        <v>0.07638059115608134</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1834739161021901</v>
+        <v>0.1873110824694746</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03480597979825636</v>
+        <v>0.07671928711888687</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3276019894200773</v>
+        <v>0.3316958414841485</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03275127369234117</v>
+        <v>0.07671163737870923</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4842407734874313</v>
+        <v>0.4786252181249728</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03427920791722239</v>
+        <v>0.07680513420310264</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1069465202194989</v>
+        <v>0.1113552506129465</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03571078291354</v>
+        <v>0.07797185347183304</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1832041699687608</v>
+        <v>0.1874863740177147</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03553110437738669</v>
+        <v>0.07831760560053035</v>
       </c>
       <c r="L114" t="n">
-        <v>0.323938385165356</v>
+        <v>0.3313072507652487</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03343359189426495</v>
+        <v>0.07830979649076567</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4798442905812401</v>
+        <v>0.4765641304991632</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03499335808216453</v>
+        <v>0.07840524116566727</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1144768367198461</v>
+        <v>0.1105986698373085</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03643957440157144</v>
+        <v>0.07956311578758472</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1805182501892767</v>
+        <v>0.1860688925762712</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03625622895651704</v>
+        <v>0.07991592408217382</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3214527988931574</v>
+        <v>0.3297301374556594</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03411591009618872</v>
+        <v>0.07990795560282211</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4750303541361081</v>
+        <v>0.4728346319661947</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03570750824710665</v>
+        <v>0.08000534812823192</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1141644175808655</v>
+        <v>0.1187398933432837</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03716836588960287</v>
+        <v>0.08115437810333641</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1805520480918541</v>
+        <v>0.1854288277680184</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03698135353564738</v>
+        <v>0.0815142425638173</v>
       </c>
       <c r="L116" t="n">
-        <v>0.3209243414115165</v>
+        <v>0.325432947939828</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03479822829811249</v>
+        <v>0.08150611471487855</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4749223967952346</v>
+        <v>0.4685554837933958</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03642165841204879</v>
+        <v>0.08160545509079656</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1050330005446564</v>
+        <v>0.1047947601768116</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03789715737763429</v>
+        <v>0.08274564041908811</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1813414550046092</v>
+        <v>0.1842365500719884</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03770647811477772</v>
+        <v>0.08311256104546078</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3203321235284682</v>
+        <v>0.3245672813125609</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03548054650003627</v>
+        <v>0.083104273826935</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4710438512018194</v>
+        <v>0.4673786034159694</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03713580857699093</v>
+        <v>0.0832055620533612</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1090498769664128</v>
+        <v>0.1097793687939399</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03862594886566572</v>
+        <v>0.08433690273483981</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1801208220531022</v>
+        <v>0.1812174537691222</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03843160269390806</v>
+        <v>0.08471087952710425</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3178552560520475</v>
+        <v>0.3210780347480099</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03616286470196004</v>
+        <v>0.08470243293899143</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4722181499990616</v>
+        <v>0.4636686342858133</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03784995874193306</v>
+        <v>0.08480566901592583</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1041224076633828</v>
+        <v>0.106709817650716</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03935474035369715</v>
+        <v>0.0859281650505915</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1810852115929267</v>
+        <v>0.1800969331403608</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03915672727303841</v>
+        <v>0.08630919800874773</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3177718360548477</v>
+        <v>0.3184101054203272</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03684518290388381</v>
+        <v>0.08630059205104787</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4660687258301611</v>
+        <v>0.4596902198548254</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03856410890687519</v>
+        <v>0.08640577597849046</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1052458737395095</v>
+        <v>0.1066022052031876</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04008353184172858</v>
+        <v>0.0875194273663432</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1812492633417373</v>
+        <v>0.1775003824666453</v>
       </c>
       <c r="K120" t="n">
-        <v>0.03988185185216874</v>
+        <v>0.0879075164903912</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3183449365342156</v>
+        <v>0.3174083905036647</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03752750110580759</v>
+        <v>0.08789875116310431</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4674190113383171</v>
+        <v>0.4511080035749037</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03927825907181733</v>
+        <v>0.0880058829410551</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1164174828607032</v>
+        <v>0.1084726299074024</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04081232332976001</v>
+        <v>0.08911068968209489</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1813070428675744</v>
+        <v>0.1768531960289166</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04060697643129908</v>
+        <v>0.08950583497203468</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3186440986297824</v>
+        <v>0.3116177871721743</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03820981930773137</v>
+        <v>0.08949691027516075</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4617924391667293</v>
+        <v>0.4515866288979464</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03999240923675945</v>
+        <v>0.08960598990361975</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1106344426928743</v>
+        <v>0.1083371902194078</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04154111481779144</v>
+        <v>0.09070195199784659</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1815526157384787</v>
+        <v>0.1746807681081159</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04133210101042942</v>
+        <v>0.09110415345367816</v>
       </c>
       <c r="L122" t="n">
-        <v>0.316563442190048</v>
+        <v>0.3089831926000078</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03889213750965514</v>
+        <v>0.09109506938721719</v>
       </c>
       <c r="N122" t="n">
-        <v>0.461912441958597</v>
+        <v>0.4448907392758511</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04070655940170159</v>
+        <v>0.09120609686618439</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.1158939609019332</v>
+        <v>0.09821198459525146</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04226990630582286</v>
+        <v>0.09229321431359827</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1814800475224908</v>
+        <v>0.1728084929851842</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04205722558955977</v>
+        <v>0.09270247193532163</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3202970870635118</v>
+        <v>0.3074495039613173</v>
       </c>
       <c r="M123" t="n">
-        <v>0.03957445571157892</v>
+        <v>0.09269322849927364</v>
       </c>
       <c r="N123" t="n">
-        <v>0.4613024523571196</v>
+        <v>0.4397849781605158</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04142070956664372</v>
+        <v>0.09280620382874902</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.1071932451537904</v>
+        <v>0.102113111490981</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04299869779385429</v>
+        <v>0.09388447662934997</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1814834037876511</v>
+        <v>0.1723617649410624</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04278235016869011</v>
+        <v>0.09430079041696511</v>
       </c>
       <c r="L124" t="n">
-        <v>0.3204391530986738</v>
+        <v>0.303661618430255</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04025677391350269</v>
+        <v>0.09429138761133009</v>
       </c>
       <c r="N124" t="n">
-        <v>0.4580859030054968</v>
+        <v>0.4344339890038386</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04213485973158586</v>
+        <v>0.09440631079131366</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1105295031143561</v>
+        <v>0.1060566693626441</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04372748928188572</v>
+        <v>0.09547573894510167</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1832567501020003</v>
+        <v>0.1700659782566915</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04350747474782044</v>
+        <v>0.09589910889860859</v>
       </c>
       <c r="L125" t="n">
-        <v>0.3197837601440334</v>
+        <v>0.2996644331809722</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04093909211542646</v>
+        <v>0.09588954672338652</v>
       </c>
       <c r="N125" t="n">
-        <v>0.459886226546928</v>
+        <v>0.4312024152577173</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04284900989652799</v>
+        <v>0.0960064177538783</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1168999424495409</v>
+        <v>0.1060306593376784</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04445628076991715</v>
+        <v>0.09706700126085337</v>
       </c>
       <c r="J126" t="n">
-        <v>0.183594152033579</v>
+        <v>0.1682465272130126</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04423259932695079</v>
+        <v>0.09749742738025206</v>
       </c>
       <c r="L126" t="n">
-        <v>0.3195250280480907</v>
+        <v>0.2983028453876214</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04162141031735024</v>
+        <v>0.09748770583544297</v>
       </c>
       <c r="N126" t="n">
-        <v>0.4539268556246128</v>
+        <v>0.4249549003740499</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04356316006147012</v>
+        <v>0.09760652471644293</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1183017708252551</v>
+        <v>0.1019184417289173</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04518507225794858</v>
+        <v>0.09865826357660505</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1831896751504276</v>
+        <v>0.1655022412173633</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04495772390608112</v>
+        <v>0.09909574586189554</v>
       </c>
       <c r="L127" t="n">
-        <v>0.3198570766593452</v>
+        <v>0.2957914389059465</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04230372851927402</v>
+        <v>0.09908586494749941</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4556312228817505</v>
+        <v>0.4205302929966998</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04427731022641226</v>
+        <v>0.09920663167900756</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1167321959074091</v>
+        <v>0.1057249793247483</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04591386374598001</v>
+        <v>0.1002495258923568</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1851373850205866</v>
+        <v>0.1638088147011201</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04568284848521147</v>
+        <v>0.100694064343539</v>
       </c>
       <c r="L128" t="n">
-        <v>0.3207740258262964</v>
+        <v>0.2903168651517237</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04298604672119779</v>
+        <v>0.1006840240595559</v>
       </c>
       <c r="N128" t="n">
-        <v>0.4568227609615407</v>
+        <v>0.418527225424299</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04499146039135439</v>
+        <v>0.1008067386415722</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1181884253619134</v>
+        <v>0.1004733170697196</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04664265523401143</v>
+        <v>0.1018407882081084</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1863313472120969</v>
+        <v>0.1624021610802896</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04640797306434181</v>
+        <v>0.1022923828251825</v>
       </c>
       <c r="L129" t="n">
-        <v>0.3237699953974443</v>
+        <v>0.2870429571681704</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04366836492312156</v>
+        <v>0.1022821831716123</v>
       </c>
       <c r="N129" t="n">
-        <v>0.4540249025071829</v>
+        <v>0.4136221834865583</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04570561055629652</v>
+        <v>0.1024068456041368</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1086676668546783</v>
+        <v>0.09318649990837943</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04737144672204287</v>
+        <v>0.1034320505238601</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1871656272929988</v>
+        <v>0.1611186322754782</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04713309764347215</v>
+        <v>0.103890701306826</v>
       </c>
       <c r="L130" t="n">
-        <v>0.3255391052212886</v>
+        <v>0.284133985273238</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04435068312504534</v>
+        <v>0.1038803422836687</v>
       </c>
       <c r="N130" t="n">
-        <v>0.4575599274730834</v>
+        <v>0.407807704303807</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04641976072123866</v>
+        <v>0.1040069525667015</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1141671280516142</v>
+        <v>0.08988757278527598</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04810023821007429</v>
+        <v>0.1050233128396118</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1881342908313329</v>
+        <v>0.1595945802072922</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04785822222260249</v>
+        <v>0.1054890197884694</v>
       </c>
       <c r="L131" t="n">
-        <v>0.3264754751463286</v>
+        <v>0.2813542197848777</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04503300132696911</v>
+        <v>0.1054785013957252</v>
       </c>
       <c r="N131" t="n">
-        <v>0.4548534130517956</v>
+        <v>0.4054763249963741</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04713391088618079</v>
+        <v>0.1056070595292661</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.1146840166186316</v>
+        <v>0.08959958064495741</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04882902969810572</v>
+        <v>0.1066145751553635</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1878314033951398</v>
+        <v>0.1564663567963381</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04858334680173283</v>
+        <v>0.1070873382701129</v>
       </c>
       <c r="L132" t="n">
-        <v>0.3253732250210645</v>
+        <v>0.2778679310210405</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04571531952889289</v>
+        <v>0.1070766605077816</v>
       </c>
       <c r="N132" t="n">
-        <v>0.4587572646047523</v>
+        <v>0.3981205826845894</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04784806105112292</v>
+        <v>0.1072071664918308</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.1132155402216408</v>
+        <v>0.09134556843197192</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04955782118613715</v>
+        <v>0.1082058374711152</v>
       </c>
       <c r="J133" t="n">
-        <v>0.18825103055246</v>
+        <v>0.1554703139632221</v>
       </c>
       <c r="K133" t="n">
-        <v>0.04930847138086317</v>
+        <v>0.1086856567517564</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3269264746939956</v>
+        <v>0.2719393892996778</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04639763773081666</v>
+        <v>0.108674819619838</v>
       </c>
       <c r="N133" t="n">
-        <v>0.4601219353377182</v>
+        <v>0.3931330144887818</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04856221121606506</v>
+        <v>0.1088072734543954</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1127589065265523</v>
+        <v>0.08614858109086776</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05028661267416858</v>
+        <v>0.1097970997868669</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1895872378713341</v>
+        <v>0.1533428036285507</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05003359595999352</v>
+        <v>0.1102839752333999</v>
       </c>
       <c r="L134" t="n">
-        <v>0.330629344013622</v>
+        <v>0.2704328649387406</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04707995593274043</v>
+        <v>0.1102729787318945</v>
       </c>
       <c r="N134" t="n">
-        <v>0.4587978784564576</v>
+        <v>0.3903061575292807</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04927636138100719</v>
+        <v>0.11040738041696</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1213113231992765</v>
+        <v>0.09703166356619314</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05101540416220001</v>
+        <v>0.1113883621026186</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1910340909198027</v>
+        <v>0.1509201777129302</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05075872053912386</v>
+        <v>0.1118822937150433</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3307759528284432</v>
+        <v>0.2669126282561803</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04776227413466421</v>
+        <v>0.1118711378439509</v>
       </c>
       <c r="N135" t="n">
-        <v>0.4645355471667352</v>
+        <v>0.3857325489264155</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04999051154594932</v>
+        <v>0.1120074873795247</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1118699979057236</v>
+        <v>0.08501786080249615</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05174419565023144</v>
+        <v>0.1129796244183703</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1913856552659062</v>
+        <v>0.1488387881369668</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05148384511825419</v>
+        <v>0.1134806121966868</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3331604209869587</v>
+        <v>0.2627429495699481</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04844459233658799</v>
+        <v>0.1134692969560074</v>
       </c>
       <c r="N136" t="n">
-        <v>0.4654853946743156</v>
+        <v>0.3797047258005155</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05070466171089145</v>
+        <v>0.1136075943420893</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.1154321383118043</v>
+        <v>0.08213021774432505</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05247298713826287</v>
+        <v>0.114570886734122</v>
       </c>
       <c r="J137" t="n">
-        <v>0.1927359964776855</v>
+        <v>0.148434986821267</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05220896969738454</v>
+        <v>0.1150789306783303</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3346768683376685</v>
+        <v>0.260988099197995</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04912691053851176</v>
+        <v>0.1150674560680638</v>
       </c>
       <c r="N137" t="n">
-        <v>0.4684978741849628</v>
+        <v>0.3748152252719098</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05141881187583359</v>
+        <v>0.115207701304654</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1249949520834288</v>
+        <v>0.08939177933622808</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0532017786262943</v>
+        <v>0.1161621490498737</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1943791801231807</v>
+        <v>0.1462451256864373</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05293409427651487</v>
+        <v>0.1166772491599738</v>
       </c>
       <c r="L138" t="n">
-        <v>0.3335194147290722</v>
+        <v>0.2577123474582723</v>
       </c>
       <c r="M138" t="n">
-        <v>0.04980922874043553</v>
+        <v>0.1166656151801203</v>
       </c>
       <c r="N138" t="n">
-        <v>0.4738234389044416</v>
+        <v>0.3725565844609278</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05213296204077572</v>
+        <v>0.1168078082672186</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.1185556468865076</v>
+        <v>0.09082559052275338</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05393057011432573</v>
+        <v>0.1177534113656254</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1937092717704328</v>
+        <v>0.1455055566530838</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05365921885564522</v>
+        <v>0.1182755676416173</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3376821800096694</v>
+        <v>0.2567799646687312</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05049154694235931</v>
+        <v>0.1182637742921767</v>
       </c>
       <c r="N139" t="n">
-        <v>0.4749125420385166</v>
+        <v>0.3717213404878986</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05284711220571786</v>
+        <v>0.1184079152297832</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.114111430386951</v>
+        <v>0.09045469624844912</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05465936160235715</v>
+        <v>0.1193446736813771</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1959203369874821</v>
+        <v>0.145552631641813</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05438434343477555</v>
+        <v>0.1198738861232607</v>
       </c>
       <c r="L140" t="n">
-        <v>0.33695928402796</v>
+        <v>0.2570552211473228</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05117386514428308</v>
+        <v>0.1198619334042332</v>
       </c>
       <c r="N140" t="n">
-        <v>0.4820156367929523</v>
+        <v>0.365802030473152</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05356126237065999</v>
+        <v>0.1200080221923479</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1216595102506696</v>
+        <v>0.08530214145786358</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05538815309038858</v>
+        <v>0.1209359359971288</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1970064413423692</v>
+        <v>0.1444227025732312</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05510946801390591</v>
+        <v>0.1214722046049042</v>
       </c>
       <c r="L141" t="n">
-        <v>0.3400448466324435</v>
+        <v>0.2548023872119984</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05185618334620685</v>
+        <v>0.1214600925162896</v>
       </c>
       <c r="N141" t="n">
-        <v>0.4819831763735128</v>
+        <v>0.3661911915370166</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05427541253560211</v>
+        <v>0.1216081291549125</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1271970941435736</v>
+        <v>0.08031232663274127</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05611694457842002</v>
+        <v>0.1225271983128805</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1976616504031347</v>
+        <v>0.1440360721551164</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05583459259303624</v>
+        <v>0.1230705230865477</v>
       </c>
       <c r="L142" t="n">
-        <v>0.3418329876716196</v>
+        <v>0.25565506934876</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05253850154813063</v>
+        <v>0.123058251628346</v>
       </c>
       <c r="N142" t="n">
-        <v>0.486265613985963</v>
+        <v>0.3644686282534469</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05498956270054425</v>
+        <v>0.1232082361174772</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1187213897315735</v>
+        <v>0.08935900156644899</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05684573606645144</v>
+        <v>0.1241184606286322</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1986800297378191</v>
+        <v>0.1452805285283834</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05655971717216658</v>
+        <v>0.1246688415681912</v>
       </c>
       <c r="L143" t="n">
-        <v>0.3432178269939883</v>
+        <v>0.255934838195534</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05322081975005441</v>
+        <v>0.1246564107404025</v>
       </c>
       <c r="N143" t="n">
-        <v>0.4886134028360674</v>
+        <v>0.3654628715825801</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05570371286548639</v>
+        <v>0.1248083430800418</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1262296046805797</v>
+        <v>0.08443823066805634</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05757452755448286</v>
+        <v>0.1257097229443839</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1992556449144631</v>
+        <v>0.144977537177807</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05728484175129692</v>
+        <v>0.1262671600498347</v>
       </c>
       <c r="L144" t="n">
-        <v>0.3444934844480491</v>
+        <v>0.2566074719253112</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05390313795197818</v>
+        <v>0.1262545698524589</v>
       </c>
       <c r="N144" t="n">
-        <v>0.4919769961295903</v>
+        <v>0.3684916615949613</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05641786303042853</v>
+        <v>0.1264084500426064</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1287189466565026</v>
+        <v>0.08554832060343248</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0583033190425143</v>
+        <v>0.1273009852601356</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1985825615011071</v>
+        <v>0.1448244269775033</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05800996633042727</v>
+        <v>0.1278654785314781</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3437540798823016</v>
+        <v>0.2559682479785401</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05458545615390195</v>
+        <v>0.1278527289645154</v>
       </c>
       <c r="N145" t="n">
-        <v>0.4999068470722962</v>
+        <v>0.3672481986966972</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05713201319537065</v>
+        <v>0.1280085570051711</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1271866233252526</v>
+        <v>0.09168757803844654</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05903211053054573</v>
+        <v>0.1288922475758873</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1994548450657917</v>
+        <v>0.1444185268015875</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05873509090955761</v>
+        <v>0.1294637970131216</v>
       </c>
       <c r="L146" t="n">
-        <v>0.3467937331452458</v>
+        <v>0.2553124437956694</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05526777435582573</v>
+        <v>0.1294508880765718</v>
       </c>
       <c r="N146" t="n">
-        <v>0.5014534088699496</v>
+        <v>0.3685256832938946</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05784616336031279</v>
+        <v>0.1296086639677357</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.11862984235274</v>
+        <v>0.09185430963896765</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05976090201857715</v>
+        <v>0.130483509891639</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2017665611765576</v>
+        <v>0.1456571655241756</v>
       </c>
       <c r="K147" t="n">
-        <v>0.05946021548868794</v>
+        <v>0.1310621154947651</v>
       </c>
       <c r="L147" t="n">
-        <v>0.3463065640853809</v>
+        <v>0.2566353368171476</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0559500925577495</v>
+        <v>0.1310490471886283</v>
       </c>
       <c r="N147" t="n">
-        <v>0.5036671347283151</v>
+        <v>0.3697173157926598</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05856031352525492</v>
+        <v>0.1312087709303003</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1280458114048754</v>
+        <v>0.08904682207086492</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06048969350660858</v>
+        <v>0.1320747722073906</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2022117754014451</v>
+        <v>0.1460376720193834</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06018534006781828</v>
+        <v>0.1326604339764085</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3484866925512068</v>
+        <v>0.2574322044834232</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05663241075967327</v>
+        <v>0.1326472063006847</v>
       </c>
       <c r="N148" t="n">
-        <v>0.5069984778531572</v>
+        <v>0.3693162965990991</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05927446369019704</v>
+        <v>0.132808877892865</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1304888297829024</v>
+        <v>0.09226342200000756</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06121848499464001</v>
+        <v>0.1336660345231423</v>
       </c>
       <c r="J149" t="n">
-        <v>0.202384553308495</v>
+        <v>0.1449573751613263</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06091046464694862</v>
+        <v>0.134258752458052</v>
       </c>
       <c r="L149" t="n">
-        <v>0.3494282383912236</v>
+        <v>0.2564983242349449</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05731472896159705</v>
+        <v>0.1342453654127411</v>
       </c>
       <c r="N149" t="n">
-        <v>0.5078978914502403</v>
+        <v>0.3704158261193197</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05998861385513918</v>
+        <v>0.1344089848554296</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1188044401212214</v>
+        <v>0.08950241609226459</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06194727648267145</v>
+        <v>0.135257296838894</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2031236070345086</v>
+        <v>0.1453136038241202</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06163558922607897</v>
+        <v>0.1358570709396955</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3524253214539306</v>
+        <v>0.2576289735121612</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05799704716352082</v>
+        <v>0.1358435245247976</v>
       </c>
       <c r="N150" t="n">
-        <v>0.5105158287253291</v>
+        <v>0.3686091047594274</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06070276402008132</v>
+        <v>0.1360090918179943</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.121195525763372</v>
+        <v>0.08876211101350526</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06267606797070287</v>
+        <v>0.1368485591546457</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2023794939722557</v>
+        <v>0.1464036868818806</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06236071380520931</v>
+        <v>0.137455389421339</v>
       </c>
       <c r="L151" t="n">
-        <v>0.3547720615878276</v>
+        <v>0.2599194297555206</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0586793653654446</v>
+        <v>0.137441683636854</v>
       </c>
       <c r="N151" t="n">
-        <v>0.5153377280027166</v>
+        <v>0.3695893329255291</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06141691418502346</v>
+        <v>0.1376091987805589</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1206023328591446</v>
+        <v>0.08604081342959863</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06340485945873429</v>
+        <v>0.1384398214703974</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2023751879850809</v>
+        <v>0.1463249532087234</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06308583838433965</v>
+        <v>0.1390537079029825</v>
       </c>
       <c r="L152" t="n">
-        <v>0.3559625786414142</v>
+        <v>0.2585649704054718</v>
       </c>
       <c r="M152" t="n">
-        <v>0.05936168356736838</v>
+        <v>0.1390398427489105</v>
       </c>
       <c r="N152" t="n">
-        <v>0.5140183713643136</v>
+        <v>0.3726497110237312</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06213106434996558</v>
+        <v>0.1392093057431235</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1220215332978608</v>
+        <v>0.09433683000641394</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06413365094676572</v>
+        <v>0.1400310837861491</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2042714465607105</v>
+        <v>0.1477747316787641</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06381096296346998</v>
+        <v>0.1406520263846259</v>
       </c>
       <c r="L153" t="n">
-        <v>0.3567909924631905</v>
+        <v>0.2605608729024634</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06004400176929215</v>
+        <v>0.1406380018609669</v>
       </c>
       <c r="N153" t="n">
-        <v>0.5144273172308481</v>
+        <v>0.3715834394601403</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06284521451490771</v>
+        <v>0.1408094127056882</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1224497989688424</v>
+        <v>0.09468583457772431</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06486244243479716</v>
+        <v>0.1416223461019008</v>
       </c>
       <c r="J154" t="n">
-        <v>0.204665892040836</v>
+        <v>0.14735037189936</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06453608754260032</v>
+        <v>0.1422503448662694</v>
       </c>
       <c r="L154" t="n">
-        <v>0.3578514229016556</v>
+        <v>0.2628025903650774</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06072631997121592</v>
+        <v>0.1422361609730233</v>
       </c>
       <c r="N154" t="n">
-        <v>0.5170277829361968</v>
+        <v>0.3724837186408629</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06355936467984985</v>
+        <v>0.1424095196682528</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1288838017614108</v>
+        <v>0.09129455437143219</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06559123392282858</v>
+        <v>0.1432136084176525</v>
       </c>
       <c r="J155" t="n">
-        <v>0.203856146767148</v>
+        <v>0.1484842772795118</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06526121212173068</v>
+        <v>0.1438486633479129</v>
       </c>
       <c r="L155" t="n">
-        <v>0.3592306675186127</v>
+        <v>0.2620094651066458</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06140863817313971</v>
+        <v>0.1438343200850798</v>
       </c>
       <c r="N155" t="n">
-        <v>0.5194145636128764</v>
+        <v>0.376307991800119</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06427351484479198</v>
+        <v>0.1440096266308174</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1233202135648877</v>
+        <v>0.08615221909719403</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06632002541086</v>
+        <v>0.1448048707334042</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2052398330813379</v>
+        <v>0.148747945715511</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06598633670086101</v>
+        <v>0.1454469818295563</v>
       </c>
       <c r="L156" t="n">
-        <v>0.3570159660659612</v>
+        <v>0.2647746885536771</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06209095637506348</v>
+        <v>0.1454324791971362</v>
       </c>
       <c r="N156" t="n">
-        <v>0.5194824543934041</v>
+        <v>0.3783419767062125</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06498766500973412</v>
+        <v>0.1456097335933821</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1327557062685949</v>
+        <v>0.08920771108460673</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06704881689889144</v>
+        <v>0.1463961330491559</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2044145733250967</v>
+        <v>0.1501607423639026</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06671146127999135</v>
+        <v>0.1470453003111998</v>
       </c>
       <c r="L157" t="n">
-        <v>0.3601242253184989</v>
+        <v>0.2659556980316178</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06277327457698724</v>
+        <v>0.1470306383091927</v>
       </c>
       <c r="N157" t="n">
-        <v>0.5227262504102966</v>
+        <v>0.3822884841051613</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06570181517467626</v>
+        <v>0.1472098405559467</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1241869517618539</v>
+        <v>0.08740991266326714</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06777760838692287</v>
+        <v>0.1479873953649076</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2055779898401153</v>
+        <v>0.1538420323812313</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06743658585912168</v>
+        <v>0.1486436187928433</v>
       </c>
       <c r="L158" t="n">
-        <v>0.3606598992676343</v>
+        <v>0.2689099308659139</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06345559277891102</v>
+        <v>0.1486287974212491</v>
       </c>
       <c r="N158" t="n">
-        <v>0.5245407467960709</v>
+        <v>0.3869422506687262</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0664159653396184</v>
+        <v>0.1488099475185114</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1236106219339864</v>
+        <v>0.1007077061627721</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0685063998749543</v>
+        <v>0.1495786576806593</v>
       </c>
       <c r="J159" t="n">
-        <v>0.205127704968085</v>
+        <v>0.1558111809240419</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06816171043825203</v>
+        <v>0.1502419372744868</v>
       </c>
       <c r="L159" t="n">
-        <v>0.3611193943493733</v>
+        <v>0.2755948243820117</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06413791098083479</v>
+        <v>0.1502269565333056</v>
       </c>
       <c r="N159" t="n">
-        <v>0.5249207386832442</v>
+        <v>0.3946980130686679</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06713011550456052</v>
+        <v>0.150410054481076</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.135023388674314</v>
+        <v>0.09204997391271846</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06923519136298573</v>
+        <v>0.151169919996411</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2063613410506966</v>
+        <v>0.1570875531488795</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06888683501738238</v>
+        <v>0.1518402557561302</v>
       </c>
       <c r="L160" t="n">
-        <v>0.3614991169997213</v>
+        <v>0.2773678159053574</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06482022918275857</v>
+        <v>0.151825115645362</v>
       </c>
       <c r="N160" t="n">
-        <v>0.525661021204333</v>
+        <v>0.3972505079767477</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06784426566950265</v>
+        <v>0.1520101614436407</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1294219238721585</v>
+        <v>0.09338559824270315</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06996398285101715</v>
+        <v>0.1527611823121627</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2065765204296413</v>
+        <v>0.1585905142122886</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06961195959651272</v>
+        <v>0.1534385742377737</v>
       </c>
       <c r="L161" t="n">
-        <v>0.3649954736546838</v>
+        <v>0.2817863427613974</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06550254738468235</v>
+        <v>0.1534232747574185</v>
       </c>
       <c r="N161" t="n">
-        <v>0.5257563894918545</v>
+        <v>0.4041944720647261</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06855841583444479</v>
+        <v>0.1536102684062053</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1328028994168413</v>
+        <v>0.100663461482323</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07069277433904859</v>
+        <v>0.1543524446279144</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2073708654466102</v>
+        <v>0.1606394292708143</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07033708417564305</v>
+        <v>0.1550368927194172</v>
       </c>
       <c r="L162" t="n">
-        <v>0.3653048707502669</v>
+        <v>0.2856078422755777</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06618486558660612</v>
+        <v>0.1550214338694749</v>
       </c>
       <c r="N162" t="n">
-        <v>0.5293016386783258</v>
+        <v>0.4105246420043642</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06927256599938691</v>
+        <v>0.1552103753687699</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1331629871976843</v>
+        <v>0.1028324459611749</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07142156582708001</v>
+        <v>0.1559437069436661</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2063419984432944</v>
+        <v>0.1620536634810013</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07106220875477338</v>
+        <v>0.1566352112010607</v>
       </c>
       <c r="L163" t="n">
-        <v>0.3650237147224759</v>
+        <v>0.2895897517733448</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06686718378852989</v>
+        <v>0.1566195929815313</v>
       </c>
       <c r="N163" t="n">
-        <v>0.5301915638962635</v>
+        <v>0.4145357544674229</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06998671616432905</v>
+        <v>0.1568104823313345</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1254988591040089</v>
+        <v>0.104845271720486</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07215035731511144</v>
+        <v>0.1575349692594178</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2077875417613846</v>
+        <v>0.1652525819993945</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07178733333390375</v>
+        <v>0.1582335296827042</v>
       </c>
       <c r="L164" t="n">
-        <v>0.3677484120073163</v>
+        <v>0.2900895085801448</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06754950199045366</v>
+        <v>0.1582177520935878</v>
       </c>
       <c r="N164" t="n">
-        <v>0.531420960278185</v>
+        <v>0.4147225461256629</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07070086632927118</v>
+        <v>0.1584105892938992</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1238071870251369</v>
+        <v>0.09578292485923845</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07287914880314288</v>
+        <v>0.1591262315751694</v>
       </c>
       <c r="J165" t="n">
-        <v>0.2073051177425724</v>
+        <v>0.1668424937991139</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07251245791303408</v>
+        <v>0.1598318481643476</v>
       </c>
       <c r="L165" t="n">
-        <v>0.3675753690407942</v>
+        <v>0.2932224556155961</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06823182019237745</v>
+        <v>0.1598159112056442</v>
       </c>
       <c r="N165" t="n">
-        <v>0.5326846229566067</v>
+        <v>0.4189393618382757</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07141501649421331</v>
+        <v>0.1600106962564638</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.13608464285039</v>
+        <v>0.1026980388171659</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0736079402911743</v>
+        <v>0.1607174938909211</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2069923487285483</v>
+        <v>0.1667883913982804</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07323758249216442</v>
+        <v>0.1614301666459911</v>
       </c>
       <c r="L166" t="n">
-        <v>0.3697009922589151</v>
+        <v>0.2978787055057422</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06891413839430122</v>
+        <v>0.1614140703177006</v>
       </c>
       <c r="N166" t="n">
-        <v>0.5310773470640459</v>
+        <v>0.4253217066349871</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07212916665915545</v>
+        <v>0.1616108032190285</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1243278984690898</v>
+        <v>0.1005922352006264</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07433673177920573</v>
+        <v>0.1623087562066728</v>
       </c>
       <c r="J167" t="n">
-        <v>0.2079468570610038</v>
+        <v>0.168300331839184</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07396270707129475</v>
+        <v>0.1630284851276346</v>
       </c>
       <c r="L167" t="n">
-        <v>0.3710216880976842</v>
+        <v>0.2992749572358397</v>
       </c>
       <c r="M167" t="n">
-        <v>0.06959645659622499</v>
+        <v>0.1630122294297571</v>
       </c>
       <c r="N167" t="n">
-        <v>0.5312939277330194</v>
+        <v>0.4273169937553358</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07284331682409757</v>
+        <v>0.1632109101815931</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1255336257705578</v>
+        <v>0.09846713561597845</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07506552326723714</v>
+        <v>0.1639000185224245</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2075662650816298</v>
+        <v>0.1703808731017524</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0746878316504251</v>
+        <v>0.1646268036092781</v>
       </c>
       <c r="L168" t="n">
-        <v>0.3705338629931075</v>
+        <v>0.2997157333230082</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07027877479814877</v>
+        <v>0.1646103885418135</v>
       </c>
       <c r="N168" t="n">
-        <v>0.5342291600960443</v>
+        <v>0.429531734769892</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07355746698903971</v>
+        <v>0.1648110171441577</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1286984966441158</v>
+        <v>0.1103243616695803</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07579431475526859</v>
+        <v>0.1654912808381762</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2074481951321173</v>
+        <v>0.1721325731659136</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07541295622955545</v>
+        <v>0.1662251220909216</v>
       </c>
       <c r="L169" t="n">
-        <v>0.3718339233811908</v>
+        <v>0.3028055562843671</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07096109300007254</v>
+        <v>0.16620854765387</v>
       </c>
       <c r="N169" t="n">
-        <v>0.5343778392856372</v>
+        <v>0.4331724412492256</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07427161715398185</v>
+        <v>0.1664111241067224</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1338191829790854</v>
+        <v>0.1011655349677903</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07652310624330001</v>
+        <v>0.1670825431539279</v>
       </c>
       <c r="J170" t="n">
-        <v>0.2070902695541574</v>
+        <v>0.1729579900115953</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07613808080868578</v>
+        <v>0.167823440572565</v>
       </c>
       <c r="L170" t="n">
-        <v>0.3736182756979395</v>
+        <v>0.3071489486370363</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07164341120199631</v>
+        <v>0.1678067067659264</v>
       </c>
       <c r="N170" t="n">
-        <v>0.5331347604343154</v>
+        <v>0.4399456247639068</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07498576731892398</v>
+        <v>0.168011231069287</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1338923566647882</v>
+        <v>0.1069922771169668</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07725189773133144</v>
+        <v>0.1686738054696796</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2073914328669135</v>
+        <v>0.1748596816187254</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07686320538781612</v>
+        <v>0.1694217590542085</v>
       </c>
       <c r="L171" t="n">
-        <v>0.3753833263793593</v>
+        <v>0.3085504328981354</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07232572940392008</v>
+        <v>0.1694048658779829</v>
       </c>
       <c r="N171" t="n">
-        <v>0.534494718674596</v>
+        <v>0.442557796884505</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07569991748386612</v>
+        <v>0.1696113380318517</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1289147518304443</v>
+        <v>0.113806209723468</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07798068921936287</v>
+        <v>0.1702650677854313</v>
       </c>
       <c r="J172" t="n">
-        <v>0.2086584128509792</v>
+        <v>0.1764402059672318</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07758832996694646</v>
+        <v>0.171020077535852</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3743254818614559</v>
+        <v>0.3121145315847844</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07300804760584385</v>
+        <v>0.1710030249900393</v>
       </c>
       <c r="N172" t="n">
-        <v>0.5345525091389954</v>
+        <v>0.4433154691815906</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07641406764880825</v>
+        <v>0.1712114449944163</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1288956806858206</v>
+        <v>0.1096089543936523</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07870948070739429</v>
+        <v>0.171856330101183</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2080932419176943</v>
+        <v>0.1761021210370421</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07831345454607681</v>
+        <v>0.1726183960174955</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3765411485802347</v>
+        <v>0.3126457672141023</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07369036580776762</v>
+        <v>0.1726011841020957</v>
       </c>
       <c r="N173" t="n">
-        <v>0.5352029269600309</v>
+        <v>0.4501251532257334</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07712821781375039</v>
+        <v>0.1728115519569809</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1248443299025386</v>
+        <v>0.102402132733878</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07943827219542574</v>
+        <v>0.1734475924169347</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2085967788994506</v>
+        <v>0.1788479848080844</v>
       </c>
       <c r="K174" t="n">
-        <v>0.07903857912520715</v>
+        <v>0.1742167144991389</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3796267329717016</v>
+        <v>0.3156486623032091</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07437268400969141</v>
+        <v>0.1741993432141522</v>
       </c>
       <c r="N174" t="n">
-        <v>0.5370407672702195</v>
+        <v>0.4511933605875034</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07784236797869251</v>
+        <v>0.1744116589195456</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.137761724634767</v>
+        <v>0.1131873663505034</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08016706368345716</v>
+        <v>0.1750388547326864</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2079698826286399</v>
+        <v>0.1790803552602864</v>
       </c>
       <c r="K175" t="n">
-        <v>0.07976370370433748</v>
+        <v>0.1758150329807824</v>
       </c>
       <c r="L175" t="n">
-        <v>0.3800786414718621</v>
+        <v>0.3181277393692244</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07505500221161518</v>
+        <v>0.1757975023262086</v>
       </c>
       <c r="N175" t="n">
-        <v>0.5358590264808907</v>
+        <v>0.4564266028374705</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07855651814363465</v>
+        <v>0.1760117658821102</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1296488900366746</v>
+        <v>0.1059792528880761</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08089585517148858</v>
+        <v>0.1766301170484381</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2065134119376541</v>
+        <v>0.1804046507180293</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08048882828346782</v>
+        <v>0.1774133514624259</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3788932805167221</v>
+        <v>0.3201929762250509</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07573732041353895</v>
+        <v>0.1773956614382651</v>
       </c>
       <c r="N176" t="n">
-        <v>0.5365323641557369</v>
+        <v>0.4556337086802735</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07927066830857678</v>
+        <v>0.1776118728446749</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.12450685126243</v>
+        <v>0.1168170211611022</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08162464665952002</v>
+        <v>0.1782213793641898</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2070282256588852</v>
+        <v>0.182088346642229</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08121395286259817</v>
+        <v>0.1790116699440694</v>
       </c>
       <c r="L177" t="n">
-        <v>0.3797670565422868</v>
+        <v>0.3204641815041143</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07641963861546273</v>
+        <v>0.1789938205503215</v>
       </c>
       <c r="N177" t="n">
-        <v>0.5369589349134372</v>
+        <v>0.4627746684282751</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0799848184735189</v>
+        <v>0.1792119798072395</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1353366334662019</v>
+        <v>0.1106785967105473</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08235343814755144</v>
+        <v>0.1798126416799415</v>
       </c>
       <c r="J178" t="n">
-        <v>0.206115182624725</v>
+        <v>0.18392630842418</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08193907744172851</v>
+        <v>0.1806099884257128</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3800963759845623</v>
+        <v>0.3233306645641515</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0771019568173865</v>
+        <v>0.180591979662378</v>
       </c>
       <c r="N178" t="n">
-        <v>0.5367450160439137</v>
+        <v>0.4658644896958655</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08069896863846104</v>
+        <v>0.1808120867698041</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1241392618021592</v>
+        <v>0.1145361231992485</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08308222963558287</v>
+        <v>0.1814039039956932</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2075751416675654</v>
+        <v>0.1846745944803036</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08266420202085885</v>
+        <v>0.1822083069073563</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3815776452795538</v>
+        <v>0.3261147365375382</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07778427501931028</v>
+        <v>0.1821901387744344</v>
       </c>
       <c r="N179" t="n">
-        <v>0.5337968848370882</v>
+        <v>0.4684913151852942</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08141311880340318</v>
+        <v>0.1824121937323688</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1339157614244705</v>
+        <v>0.1073617442900428</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0838110211236143</v>
+        <v>0.1829951663114449</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2070089616197984</v>
+        <v>0.1863892632270212</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08338932659998918</v>
+        <v>0.1838066253889998</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3839072708632673</v>
+        <v>0.3286387085566504</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07846659322123406</v>
+        <v>0.1837882978864908</v>
       </c>
       <c r="N180" t="n">
-        <v>0.5339208185828825</v>
+        <v>0.4724432875988106</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08212726896834532</v>
+        <v>0.1840123006949334</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1316671574873045</v>
+        <v>0.1111276036457674</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08453981261164573</v>
+        <v>0.1845864286271965</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2072175013138159</v>
+        <v>0.1862263730807542</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08411445117911953</v>
+        <v>0.1854049438706433</v>
       </c>
       <c r="L181" t="n">
-        <v>0.3845816591717083</v>
+        <v>0.3318248917538639</v>
       </c>
       <c r="M181" t="n">
-        <v>0.07914891142315783</v>
+        <v>0.1853864569985473</v>
       </c>
       <c r="N181" t="n">
-        <v>0.5344230945712187</v>
+        <v>0.4738085496386645</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08284141913328745</v>
+        <v>0.185612407657498</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1283944751448299</v>
+        <v>0.1088058449292595</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08526860409967717</v>
+        <v>0.1861776909429482</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2052016195820096</v>
+        <v>0.1886419824579242</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08483957575824988</v>
+        <v>0.1870032623522867</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3833972166408823</v>
+        <v>0.3315955972615545</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0798312296250816</v>
+        <v>0.1869846161106037</v>
       </c>
       <c r="N182" t="n">
-        <v>0.5302099900920185</v>
+        <v>0.475575244007105</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08355556929822958</v>
+        <v>0.1872125146200627</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1230987395512155</v>
+        <v>0.1213686118033563</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08599739558770858</v>
+        <v>0.1877689532586999</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2051621752567715</v>
+        <v>0.1901921497749526</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08556470033738021</v>
+        <v>0.1886015808339302</v>
       </c>
       <c r="L183" t="n">
-        <v>0.3864503497067954</v>
+        <v>0.3350731362120978</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08051354782700539</v>
+        <v>0.1885827752226602</v>
       </c>
       <c r="N183" t="n">
-        <v>0.5307877824352041</v>
+        <v>0.4779315134063817</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08426971946317172</v>
+        <v>0.1888126215826273</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.12778097586063</v>
+        <v>0.1147880479308949</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08672618707574001</v>
+        <v>0.1893602155744516</v>
       </c>
       <c r="J184" t="n">
-        <v>0.2054000271704935</v>
+        <v>0.1909329334482607</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08628982491651055</v>
+        <v>0.1901998993155737</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3850374648054525</v>
+        <v>0.3373798197378698</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08119586602892916</v>
+        <v>0.1901809343347166</v>
       </c>
       <c r="N184" t="n">
-        <v>0.532062748890697</v>
+        <v>0.4823655005387442</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08498386962811384</v>
+        <v>0.190412728545192</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.126442209227242</v>
+        <v>0.1211037148162588</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08745497856377145</v>
+        <v>0.1909514778902033</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2059160341555675</v>
+        <v>0.1897574115171869</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08701494949564088</v>
+        <v>0.1917982177972172</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3848549683728598</v>
+        <v>0.3383054488170217</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08187818423085293</v>
+        <v>0.191779093446773</v>
       </c>
       <c r="N185" t="n">
-        <v>0.5303411667484196</v>
+        <v>0.4841298438328363</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08569801979305598</v>
+        <v>0.1920128355077566</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1240834648052204</v>
+        <v>0.1224114765734577</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08818377005180288</v>
+        <v>0.192542740205955</v>
       </c>
       <c r="J186" t="n">
-        <v>0.2040110550443854</v>
+        <v>0.1912422148724889</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08774007407477123</v>
+        <v>0.1933965362788607</v>
       </c>
       <c r="L186" t="n">
-        <v>0.3869992668450231</v>
+        <v>0.3380626100943257</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08256050243277671</v>
+        <v>0.1933772525588295</v>
       </c>
       <c r="N186" t="n">
-        <v>0.5264293132982933</v>
+        <v>0.48276351120475</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08641216995799811</v>
+        <v>0.1936129424703212</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1247057677487338</v>
+        <v>0.11971254365163</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0889125615398343</v>
+        <v>0.1941340025217067</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2043859486693391</v>
+        <v>0.1908165601081482</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08846519865390158</v>
+        <v>0.1949948547605041</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3852667666579473</v>
+        <v>0.3381012773132409</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08324282063470048</v>
+        <v>0.1949754116708859</v>
       </c>
       <c r="N187" t="n">
-        <v>0.5246334658302404</v>
+        <v>0.4854706221268118</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08712632012294025</v>
+        <v>0.1952130494328859</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1243101432119509</v>
+        <v>0.1170068135356856</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08964135302786573</v>
+        <v>0.1957252648374584</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2035415738628205</v>
+        <v>0.1908802855131915</v>
       </c>
       <c r="K188" t="n">
-        <v>0.08919032323303192</v>
+        <v>0.1965931732421476</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3879538742476388</v>
+        <v>0.3392211645682217</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08392513883662425</v>
+        <v>0.1965735707829424</v>
       </c>
       <c r="N188" t="n">
-        <v>0.5238599016341825</v>
+        <v>0.48895076494903</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08784047028788237</v>
+        <v>0.1968131563954505</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1228976163490405</v>
+        <v>0.1122941837105342</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09037014451589716</v>
+        <v>0.1973165271532101</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2033787894572214</v>
+        <v>0.1928332293766449</v>
       </c>
       <c r="K189" t="n">
-        <v>0.08991544781216225</v>
+        <v>0.1981914917237911</v>
       </c>
       <c r="L189" t="n">
-        <v>0.3874569960501029</v>
+        <v>0.340521985953723</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08460745703854804</v>
+        <v>0.1981717298949988</v>
       </c>
       <c r="N189" t="n">
-        <v>0.5216148980000419</v>
+        <v>0.486603528021412</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08855462045282451</v>
+        <v>0.1984132633580151</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1214692123141712</v>
+        <v>0.1185745516610856</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0910989360039286</v>
+        <v>0.1989077894689618</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2016984542849338</v>
+        <v>0.193375229987535</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0906405723912926</v>
+        <v>0.1997898102054345</v>
       </c>
       <c r="L190" t="n">
-        <v>0.3874676980184674</v>
+        <v>0.339203455564199</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08528977524047181</v>
+        <v>0.1997698890070553</v>
       </c>
       <c r="N190" t="n">
-        <v>0.51910473221774</v>
+        <v>0.4873284996939665</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08926877061776665</v>
+        <v>0.2000133703205798</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1280259562615118</v>
+        <v>0.1148478148722496</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09182772749196001</v>
+        <v>0.2004990517847135</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2031014271783495</v>
+        <v>0.1928061256348881</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09136569697042295</v>
+        <v>0.201388128687078</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3852196856797637</v>
+        <v>0.3408652874941043</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08597209344239558</v>
+        <v>0.2013680481191117</v>
       </c>
       <c r="N191" t="n">
-        <v>0.5213356815771991</v>
+        <v>0.4879252683167012</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08998292078270878</v>
+        <v>0.2016134772831444</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1285688733452311</v>
+        <v>0.1161138708289361</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09255651897999144</v>
+        <v>0.2020903141004652</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2006885669698605</v>
+        <v>0.1945257546077305</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09209082154955328</v>
+        <v>0.2029864471687215</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3876986539699765</v>
+        <v>0.3415071958378936</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08665441164431935</v>
+        <v>0.2029662072311681</v>
       </c>
       <c r="N192" t="n">
-        <v>0.5168140233683409</v>
+        <v>0.4922934222396247</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09069707094765092</v>
+        <v>0.2032135842457091</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1280989887194977</v>
+        <v>0.1253726170160548</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09328531046802287</v>
+        <v>0.2036815764162169</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2018607324918585</v>
+        <v>0.1949339551950887</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09281594612868362</v>
+        <v>0.204584765650365</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3846120049002908</v>
+        <v>0.3420288946900212</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08733672984624312</v>
+        <v>0.2045643663432246</v>
       </c>
       <c r="N193" t="n">
-        <v>0.5180460348810876</v>
+        <v>0.4923325498127444</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09141122111259305</v>
+        <v>0.2048136912082737</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1316173275384802</v>
+        <v>0.1246239509185156</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09401410195605431</v>
+        <v>0.2052728387319686</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2015187825767357</v>
+        <v>0.195330565685989</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09354107070781396</v>
+        <v>0.2061830841320085</v>
       </c>
       <c r="L194" t="n">
-        <v>0.383867140481892</v>
+        <v>0.3429300981449417</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08801904804816689</v>
+        <v>0.206162525455281</v>
       </c>
       <c r="N194" t="n">
-        <v>0.5163379934053606</v>
+        <v>0.4919422393860687</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09212537127753517</v>
+        <v>0.2064137981708384</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1291249149563476</v>
+        <v>0.1138677700212281</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09474289344408574</v>
+        <v>0.2068641010477203</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1999635760568838</v>
+        <v>0.1954154243694579</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0942661952869443</v>
+        <v>0.2077814026136519</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3858714627259648</v>
+        <v>0.3436105202971096</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08870136625009067</v>
+        <v>0.2077606845673375</v>
       </c>
       <c r="N195" t="n">
-        <v>0.5121961762310822</v>
+        <v>0.4919220793096059</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09283952144247731</v>
+        <v>0.208013905133403</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1246227761272685</v>
+        <v>0.1231039718091024</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09547168493211715</v>
+        <v>0.208455363363472</v>
       </c>
       <c r="J196" t="n">
-        <v>0.2001959717646947</v>
+        <v>0.1941883695345216</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09499131986607465</v>
+        <v>0.2093797210952954</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3817323736436946</v>
+        <v>0.3434698752409795</v>
       </c>
       <c r="M196" t="n">
-        <v>0.08938368445201444</v>
+        <v>0.2093588436793939</v>
       </c>
       <c r="N196" t="n">
-        <v>0.5115268606481742</v>
+        <v>0.4974716579333638</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09355367160741944</v>
+        <v>0.2096140120959676</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1211119362054115</v>
+        <v>0.1253324537670481</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09620047642014859</v>
+        <v>0.2100466256792237</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1984168285325603</v>
+        <v>0.1955492394702067</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09571644444520498</v>
+        <v>0.2109780395769389</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3811572752462664</v>
+        <v>0.3444078770710057</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09006600265393822</v>
+        <v>0.2109570027914503</v>
       </c>
       <c r="N197" t="n">
-        <v>0.5105363239465585</v>
+        <v>0.4957905636073503</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09426782177236158</v>
+        <v>0.2112141190585323</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1215934203449455</v>
+        <v>0.1225531133799751</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09692926790818002</v>
+        <v>0.2116378879949754</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1986270051928725</v>
+        <v>0.1958978724655395</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09644156902433532</v>
+        <v>0.2125763580585824</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3793535695448654</v>
+        <v>0.3469242398816429</v>
       </c>
       <c r="M198" t="n">
-        <v>0.090748320855862</v>
+        <v>0.2125551619035068</v>
       </c>
       <c r="N198" t="n">
-        <v>0.504230843416157</v>
+        <v>0.4948783846815739</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09498197193730371</v>
+        <v>0.2128142260210969</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.117068253700039</v>
+        <v>0.1237658481327932</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09765805939621144</v>
+        <v>0.2132291503107271</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1971273605780233</v>
+        <v>0.1968341068095464</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09716669360346566</v>
+        <v>0.2141746765402258</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3812286585506767</v>
+        <v>0.3453186777673456</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09143063905778577</v>
+        <v>0.2141533210155633</v>
       </c>
       <c r="N199" t="n">
-        <v>0.5031166963468916</v>
+        <v>0.4993347095060426</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09569612210224583</v>
+        <v>0.2144143329836616</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.124537461424861</v>
+        <v>0.1189705555104121</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09838685088424287</v>
+        <v>0.2148204126264787</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1964187535204043</v>
+        <v>0.1970577807912537</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09789181818259601</v>
+        <v>0.2157729950218693</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3800899442748853</v>
+        <v>0.3490909048225684</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09211295725970954</v>
+        <v>0.2157514801276197</v>
       </c>
       <c r="N200" t="n">
-        <v>0.5032001600286844</v>
+        <v>0.4986591264307644</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09641027226718797</v>
+        <v>0.2160144399462262</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1240020686735799</v>
+        <v>0.1271671329977417</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0991156423722743</v>
+        <v>0.2164116749422304</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1958020428524078</v>
+        <v>0.196768732699688</v>
       </c>
       <c r="K201" t="n">
-        <v>0.09861694276172635</v>
+        <v>0.2173713135035128</v>
       </c>
       <c r="L201" t="n">
-        <v>0.3784448287286764</v>
+        <v>0.3470406351417654</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09279527546163333</v>
+        <v>0.2173496392396761</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4991875117514569</v>
+        <v>0.4969512238057472</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09712442243213011</v>
+        <v>0.2176145469087908</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1164631006003647</v>
+        <v>0.1163554780796917</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09984443386030574</v>
+        <v>0.2180029372579821</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1962780874064254</v>
+        <v>0.1976668008238754</v>
       </c>
       <c r="K202" t="n">
-        <v>0.09934206734085668</v>
+        <v>0.2189696319851563</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3750007139232351</v>
+        <v>0.3502675828193916</v>
       </c>
       <c r="M202" t="n">
-        <v>0.0934775936635571</v>
+        <v>0.2189477983517326</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4984850288051313</v>
+        <v>0.4995105899809993</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09783857259707225</v>
+        <v>0.2192146538713554</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.119921582359384</v>
+        <v>0.1155354882411721</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1005732253483372</v>
+        <v>0.2195941995737339</v>
       </c>
       <c r="J203" t="n">
-        <v>0.195547746014849</v>
+        <v>0.1984518234528425</v>
       </c>
       <c r="K203" t="n">
-        <v>0.100067191919987</v>
+        <v>0.2205679504667998</v>
       </c>
       <c r="L203" t="n">
-        <v>0.3727650018697466</v>
+        <v>0.3490714619499014</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09415991186548087</v>
+        <v>0.220545957463789</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4982989884796296</v>
+        <v>0.4997368133065287</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09855272276201438</v>
+        <v>0.2208147608339201</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1143785391048064</v>
+        <v>0.1217070609670925</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1013020168363686</v>
+        <v>0.2211854618894855</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1938118775100706</v>
+        <v>0.1969236388756155</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1007923164991174</v>
+        <v>0.2221662689484432</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3722450945793959</v>
+        <v>0.3499519866277493</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09484223006740465</v>
+        <v>0.2221441165758455</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4955356680648733</v>
+        <v>0.4991294821323438</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09926687292695652</v>
+        <v>0.2224148677964847</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1258349959908008</v>
+        <v>0.1228700937423629</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1020308083244</v>
+        <v>0.2227767242052372</v>
       </c>
       <c r="J205" t="n">
-        <v>0.194471340724482</v>
+        <v>0.197182085381221</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1015174410782477</v>
+        <v>0.2237645874300867</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3693483940633682</v>
+        <v>0.3491088709473895</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09552454826932842</v>
+        <v>0.2237422756879019</v>
       </c>
       <c r="N205" t="n">
-        <v>0.4949013448507847</v>
+        <v>0.5028881848084521</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09998102309189864</v>
+        <v>0.2240149747590493</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1152919781715359</v>
+        <v>0.1260244840518929</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1027595998124314</v>
+        <v>0.2243679865209889</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1925269944904753</v>
+        <v>0.1986270012586853</v>
       </c>
       <c r="K206" t="n">
-        <v>0.102242565657378</v>
+        <v>0.2253629059117302</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3690823023328484</v>
+        <v>0.3494418290032769</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09620686647125219</v>
+        <v>0.2253404347999583</v>
       </c>
       <c r="N206" t="n">
-        <v>0.4931022961272855</v>
+        <v>0.5025125096848621</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1006951732568408</v>
+        <v>0.225615081721614</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1197505108011803</v>
+        <v>0.1201701293805924</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1034883913004629</v>
+        <v>0.2259592488367406</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1918796976404422</v>
+        <v>0.1980582247970348</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1029676902365084</v>
+        <v>0.2269612243933736</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3645542213990219</v>
+        <v>0.3503505748898661</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09688918467317598</v>
+        <v>0.2269385939120148</v>
       </c>
       <c r="N207" t="n">
-        <v>0.4911447991842977</v>
+        <v>0.5037020451115817</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1014093234217829</v>
+        <v>0.2272151886841786</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1112116190339028</v>
+        <v>0.1213069272133712</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1042171827884943</v>
+        <v>0.2275505111524923</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1914303090067746</v>
+        <v>0.1995755942852958</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1036928148156387</v>
+        <v>0.2285595428750171</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3625715532730737</v>
+        <v>0.3530348227016111</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09757150287509975</v>
+        <v>0.2285367530240713</v>
       </c>
       <c r="N208" t="n">
-        <v>0.4854351313117432</v>
+        <v>0.5058563794386192</v>
       </c>
       <c r="O208" t="n">
-        <v>0.102123473586725</v>
+        <v>0.2288152956467433</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.114676328023872</v>
+        <v>0.1254347750351391</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1049459742765257</v>
+        <v>0.229141773468244</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1913796874218645</v>
+        <v>0.1992789480124947</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1044179393947691</v>
+        <v>0.2301578613566606</v>
       </c>
       <c r="L209" t="n">
-        <v>0.360041699966189</v>
+        <v>0.351094286532967</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09825382107702352</v>
+        <v>0.2301349121361277</v>
       </c>
       <c r="N209" t="n">
-        <v>0.4862795697995438</v>
+        <v>0.5070751010159823</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1028376237516672</v>
+        <v>0.2304154026093079</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1141456629252568</v>
+        <v>0.1175535703308059</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1056747657645572</v>
+        <v>0.2307330357839957</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1902286917181036</v>
+        <v>0.198768124267658</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1051430639738994</v>
+        <v>0.2317561798383041</v>
       </c>
       <c r="L210" t="n">
-        <v>0.3606720634895526</v>
+        <v>0.3518286804783879</v>
       </c>
       <c r="M210" t="n">
-        <v>0.09893613927894729</v>
+        <v>0.2317330712481841</v>
       </c>
       <c r="N210" t="n">
-        <v>0.4829843919376215</v>
+        <v>0.5046577981936795</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1035517739166093</v>
+        <v>0.2320155095718726</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1156206488922258</v>
+        <v>0.1286632105852815</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1064035572525886</v>
+        <v>0.2323242980997474</v>
       </c>
       <c r="J211" t="n">
-        <v>0.189978180727884</v>
+        <v>0.199742961339812</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1058681885530297</v>
+        <v>0.2333544983199476</v>
       </c>
       <c r="L211" t="n">
-        <v>0.3586700458543499</v>
+        <v>0.3529377186323286</v>
       </c>
       <c r="M211" t="n">
-        <v>0.09961845748087106</v>
+        <v>0.2333312303602406</v>
       </c>
       <c r="N211" t="n">
-        <v>0.4817558750158983</v>
+        <v>0.5048040593217186</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1042659240815514</v>
+        <v>0.2336156165344372</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1160966438133679</v>
+        <v>0.1157635932834755</v>
       </c>
       <c r="G212" t="n">
-        <v>0.10713234874062</v>
+        <v>0.2339155604154991</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1897290132835975</v>
+        <v>0.1998032975179831</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1065933131321601</v>
+        <v>0.2349528168015911</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3566430490717659</v>
+        <v>0.3533211150892434</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1003007756827948</v>
+        <v>0.234929389472297</v>
       </c>
       <c r="N212" t="n">
-        <v>0.4830002963242959</v>
+        <v>0.5063134727501077</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1049800742464936</v>
+        <v>0.2352157234970018</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1115603267046175</v>
+        <v>0.1288546159102979</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1078611402286515</v>
+        <v>0.2355068227312508</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1890781971581294</v>
+        <v>0.1998489710911977</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1073184377112904</v>
+        <v>0.2365511352832345</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3522984751529858</v>
+        <v>0.3537785839435869</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1009830938847186</v>
+        <v>0.2365275485843534</v>
       </c>
       <c r="N213" t="n">
-        <v>0.4812239331527361</v>
+        <v>0.5087856268288551</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1056942244114357</v>
+        <v>0.2368158304595665</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1160111845119192</v>
+        <v>0.1239361759506585</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1085899317166829</v>
+        <v>0.2370980850470025</v>
       </c>
       <c r="J214" t="n">
-        <v>0.187703368369661</v>
+        <v>0.1994798203484823</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1080435622904208</v>
+        <v>0.238149453764878</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3516437261091948</v>
+        <v>0.3520098392898137</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1016654120866424</v>
+        <v>0.2381257076964099</v>
       </c>
       <c r="N214" t="n">
-        <v>0.4795330627911414</v>
+        <v>0.5087201099079687</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1064083745763778</v>
+        <v>0.2384159374221311</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1114493280941136</v>
+        <v>0.1160081708894669</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1093187232047143</v>
+        <v>0.2386893473627542</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1880010598729532</v>
+        <v>0.1989956835788629</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1087686868695511</v>
+        <v>0.2397477722465215</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3493862039515778</v>
+        <v>0.3545145952223779</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1023477302885662</v>
+        <v>0.2397238668084663</v>
       </c>
       <c r="N215" t="n">
-        <v>0.4775279553542936</v>
+        <v>0.5062165103374565</v>
       </c>
       <c r="O215" t="n">
-        <v>0.10712252474132</v>
+        <v>0.2400160443846958</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1108748683100414</v>
+        <v>0.124070498211633</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1100475146927457</v>
+        <v>0.2402806096785058</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1874716073383431</v>
+        <v>0.1994963990713663</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1094938114486815</v>
+        <v>0.2413460907281649</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3468333106913198</v>
+        <v>0.3549925658357349</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1030300484904899</v>
+        <v>0.2413220259205227</v>
       </c>
       <c r="N216" t="n">
-        <v>0.4774462789126214</v>
+        <v>0.5065744164673267</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1078366749062621</v>
+        <v>0.2416161513472604</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1122879160185432</v>
+        <v>0.1181230554020667</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1107763061807772</v>
+        <v>0.2418718719942575</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1860153464361683</v>
+        <v>0.1999818051150188</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1102189360278118</v>
+        <v>0.2429444092098084</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3440924483396065</v>
+        <v>0.3538434652243382</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1037123666924137</v>
+        <v>0.2429201850325792</v>
       </c>
       <c r="N217" t="n">
-        <v>0.4772700637433989</v>
+        <v>0.5084934166475875</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1085508250712042</v>
+        <v>0.243216258309825</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1176885820784596</v>
+        <v>0.1241657399456778</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1115050976688086</v>
+        <v>0.2434631343100093</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1850326128367662</v>
+        <v>0.1990517399988467</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1109440606069421</v>
+        <v>0.2445427276914519</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3397710189076224</v>
+        <v>0.3540670074826432</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1043946848943375</v>
+        <v>0.2445183441446356</v>
       </c>
       <c r="N218" t="n">
-        <v>0.4752994385436397</v>
+        <v>0.5078730992282469</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1092649752361464</v>
+        <v>0.2448163652723896</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1090769773486313</v>
+        <v>0.128198449327376</v>
       </c>
       <c r="G219" t="n">
-        <v>0.11223388915684</v>
+        <v>0.245054396625761</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1846237422104744</v>
+        <v>0.2006060420118764</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1116691851860725</v>
+        <v>0.2461410461730954</v>
       </c>
       <c r="L219" t="n">
-        <v>0.3385764244065529</v>
+        <v>0.3537629067051036</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1050770030962613</v>
+        <v>0.2461165032566921</v>
       </c>
       <c r="N219" t="n">
-        <v>0.4753345320103577</v>
+        <v>0.5061130525593127</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1099791254010885</v>
+        <v>0.2464164722349543</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.117453212687899</v>
+        <v>0.1282210810320712</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1129626806448714</v>
+        <v>0.2466456589415126</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1829890702276301</v>
+        <v>0.2010445494431343</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1123943097652028</v>
+        <v>0.2477393646547388</v>
       </c>
       <c r="L220" t="n">
-        <v>0.337216066847583</v>
+        <v>0.3533308769861745</v>
       </c>
       <c r="M220" t="n">
-        <v>0.105759321298185</v>
+        <v>0.2477146623687485</v>
       </c>
       <c r="N220" t="n">
-        <v>0.4712754728405663</v>
+        <v>0.5057128649907933</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1106932755660306</v>
+        <v>0.2480165791975189</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.109817398955103</v>
+        <v>0.1172335325446731</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1136914721329029</v>
+        <v>0.2482369212572643</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1831289325585709</v>
+        <v>0.2005671005816467</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1131194343443332</v>
+        <v>0.2493376831363824</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3339973482418978</v>
+        <v>0.3537706324203103</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1064416395001088</v>
+        <v>0.249312821480805</v>
       </c>
       <c r="N221" t="n">
-        <v>0.4709223897312793</v>
+        <v>0.5083721248726967</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1114074257309728</v>
+        <v>0.2496166861600836</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1041696470090843</v>
+        <v>0.119222493453266</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1144202636209343</v>
+        <v>0.2498281835730161</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1825436648736342</v>
+        <v>0.2009708872913867</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1138445589234635</v>
+        <v>0.2509360016180258</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3336195107509263</v>
+        <v>0.3524768201080613</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1071239577020326</v>
+        <v>0.2509109805928614</v>
       </c>
       <c r="N222" t="n">
-        <v>0.4704754113795105</v>
+        <v>0.5063884248916445</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1121215758959149</v>
+        <v>0.2512167931226482</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1115100677086833</v>
+        <v>0.1259749370806431</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1151490551089657</v>
+        <v>0.2514194458887677</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1811336028431575</v>
+        <v>0.2004717121320758</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1145696835025938</v>
+        <v>0.2525343200996693</v>
       </c>
       <c r="L223" t="n">
-        <v>0.3316174807979282</v>
+        <v>0.3523442286261568</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1078062759039564</v>
+        <v>0.2525091397049179</v>
       </c>
       <c r="N223" t="n">
-        <v>0.4694346664822736</v>
+        <v>0.5078858120349132</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1128357260608571</v>
+        <v>0.2528169000852128</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1038387719127407</v>
+        <v>0.1154409080182284</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1158778465969972</v>
+        <v>0.2530107082045194</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1792990821374782</v>
+        <v>0.1988135148270526</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1152948080817242</v>
+        <v>0.2541326385813127</v>
       </c>
       <c r="L224" t="n">
-        <v>0.3302758731911515</v>
+        <v>0.3506003679264773</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1084885941058801</v>
+        <v>0.2541072988169743</v>
       </c>
       <c r="N224" t="n">
-        <v>0.4655002837365825</v>
+        <v>0.5057101416890252</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1135498762257992</v>
+        <v>0.2544170070477775</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1101558704800972</v>
+        <v>0.1256523646669975</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1166066380850286</v>
+        <v>0.2546019705202711</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1799404384269338</v>
+        <v>0.19754670770222</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1160199326608545</v>
+        <v>0.2557309570629562</v>
       </c>
       <c r="L225" t="n">
-        <v>0.3270949992129495</v>
+        <v>0.349034367170849</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1091709123078039</v>
+        <v>0.2557054579290307</v>
       </c>
       <c r="N225" t="n">
-        <v>0.4654723918394503</v>
+        <v>0.5000897430148702</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1142640263907413</v>
+        <v>0.2560171140103421</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1014614742695933</v>
+        <v>0.1156412654279261</v>
       </c>
       <c r="G226" t="n">
-        <v>0.11733542957306</v>
+        <v>0.2561932328360228</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1770580073818617</v>
+        <v>0.1973217030834807</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1167450572399849</v>
+        <v>0.2573292755445997</v>
       </c>
       <c r="L226" t="n">
-        <v>0.3234751701456753</v>
+        <v>0.3488353555210988</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1098532305097277</v>
+        <v>0.2573036170410872</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4640511194878912</v>
+        <v>0.4966529451733379</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1149781765556834</v>
+        <v>0.2576172209729068</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1017556941400697</v>
+        <v>0.1144395687019899</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1180642210610915</v>
+        <v>0.2577844951517745</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1762521246725994</v>
+        <v>0.1952889132967375</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1174701818191152</v>
+        <v>0.2589275940262432</v>
       </c>
       <c r="L227" t="n">
-        <v>0.323316697271682</v>
+        <v>0.344692462139053</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1105355487116515</v>
+        <v>0.2589017761531436</v>
       </c>
       <c r="N227" t="n">
-        <v>0.4654365953789189</v>
+        <v>0.4940280773253184</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1156923267206256</v>
+        <v>0.2592173279354714</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1100386409503671</v>
+        <v>0.1150792328901647</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1187930125491229</v>
+        <v>0.2593757574675262</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1767231259694842</v>
+        <v>0.1933987506678932</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1181953063982455</v>
+        <v>0.2605259125078866</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3197198918733228</v>
+        <v>0.3417948161865385</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1112178669135752</v>
+        <v>0.2604999352652</v>
       </c>
       <c r="N228" t="n">
-        <v>0.463828948209547</v>
+        <v>0.4888434686317011</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1164064768855677</v>
+        <v>0.260817434898036</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1083104255593259</v>
+        <v>0.1135922163934261</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1195218040371543</v>
+        <v>0.2609670197832779</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1747713469428537</v>
+        <v>0.1902016275228506</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1189204309773759</v>
+        <v>0.2621242309895301</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3171850652329514</v>
+        <v>0.3353315468253816</v>
       </c>
       <c r="M229" t="n">
-        <v>0.111900185115499</v>
+        <v>0.2620980943772565</v>
       </c>
       <c r="N229" t="n">
-        <v>0.464428306676789</v>
+        <v>0.482927448253376</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1171206270505098</v>
+        <v>0.2624175418606007</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.109571158825787</v>
+        <v>0.11101047761275</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1202505955251857</v>
+        <v>0.2625582820990296</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1742971232630453</v>
+        <v>0.1869479561875124</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1196455555565062</v>
+        <v>0.2637225494711736</v>
       </c>
       <c r="L230" t="n">
-        <v>0.3140125286329203</v>
+        <v>0.3335917832174089</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1125825033174228</v>
+        <v>0.263696253489313</v>
       </c>
       <c r="N230" t="n">
-        <v>0.460334799477659</v>
+        <v>0.4767083453512329</v>
       </c>
       <c r="O230" t="n">
-        <v>0.117834777215452</v>
+        <v>0.2640176488231653</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1088209516085909</v>
+        <v>0.1133659749491119</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1209793870132172</v>
+        <v>0.2641495444147813</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1726007906003964</v>
+        <v>0.1861881489877815</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1203706801356366</v>
+        <v>0.2653208679528171</v>
       </c>
       <c r="L231" t="n">
-        <v>0.3116025933555833</v>
+        <v>0.3265646545244472</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1132648215193465</v>
+        <v>0.2652944126013694</v>
       </c>
       <c r="N231" t="n">
-        <v>0.4585485553091704</v>
+        <v>0.4701144890861613</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1185489273803941</v>
+        <v>0.2656177557857299</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1050599147665782</v>
+        <v>0.1066906668034877</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1217081785012486</v>
+        <v>0.265740806730533</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1716826846252446</v>
+        <v>0.1816726182495605</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1210958047147669</v>
+        <v>0.2669191864344606</v>
       </c>
       <c r="L232" t="n">
-        <v>0.3116555706832932</v>
+        <v>0.323539289908323</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1139471397212703</v>
+        <v>0.2668925717134258</v>
       </c>
       <c r="N232" t="n">
-        <v>0.4610697028683372</v>
+        <v>0.4638742086190513</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1192630775453362</v>
+        <v>0.2672178627482946</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1072881591585896</v>
+        <v>0.115016511576853</v>
       </c>
       <c r="G233" t="n">
-        <v>0.12243696998928</v>
+        <v>0.2673320690462846</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1714431410079272</v>
+        <v>0.1802517762987525</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1218209292938972</v>
+        <v>0.268517504916104</v>
       </c>
       <c r="L233" t="n">
-        <v>0.3075717718984033</v>
+        <v>0.3192048185308628</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1146294579231941</v>
+        <v>0.2684907308254822</v>
       </c>
       <c r="N233" t="n">
-        <v>0.4593983708521726</v>
+        <v>0.4570158331107923</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1199772277102784</v>
+        <v>0.2688179697108593</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1055057956434656</v>
+        <v>0.1023754676701835</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1231657614773115</v>
+        <v>0.2689233313620363</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1692824954187817</v>
+        <v>0.17777603546126</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1225460538730276</v>
+        <v>0.2701158233977475</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3057515082832668</v>
+        <v>0.3122503695538932</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1153117761251179</v>
+        <v>0.2700888899375387</v>
       </c>
       <c r="N234" t="n">
-        <v>0.456034687957691</v>
+        <v>0.4502676917222747</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1206913778752205</v>
+        <v>0.2704180766734239</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.09771293508004703</v>
+        <v>0.103799493484455</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1238945529653429</v>
+        <v>0.270514593677788</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1685010835281455</v>
+        <v>0.1749958080629859</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1232711784521579</v>
+        <v>0.271714141879391</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3026950911202372</v>
+        <v>0.3077650721392409</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1159940943270416</v>
+        <v>0.2716870490495952</v>
       </c>
       <c r="N235" t="n">
-        <v>0.4552787828819054</v>
+        <v>0.4448581136143873</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1214055280401626</v>
+        <v>0.2720181836359885</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09690968832717439</v>
+        <v>0.1023205474206431</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1246233444533743</v>
+        <v>0.2721058559935397</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1664992410063562</v>
+        <v>0.173161506429833</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1239963030312883</v>
+        <v>0.2733124603610345</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2992028316916673</v>
+        <v>0.3056380554487325</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1166764125289654</v>
+        <v>0.2732852081616516</v>
       </c>
       <c r="N236" t="n">
-        <v>0.4543307843218301</v>
+        <v>0.439515427948021</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1221196782051048</v>
+        <v>0.2736182905985531</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1000961662436883</v>
+        <v>0.1029653337431825</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1253521359414057</v>
+        <v>0.2736971183092914</v>
       </c>
       <c r="J237" t="n">
-        <v>0.165577303523751</v>
+        <v>0.1704212428195436</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1247214276104186</v>
+        <v>0.2749107788426779</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2960750412799104</v>
+        <v>0.302454217169676</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1173587307308892</v>
+        <v>0.274883367273708</v>
       </c>
       <c r="N237" t="n">
-        <v>0.4513908209744785</v>
+        <v>0.4346644442844463</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1228338283700469</v>
+        <v>0.2752183975611178</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09527247968842945</v>
+        <v>0.09964672584031151</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1260809274294372</v>
+        <v>0.2752883806250431</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1642356067506676</v>
+        <v>0.1681604342394958</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1254465521895489</v>
+        <v>0.2765090973243214</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2947120311673197</v>
+        <v>0.2970099386156555</v>
       </c>
       <c r="M238" t="n">
-        <v>0.118041048932813</v>
+        <v>0.2764815263857645</v>
       </c>
       <c r="N238" t="n">
-        <v>0.4538590215368643</v>
+        <v>0.4253307587492955</v>
       </c>
       <c r="O238" t="n">
-        <v>0.123547978534989</v>
+        <v>0.2768185045236824</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.09343873952023846</v>
+        <v>0.1013232543552757</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1268097189174686</v>
+        <v>0.2768796429407948</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1632744863574432</v>
+        <v>0.1657920012490918</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1261716767686793</v>
+        <v>0.2781074158059649</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2919141126362484</v>
+        <v>0.2938521781867788</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1187233671347368</v>
+        <v>0.2780796854978209</v>
       </c>
       <c r="N239" t="n">
-        <v>0.4502355147060011</v>
+        <v>0.4233776951126104</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1242621286999312</v>
+        <v>0.278418611486247</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09859505659795592</v>
+        <v>0.1019948435774381</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1275385104055</v>
+        <v>0.2784709052565465</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1611942780144155</v>
+        <v>0.1637158244196621</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1268968013478096</v>
+        <v>0.2797057342876084</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2909815969690499</v>
+        <v>0.2914807247327565</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1194056853366605</v>
+        <v>0.2796778446098774</v>
       </c>
       <c r="N240" t="n">
-        <v>0.451620429178903</v>
+        <v>0.41570494935785</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1249762788648733</v>
+        <v>0.2800187184488117</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09774154178042249</v>
+        <v>0.09866141779616164</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1282673018935314</v>
+        <v>0.2800621675722982</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1613953173919218</v>
+        <v>0.1618317843225371</v>
       </c>
       <c r="K241" t="n">
-        <v>0.12762192592694</v>
+        <v>0.2813040527692519</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2853147954480773</v>
+        <v>0.2862953671032988</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1200880035385843</v>
+        <v>0.2812760037219338</v>
       </c>
       <c r="N241" t="n">
-        <v>0.4470138936525834</v>
+        <v>0.4128122174684732</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1256904290298154</v>
+        <v>0.2816188254113763</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09587830592647875</v>
+        <v>0.09132290130080928</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1289960933815629</v>
+        <v>0.2816534298880499</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1590779401602995</v>
+        <v>0.1597397615290473</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1283470505060703</v>
+        <v>0.2829023712508953</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2819140193556837</v>
+        <v>0.2826958941481162</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1207703217405081</v>
+        <v>0.2828741628339903</v>
       </c>
       <c r="N242" t="n">
-        <v>0.448716036824056</v>
+        <v>0.4081991954279391</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1264045791947576</v>
+        <v>0.283218932373941</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08900545989496536</v>
+        <v>0.09697921838074403</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1297248848695943</v>
+        <v>0.2832446922038016</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1584424819898863</v>
+        <v>0.1575396366105232</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1290721750852006</v>
+        <v>0.2845006897325388</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2824795799742224</v>
+        <v>0.2789820947169193</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1214526399424318</v>
+        <v>0.2844723219460467</v>
       </c>
       <c r="N243" t="n">
-        <v>0.4469269873903345</v>
+        <v>0.4013655792197066</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1271187293596997</v>
+        <v>0.2848190393365056</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09912311454472303</v>
+        <v>0.08963029332532876</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1304536763576257</v>
+        <v>0.2848359545195533</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1572892785510193</v>
+        <v>0.1559312901382953</v>
       </c>
       <c r="K244" t="n">
-        <v>0.129797299664331</v>
+        <v>0.2860990082141823</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2765117885860464</v>
+        <v>0.2742537576594183</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1221349581443556</v>
+        <v>0.2860704810581031</v>
       </c>
       <c r="N244" t="n">
-        <v>0.4441468740484329</v>
+        <v>0.3972110648272346</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1278328795246418</v>
+        <v>0.2864191462990703</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09123138073459222</v>
+        <v>0.09927605042392654</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1311824678456572</v>
+        <v>0.286427216835305</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1561186655140361</v>
+        <v>0.154314602683694</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1305224242434614</v>
+        <v>0.2876973266958258</v>
       </c>
       <c r="L245" t="n">
-        <v>0.273710956473509</v>
+        <v>0.2736106718253236</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1228172763462794</v>
+        <v>0.2876686401701596</v>
       </c>
       <c r="N245" t="n">
-        <v>0.4429758254953646</v>
+        <v>0.3925353482339821</v>
       </c>
       <c r="O245" t="n">
-        <v>0.128547029689584</v>
+        <v>0.2880192532616349</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0863303693234137</v>
+        <v>0.09591641396590028</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1319112593336886</v>
+        <v>0.2880184791510567</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1530309785492743</v>
+        <v>0.1521894548180499</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1312475488225917</v>
+        <v>0.2892956451774693</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2728773949189636</v>
+        <v>0.2688526260643456</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1234995945482032</v>
+        <v>0.289266799282216</v>
       </c>
       <c r="N246" t="n">
-        <v>0.4423139704281434</v>
+        <v>0.383838125423408</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1292611798545261</v>
+        <v>0.2896193602241995</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09242019117002812</v>
+        <v>0.08955130824061286</v>
       </c>
       <c r="G247" t="n">
-        <v>0.13264005082172</v>
+        <v>0.2896097414668084</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1517265533270712</v>
+        <v>0.1504557271126932</v>
       </c>
       <c r="K247" t="n">
-        <v>0.131972673401722</v>
+        <v>0.2908939636591127</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2688114152047633</v>
+        <v>0.264479409226195</v>
       </c>
       <c r="M247" t="n">
-        <v>0.124181912750127</v>
+        <v>0.2908649583942725</v>
       </c>
       <c r="N247" t="n">
-        <v>0.4411614375437829</v>
+        <v>0.3787190923789716</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1299753300194682</v>
+        <v>0.2912194671867642</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08450095713327593</v>
+        <v>0.08518065753742737</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1333688423097514</v>
+        <v>0.2912010037825601</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1519057255177641</v>
+        <v>0.1472133001389547</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1326977979808524</v>
+        <v>0.2924922821407562</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2664133286132612</v>
+        <v>0.2607908101605818</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1248642309520507</v>
+        <v>0.2924631175063289</v>
       </c>
       <c r="N248" t="n">
-        <v>0.4415183555392971</v>
+        <v>0.3715779450841313</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1306894801844104</v>
+        <v>0.2928195741493288</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.08857277807199793</v>
+        <v>0.0808043861457067</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1340976337977829</v>
+        <v>0.2927922660983118</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1505688307916908</v>
+        <v>0.1448620544681645</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1334229225599827</v>
+        <v>0.2940906006223997</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2628834464268106</v>
+        <v>0.2584866177172167</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1255465491539745</v>
+        <v>0.2940612766183854</v>
       </c>
       <c r="N249" t="n">
-        <v>0.4415848531116994</v>
+        <v>0.3707143795223464</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1314036303493525</v>
+        <v>0.2944196811118934</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08663576484503466</v>
+        <v>0.08142241835481381</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1348264252858143</v>
+        <v>0.2943835284140635</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1474162048191885</v>
+        <v>0.1439018706716534</v>
       </c>
       <c r="K250" t="n">
-        <v>0.134148047139113</v>
+        <v>0.2956889191040432</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2609220799277646</v>
+        <v>0.2518666207458099</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1262288673558982</v>
+        <v>0.2956594357304418</v>
       </c>
       <c r="N250" t="n">
-        <v>0.4430610589580036</v>
+        <v>0.360728091677076</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1321177805142947</v>
+        <v>0.2960197880744581</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08369002831122682</v>
+        <v>0.08503467845411167</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1355552167738457</v>
+        <v>0.2959747907298152</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1466481832705948</v>
+        <v>0.1416326293207518</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1348731717182434</v>
+        <v>0.2972872375856866</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2587295403984764</v>
+        <v>0.2490306080960721</v>
       </c>
       <c r="M251" t="n">
-        <v>0.126911185557822</v>
+        <v>0.2972575948424982</v>
       </c>
       <c r="N251" t="n">
-        <v>0.4404471017752234</v>
+        <v>0.3587187775317786</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1328319306792368</v>
+        <v>0.2976198950370227</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08573567932941498</v>
+        <v>0.08764109073296325</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1362840082618772</v>
+        <v>0.2975660530455669</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1448651018162469</v>
+        <v>0.1378542109867901</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1355982962973737</v>
+        <v>0.2988855560673301</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2551061391212994</v>
+        <v>0.2461783686177135</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1275935037597458</v>
+        <v>0.2988557539545547</v>
       </c>
       <c r="N252" t="n">
-        <v>0.4369431102603726</v>
+        <v>0.3519861330699136</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1335460808441789</v>
+        <v>0.2992200019995874</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.07877282875843977</v>
+        <v>0.08424157948073155</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1370127997499086</v>
+        <v>0.2991573153613186</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1427672961264824</v>
+        <v>0.1364664962410988</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1363234208765041</v>
+        <v>0.3004838745489736</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2517521873785867</v>
+        <v>0.2427096911604446</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1282758219616696</v>
+        <v>0.3004539130666111</v>
       </c>
       <c r="N253" t="n">
-        <v>0.4402492131104648</v>
+        <v>0.3442298542749397</v>
       </c>
       <c r="O253" t="n">
-        <v>0.134260231009121</v>
+        <v>0.300820108962152</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07780158745714186</v>
+        <v>0.08183606898677942</v>
       </c>
       <c r="G254" t="n">
-        <v>0.13774159123794</v>
+        <v>0.3007485776770703</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1415551018716389</v>
+        <v>0.1344693656550083</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1370485454556344</v>
+        <v>0.3020821930306171</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2469679964526914</v>
+        <v>0.2375243645739757</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1289581401635934</v>
+        <v>0.3020520721786676</v>
       </c>
       <c r="N254" t="n">
-        <v>0.4365655390225138</v>
+        <v>0.3385496371303161</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1349743811740632</v>
+        <v>0.3024202159247166</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.07582206628436186</v>
+        <v>0.08242448354046991</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1384703827259715</v>
+        <v>0.3023398399928219</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1412288547220536</v>
+        <v>0.1325626997998492</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1377736700347648</v>
+        <v>0.3036805115122605</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2425538776259668</v>
+        <v>0.2345221777080173</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1296404583655171</v>
+        <v>0.303650231290724</v>
       </c>
       <c r="N255" t="n">
-        <v>0.4339922166935332</v>
+        <v>0.3340451776195014</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1356885313390053</v>
+        <v>0.3040203228872813</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.08483437609894037</v>
+        <v>0.0810067474311659</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1391991742140029</v>
+        <v>0.3039311023085737</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1382888903480641</v>
+        <v>0.1298463792469519</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1384987946138951</v>
+        <v>0.305278829993904</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2417101421807661</v>
+        <v>0.2294029194122799</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1303227765674409</v>
+        <v>0.3052483904027805</v>
       </c>
       <c r="N256" t="n">
-        <v>0.4369293748205368</v>
+        <v>0.3281161717259549</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1364026815039474</v>
+        <v>0.3056204298498459</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.07883862775971801</v>
+        <v>0.06958278494823045</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1399279657020343</v>
+        <v>0.3055223646243254</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1383355444200078</v>
+        <v>0.127120284567647</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1392239191930254</v>
+        <v>0.3068771484755475</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2370371013994423</v>
+        <v>0.2260663785364736</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1310050947693647</v>
+        <v>0.3068465495148369</v>
       </c>
       <c r="N257" t="n">
-        <v>0.4354771421005381</v>
+        <v>0.3225623154331353</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1371168316688896</v>
+        <v>0.3072205368124106</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0818349321255355</v>
+        <v>0.07915252038102646</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1406567571900657</v>
+        <v>0.307113626940077</v>
       </c>
       <c r="J258" t="n">
-        <v>0.136169152608222</v>
+        <v>0.1245842963332648</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1399490437721558</v>
+        <v>0.3084754669571909</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2349350665643489</v>
+        <v>0.2230123439303093</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1316874129712885</v>
+        <v>0.3084447086268933</v>
       </c>
       <c r="N258" t="n">
-        <v>0.4318356472305511</v>
+        <v>0.3196833047245018</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1378309818338317</v>
+        <v>0.3088206437749752</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.08282340005523336</v>
+        <v>0.07671587801891694</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1413855486780972</v>
+        <v>0.3087048892558287</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1350900505830445</v>
+        <v>0.1225382951151358</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1406741683512861</v>
+        <v>0.3100737854388345</v>
       </c>
       <c r="L259" t="n">
-        <v>0.231704348957839</v>
+        <v>0.2179406044434969</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1323697311732122</v>
+        <v>0.3100428677389497</v>
       </c>
       <c r="N259" t="n">
-        <v>0.4316050189075893</v>
+        <v>0.3136788355835133</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1385451319987738</v>
+        <v>0.3104207507375398</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.08180414240765232</v>
+        <v>0.07627278215126476</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1421143401661286</v>
+        <v>0.3102961515715804</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1319985740148124</v>
+        <v>0.1199821614845904</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1413992929304164</v>
+        <v>0.3116721039204779</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2294452598622658</v>
+        <v>0.2134509489257471</v>
       </c>
       <c r="M260" t="n">
-        <v>0.133052049375136</v>
+        <v>0.3116410268510062</v>
       </c>
       <c r="N260" t="n">
-        <v>0.4315853858286667</v>
+        <v>0.3089486039936286</v>
       </c>
       <c r="O260" t="n">
-        <v>0.139259282163716</v>
+        <v>0.3120208577001045</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.07477727004163295</v>
+        <v>0.06882315706743292</v>
       </c>
       <c r="G261" t="n">
-        <v>0.14284313165416</v>
+        <v>0.3118874138873322</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1316950585738634</v>
+        <v>0.1188157760129593</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1421244175095468</v>
+        <v>0.3132704224021214</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2252581105599825</v>
+        <v>0.2085431662267703</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1337343675770598</v>
+        <v>0.3132391859630627</v>
       </c>
       <c r="N261" t="n">
-        <v>0.4313768766907964</v>
+        <v>0.3009923059383068</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1399734323286581</v>
+        <v>0.3136209646626691</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.07274289381601587</v>
+        <v>0.06836692705678438</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1435719231421915</v>
+        <v>0.3134786762030838</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1293798399305346</v>
+        <v>0.1162390192715729</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1428495420886771</v>
+        <v>0.3148687408837649</v>
       </c>
       <c r="L262" t="n">
-        <v>0.2224432123333422</v>
+        <v>0.206617045196277</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1344166857789836</v>
+        <v>0.3148373450751191</v>
       </c>
       <c r="N262" t="n">
-        <v>0.4292796201909926</v>
+        <v>0.2975096374010067</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1406875824936002</v>
+        <v>0.3152210716252338</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.08070112458964177</v>
+        <v>0.06490401640868215</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1443007146302229</v>
+        <v>0.3150699385188355</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1289532537551639</v>
+        <v>0.1136517718317615</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1435746666678075</v>
+        <v>0.3164670593654084</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2193008764646983</v>
+        <v>0.2026723746839774</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1350990039809073</v>
+        <v>0.3164355041871755</v>
       </c>
       <c r="N263" t="n">
-        <v>0.4320937450262691</v>
+        <v>0.2912002943651876</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1414017326585424</v>
+        <v>0.3168211785877983</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.07965207322135121</v>
+        <v>0.06243434941248912</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1450295061182543</v>
+        <v>0.3166612008345872</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1257156357180885</v>
+        <v>0.1109539142648557</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1442997912469378</v>
+        <v>0.3180653778470518</v>
       </c>
       <c r="L264" t="n">
-        <v>0.2124314142364037</v>
+        <v>0.1994089435395819</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1357813221828311</v>
+        <v>0.318033663299232</v>
       </c>
       <c r="N264" t="n">
-        <v>0.4288193798936393</v>
+        <v>0.284063972814308</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1421158828234845</v>
+        <v>0.318421285550363</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1342.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1342.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.5616288532109226</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.06041149526986225</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.06041149526986225</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.09665839243177959</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1728092148914512</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.06524441489145122</v>
+        <v>0.1015618035172543</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001798992317336717</v>
+        <v>0.002800376163482792</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,10 +9250,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.03624689716191735</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0005996641057789058</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9289,16 +9263,16 @@
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.08621536020446702</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0007318413773024545</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.1133743001605976</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0007288579112195676</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.06524441489145122</v>
+        <v>0.02944439008002055</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001798992317336717</v>
+        <v>0.0004320240016513413</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.06093708211035258</v>
+        <v>0.02944439008002055</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001008135418853805</v>
+        <v>0.0004320240016513413</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1333227269941452</v>
+        <v>0.07184613350372254</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001598159112056442</v>
+        <v>0.0006844072139587772</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1779465633863502</v>
+        <v>0.1236810547206519</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001600106962564638</v>
+        <v>0.0006625981011086976</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06785247794602539</v>
+        <v>0.04976528372345461</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003182524631503389</v>
+        <v>0.0008233105920639406</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1015618035172543</v>
+        <v>0.04976528372345461</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003203169329801325</v>
+        <v>0.0008233105920639406</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1796153337593063</v>
+        <v>0.1473334020432909</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00317145478198151</v>
+        <v>0.001959865112916395</v>
       </c>
       <c r="N67" s="171" t="n">
         <v>0.2576688640013582</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003559077033112584</v>
+        <v>0.002300687851071867</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.07848999432970474</v>
+        <v>0.06752583464816238</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004773786947255084</v>
+        <v>0.001296072004954024</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1111074178706512</v>
+        <v>0.06752583464816238</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004794955444930429</v>
+        <v>0.001296072004954024</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1976487608683847</v>
+        <v>0.1796153337593063</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004794477336169327</v>
+        <v>0.002851696724828238</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2795480837148931</v>
+        <v>0.2717988359386548</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004800320887693915</v>
+        <v>0.002931491002936055</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.08303823596649942</v>
+        <v>0.08191776701725774</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006365049263006778</v>
+        <v>0.001728096006605365</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1231671807245037</v>
+        <v>0.08191776701725774</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006393273926573906</v>
+        <v>0.001728096006605365</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.218454469068701</v>
+        <v>0.1956379639635785</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006392636448225768</v>
+        <v>0.003919730225832791</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3056810722126955</v>
+        <v>0.289323403451702</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006400427850258553</v>
+        <v>0.003908654670581406</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005996641057789058</v>
+        <v>0.0008233105920639406</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03624689716191735</v>
+        <v>0.04976528372345461</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.08460310397173681</v>
+        <v>0.09322559282679764</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007956311578758472</v>
+        <v>0.002160120008256707</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1319784744902058</v>
+        <v>0.09322559282679764</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.007991592408217382</v>
+        <v>0.002160120008256707</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2360602758204108</v>
+        <v>0.2085570831672039</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00799079556028221</v>
+        <v>0.004899662782290988</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.3281876306758877</v>
+        <v>0.3098877980221013</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008000534812823191</v>
+        <v>0.004885818338226758</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.09629049946074453</v>
+        <v>0.1015618035172543</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009547573894510167</v>
+        <v>0.002800376163482792</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1406287067973689</v>
+        <v>0.1015618035172543</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009589910889860859</v>
+        <v>0.002800376163482792</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.250246201466629</v>
+        <v>0.2230497616865655</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009588954672338654</v>
+        <v>0.005879595338749186</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.3504985172045345</v>
+        <v>0.3300183813898223</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00960064177538783</v>
+        <v>0.00586298200587211</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.09320632354884995</v>
+        <v>0.1023052336076079</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01113883621026186</v>
+        <v>0.003024168011559389</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.1476052852756041</v>
+        <v>0.1023052336076079</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01118822937150434</v>
+        <v>0.003024168011559389</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.2630922663504706</v>
+        <v>0.2348294500544541</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01118711378439509</v>
+        <v>0.006859527895207385</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.3694444898987005</v>
+        <v>0.3497415152948352</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01120074873795247</v>
+        <v>0.006840145673517462</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0964564773513806</v>
+        <v>0.1037202238864243</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01273009852601356</v>
+        <v>0.003456192013210731</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1522956175545224</v>
+        <v>0.1037202238864243</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01278654785314781</v>
+        <v>0.003456192013210731</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.2739784908150504</v>
+        <v>0.2453095988036606</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01278527289645154</v>
+        <v>0.007839460451665581</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.3855563068584504</v>
+        <v>0.3660835614771096</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01280085570051711</v>
+        <v>0.007817309341162813</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.107146861983664</v>
+        <v>0.1051088279038638</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01432136084176525</v>
+        <v>0.003888216014862072</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1578871112637351</v>
+        <v>0.1051088279038638</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01438486633479129</v>
+        <v>0.003888216014862072</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.2838848952034833</v>
+        <v>0.2581036584669757</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01438343200850798</v>
+        <v>0.008819393008123779</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.398564726183849</v>
+        <v>0.3789708816766161</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01440096266308174</v>
+        <v>0.008794473008808165</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.09838337856102755</v>
+        <v>0.1064712870300181</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01591262315751694</v>
+        <v>0.004320240016513413</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1631671740328532</v>
+        <v>0.1064712870300181</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01598318481643476</v>
+        <v>0.004320240016513413</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.2908914998588842</v>
+        <v>0.2689250795771904</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01598159112056442</v>
+        <v>0.009799325564581976</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.4131005059749606</v>
+        <v>0.3964298376333237</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01600106962564638</v>
+        <v>0.009771636676453517</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.1032719281987988</v>
+        <v>0.1078078426349793</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01750388547326864</v>
+        <v>0.004752264018164754</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.168423213491488</v>
+        <v>0.1078078426349793</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01758150329807824</v>
+        <v>0.004752264018164754</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.298778325124368</v>
+        <v>0.2755873126670954</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01757975023262086</v>
+        <v>0.01077925812104018</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.4225944043318501</v>
+        <v>0.409586791087203</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01760117658821102</v>
+        <v>0.01074880034409887</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.1019184120123052</v>
+        <v>0.1091187360888392</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01909514778902033</v>
+        <v>0.005184288019816095</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1722426372692504</v>
+        <v>0.1091187360888392</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01917982177972172</v>
+        <v>0.005184288019816095</v>
       </c>
       <c r="L77" t="n">
-        <v>0.3041253913430494</v>
+        <v>0.2864038082694816</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01917790934467731</v>
+        <v>0.01175919067749837</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4341771793545823</v>
+        <v>0.4211681037782237</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01920128355077566</v>
+        <v>0.01172596401174422</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.1014287311168743</v>
+        <v>0.1104042087616896</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02068641010477203</v>
+        <v>0.005616312021467437</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1747128529957517</v>
+        <v>0.1104042087616896</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02077814026136519</v>
+        <v>0.005616312021467437</v>
       </c>
       <c r="L78" t="n">
-        <v>0.3074127188580434</v>
+        <v>0.2961880169171399</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02077606845673375</v>
+        <v>0.01273912323395657</v>
       </c>
       <c r="N78" t="n">
-        <v>0.4421795891432215</v>
+        <v>0.4330001374463557</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0208013905133403</v>
+        <v>0.01270312767938957</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.1129087866278334</v>
+        <v>0.1116645020236226</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02227767242052372</v>
+        <v>0.006048336023118778</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1768212683006029</v>
+        <v>0.1116645020236226</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02237645874300867</v>
+        <v>0.006048336023118778</v>
       </c>
       <c r="L79" t="n">
-        <v>0.312420328012465</v>
+        <v>0.3013533891428611</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02237422756879019</v>
+        <v>0.01371905579041477</v>
       </c>
       <c r="N79" t="n">
-        <v>0.4464323917978328</v>
+        <v>0.4417092538315688</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02240149747590494</v>
+        <v>0.01368029134703492</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.1054282538491624</v>
+        <v>0.1128998572447301</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02386893473627542</v>
+        <v>0.006480360024770119</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1798552908134153</v>
+        <v>0.1128998572447301</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02397477722465215</v>
+        <v>0.006480360024770119</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3167282391494288</v>
+        <v>0.309013375479436</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02397238668084663</v>
+        <v>0.01469898834687297</v>
       </c>
       <c r="N80" t="n">
-        <v>0.4541663454184804</v>
+        <v>0.455221814673833</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02400160443846958</v>
+        <v>0.01465745501468028</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1069169547904328</v>
+        <v>0.1141105157951039</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02546019705202711</v>
+        <v>0.006912384026421461</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1831349643875921</v>
+        <v>0.1141105157951039</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02557309570629562</v>
+        <v>0.006912384026421461</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3214327341391195</v>
+        <v>0.3171814264596553</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02557054579290307</v>
+        <v>0.01567892090333116</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4592554400134088</v>
+        <v>0.4634641817131185</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02560171140103421</v>
+        <v>0.01563461868232563</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.1163575716667428</v>
+        <v>0.1152967190448359</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0270514593677788</v>
+        <v>0.007344408028072802</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1835493918347681</v>
+        <v>0.1152967190448359</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0271714141879391</v>
+        <v>0.007344408028072802</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3253231782069524</v>
+        <v>0.3249709926163102</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02716870490495951</v>
+        <v>0.01665885345978936</v>
       </c>
       <c r="N82" t="n">
-        <v>0.4672698821570337</v>
+        <v>0.4686627166893951</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02720181836359885</v>
+        <v>0.01661178234997098</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1207407292286324</v>
+        <v>0.116458708364018</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0286427216835305</v>
+        <v>0.007776432029724144</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1859854636445487</v>
+        <v>0.116458708364018</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02876973266958258</v>
+        <v>0.007776432029724144</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3317746008878437</v>
+        <v>0.3292955244821915</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02876686401701596</v>
+        <v>0.01763878601624756</v>
       </c>
       <c r="N83" t="n">
-        <v>0.4722927440970413</v>
+        <v>0.4756437813426323</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02880192532616349</v>
+        <v>0.01758894601761633</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1130570522266413</v>
+        <v>0.1175967251227421</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03023398399928219</v>
+        <v>0.008208456031375485</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1881283909627741</v>
+        <v>0.1175967251227421</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03036805115122605</v>
+        <v>0.008208456031375485</v>
       </c>
       <c r="L84" t="n">
-        <v>0.3352608554378764</v>
+        <v>0.3349684725900894</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0303650231290724</v>
+        <v>0.01861871857270576</v>
       </c>
       <c r="N84" t="n">
-        <v>0.4786863794600332</v>
+        <v>0.4836337374128006</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03040203228872813</v>
+        <v>0.01856610968526168</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1232971654113096</v>
+        <v>0.1187110106911003</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03182524631503389</v>
+        <v>0.008640480033026827</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1912633849352851</v>
+        <v>0.1187110106911003</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03196636963286953</v>
+        <v>0.008640480033026827</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3385557951131343</v>
+        <v>0.3394032874727957</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03196318224112884</v>
+        <v>0.01959865112916395</v>
       </c>
       <c r="N85" t="n">
-        <v>0.483813141872611</v>
+        <v>0.4887589466398694</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03200213925129276</v>
+        <v>0.01954327335290703</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.113451693533177</v>
+        <v>0.1198018064391843</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03341650863078558</v>
+        <v>0.009072504034678167</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1927756567079218</v>
+        <v>0.1198018064391843</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03356468811451301</v>
+        <v>0.009072504034678167</v>
       </c>
       <c r="L86" t="n">
-        <v>0.3403332731697007</v>
+        <v>0.3424134196631005</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03356134135318528</v>
+        <v>0.02057858368562215</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4904353849613766</v>
+        <v>0.496345770763809</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03360224621385741</v>
+        <v>0.02052043702055239</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1205112613427836</v>
+        <v>0.1208693537370859</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03500777094653727</v>
+        <v>0.009504528036329509</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1956504174265248</v>
+        <v>0.1208693537370859</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03516300659615648</v>
+        <v>0.009504528036329509</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3444671428636592</v>
+        <v>0.3454123196937949</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03515950046524172</v>
+        <v>0.02155851624208035</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4936154623529313</v>
+        <v>0.5003205715245892</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03520235317642204</v>
+        <v>0.02149760068819774</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1254664935906693</v>
+        <v>0.1219138939548973</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03659903326228897</v>
+        <v>0.009936552037980851</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1959728782369347</v>
+        <v>0.1219138939548973</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03676132507779996</v>
+        <v>0.009936552037980851</v>
       </c>
       <c r="L88" t="n">
-        <v>0.3476312574510935</v>
+        <v>0.3496134380976699</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03675765957729817</v>
+        <v>0.02253844879853855</v>
       </c>
       <c r="N88" t="n">
-        <v>0.4946157276738771</v>
+        <v>0.5013097106621801</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03680246013898668</v>
+        <v>0.02247476435584309</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1163080150273739</v>
+        <v>0.1229356684627102</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03819029557804067</v>
+        <v>0.01036857603963219</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1970282502849918</v>
+        <v>0.1229356684627102</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03835964355944343</v>
+        <v>0.01036857603963219</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3501994701880867</v>
+        <v>0.3520302254075161</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03835581868935461</v>
+        <v>0.02351838135499675</v>
       </c>
       <c r="N89" t="n">
-        <v>0.4984985345508155</v>
+        <v>0.5041395499165513</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03840256710155132</v>
+        <v>0.02345192802348844</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1220264504034374</v>
+        <v>0.1239349186306167</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03978155789379236</v>
+        <v>0.01080060004128353</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1984017447165365</v>
+        <v>0.1239349186306167</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03995796204108691</v>
+        <v>0.01080060004128353</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3512456343307226</v>
+        <v>0.3550761321561243</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03995397780141106</v>
+        <v>0.02449831391145494</v>
       </c>
       <c r="N90" t="n">
-        <v>0.506526236610348</v>
+        <v>0.5070364510276728</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04000267406411596</v>
+        <v>0.02442909169113379</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1286124244693997</v>
+        <v>0.1249118858287084</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04137282020954405</v>
+        <v>0.01123262404293487</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2001785726774095</v>
+        <v>0.1249118858287084</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04155628052273039</v>
+        <v>0.01123262404293487</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3524436031350847</v>
+        <v>0.3541646088762854</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0415521369134675</v>
+        <v>0.02547824646791314</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5060611874790765</v>
+        <v>0.5125267757355146</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0416027810266806</v>
+        <v>0.02540625535877914</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1250565619758006</v>
+        <v>0.1258668114270775</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04296408252529575</v>
+        <v>0.01166464804458622</v>
       </c>
       <c r="J92" t="n">
-        <v>0.201743945313451</v>
+        <v>0.1258668114270775</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04315459900437386</v>
+        <v>0.01166464804458622</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3560672298572564</v>
+        <v>0.3554091061007905</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04315029602552393</v>
+        <v>0.02645817902437134</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5083657407836025</v>
+        <v>0.510236885780047</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04320288798924523</v>
+        <v>0.02638341902642449</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1304888297829024</v>
+        <v>0.1267999367958156</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04455534484104744</v>
+        <v>0.01209667204623756</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2008830737705016</v>
+        <v>0.1267999367958156</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04475291748601734</v>
+        <v>0.01209667204623756</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3554903677533209</v>
+        <v>0.3592306675186127</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04474845513758038</v>
+        <v>0.02743811158082954</v>
       </c>
       <c r="N93" t="n">
-        <v>0.511902250150528</v>
+        <v>0.5153377280027166</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04480299495180987</v>
+        <v>0.02736058269406985</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1194818263120782</v>
+        <v>0.1277115033050149</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04614660715679914</v>
+        <v>0.0125286960478889</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2031236070345086</v>
+        <v>0.1277115033050149</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04635123596766082</v>
+        <v>0.0125286960478889</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3592306675186127</v>
+        <v>0.3573199641939954</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04634661424963682</v>
+        <v>0.02841804413728773</v>
       </c>
       <c r="N94" t="n">
-        <v>0.5153377280027166</v>
+        <v>0.5113335487205183</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04640310191437451</v>
+        <v>0.0283377463617152</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1244675361201229</v>
+        <v>0.1286017523247672</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04773786947255083</v>
+        <v>0.01296072004954024</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2031234427309919</v>
+        <v>0.1286017523247672</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04794955444930429</v>
+        <v>0.01296072004954024</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3588305900914635</v>
+        <v>0.3587939430809999</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04794477336169326</v>
+        <v>0.02939797669374593</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5149205515779829</v>
+        <v>0.5117352805045839</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04800320887693915</v>
+        <v>0.02931491002936055</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1283686257871971</v>
+        <v>0.1294709252251643</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04932913178830253</v>
+        <v>0.01339274405119158</v>
       </c>
       <c r="J96" t="n">
-        <v>0.2021628784886886</v>
+        <v>0.1294709252251643</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04954787293094777</v>
+        <v>0.01339274405119158</v>
       </c>
       <c r="L96" t="n">
-        <v>0.358719543830001</v>
+        <v>0.3581402825038172</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0495429324737497</v>
+        <v>0.03037790925020413</v>
       </c>
       <c r="N96" t="n">
-        <v>0.5138374542861672</v>
+        <v>0.513512061748245</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04960331583950378</v>
+        <v>0.0302920736970059</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1201935701666546</v>
+        <v>0.1303192633762982</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05092039410405422</v>
+        <v>0.01382476805284292</v>
       </c>
       <c r="J97" t="n">
-        <v>0.2012768658072988</v>
+        <v>0.1303192633762982</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05114619141259125</v>
+        <v>0.01382476805284292</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3556870215344072</v>
+        <v>0.3566738263402314</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05114109158580615</v>
+        <v>0.03135784180666232</v>
       </c>
       <c r="N97" t="n">
-        <v>0.5109231743325756</v>
+        <v>0.5101712674000458</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05120342280206842</v>
+        <v>0.03126923736465125</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1279473102853281</v>
+        <v>0.1311470081482608</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05251165641980592</v>
+        <v>0.01425679205449426</v>
       </c>
       <c r="J98" t="n">
-        <v>0.20217328250662</v>
+        <v>0.1311470081482608</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05274450989423472</v>
+        <v>0.01425679205449426</v>
       </c>
       <c r="L98" t="n">
-        <v>0.3559468427446129</v>
+        <v>0.3556020915368134</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05273925069786258</v>
+        <v>0.03233777436312053</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5121062387203754</v>
+        <v>0.5127202724085307</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05280352976463307</v>
+        <v>0.03224640103229661</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1276347871700504</v>
+        <v>0.1319544009111441</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05410291873555761</v>
+        <v>0.0146888160561456</v>
       </c>
       <c r="J99" t="n">
-        <v>0.2004599227392812</v>
+        <v>0.1319544009111441</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05434282837587821</v>
+        <v>0.0146888160561456</v>
       </c>
       <c r="L99" t="n">
-        <v>0.3565127875486922</v>
+        <v>0.3577325950401349</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05433740980991902</v>
+        <v>0.03331770691957872</v>
       </c>
       <c r="N99" t="n">
-        <v>0.5086064881740086</v>
+        <v>0.5116664517222439</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0544036367271977</v>
+        <v>0.03322356469994196</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.128260941847654</v>
+        <v>0.1327416830350398</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05569418105130931</v>
+        <v>0.01512084005779695</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2009445806579115</v>
+        <v>0.1327416830350398</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05594114685752167</v>
+        <v>0.01512084005779695</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3551986360347197</v>
+        <v>0.3570728537967667</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05593556892197547</v>
+        <v>0.03429763947603692</v>
       </c>
       <c r="N100" t="n">
-        <v>0.5093437634179172</v>
+        <v>0.5103171802897301</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05600374368976233</v>
+        <v>0.03420072836758731</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1248307153449717</v>
+        <v>0.1335090958900399</v>
       </c>
       <c r="G101" t="n">
-        <v>0.057285443367061</v>
+        <v>0.01555286405944829</v>
       </c>
       <c r="J101" t="n">
-        <v>0.2002350504151397</v>
+        <v>0.1335090958900399</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05753946533916515</v>
+        <v>0.01555286405944829</v>
       </c>
       <c r="L101" t="n">
-        <v>0.3544181682907693</v>
+        <v>0.3542303847532803</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05753372803403192</v>
+        <v>0.03527757203249512</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5103379051765432</v>
+        <v>0.5108798330595333</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05760385065232698</v>
+        <v>0.03517789203523266</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1153490486888362</v>
+        <v>0.1342568808462363</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0588767056828127</v>
+        <v>0.01598488806109963</v>
       </c>
       <c r="J102" t="n">
-        <v>0.198639126163595</v>
+        <v>0.1342568808462363</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05913778382080863</v>
+        <v>0.01598488806109963</v>
       </c>
       <c r="L102" t="n">
-        <v>0.3541851644049158</v>
+        <v>0.3526127048562469</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05913188714608836</v>
+        <v>0.03625750458895332</v>
       </c>
       <c r="N102" t="n">
-        <v>0.5068087541743292</v>
+        <v>0.5076617849801981</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05920395761489162</v>
+        <v>0.03615505570287801</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.11782088290608</v>
+        <v>0.134985279273721</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06046796799856438</v>
+        <v>0.01641691206275097</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1993646020559062</v>
+        <v>0.134985279273721</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06073610230245211</v>
+        <v>0.01641691206275097</v>
       </c>
       <c r="L103" t="n">
-        <v>0.351313404465233</v>
+        <v>0.3523273310522376</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0607300462581448</v>
+        <v>0.03723743714541151</v>
       </c>
       <c r="N103" t="n">
-        <v>0.5026761511357171</v>
+        <v>0.5092704110002688</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06080406457745626</v>
+        <v>0.03713221937052336</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1162511590235359</v>
+        <v>0.1356945325425857</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06205923031431608</v>
+        <v>0.01684893606440231</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1985192722447024</v>
+        <v>0.1356945325425857</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06233442078409559</v>
+        <v>0.01684893606440231</v>
       </c>
       <c r="L104" t="n">
-        <v>0.3490166685597955</v>
+        <v>0.3524817802878238</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06232820537020124</v>
+        <v>0.03821736970186971</v>
       </c>
       <c r="N104" t="n">
-        <v>0.5022599367851491</v>
+        <v>0.5073130860682898</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06240417154002089</v>
+        <v>0.03810938303816871</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1216448180680365</v>
+        <v>0.1363848820229225</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06365049263006778</v>
+        <v>0.01728096006605365</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1972109308826126</v>
+        <v>0.1363848820229225</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06393273926573906</v>
+        <v>0.01728096006605365</v>
       </c>
       <c r="L105" t="n">
-        <v>0.3469087367766774</v>
+        <v>0.3528835695095768</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06392636448225768</v>
+        <v>0.0391973022583279</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4988799518470672</v>
+        <v>0.5078971851328055</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06400427850258553</v>
+        <v>0.03908654670581407</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1180068010664145</v>
+        <v>0.1370565690848232</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06524175494581948</v>
+        <v>0.01771298406770499</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1951473721222657</v>
+        <v>0.1370565690848232</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06553105774738253</v>
+        <v>0.01771298406770499</v>
       </c>
       <c r="L106" t="n">
-        <v>0.348103389203953</v>
+        <v>0.3515402156640678</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06552452359431413</v>
+        <v>0.04017723481478611</v>
       </c>
       <c r="N106" t="n">
-        <v>0.4970560370459136</v>
+        <v>0.5053300831423599</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06560438546515017</v>
+        <v>0.04006371037345942</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1143420490455027</v>
+        <v>0.1377098350983797</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06683301726157116</v>
+        <v>0.01814500806935633</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1938363901162907</v>
+        <v>0.1377098350983797</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06712937622902601</v>
+        <v>0.01814500806935633</v>
       </c>
       <c r="L107" t="n">
-        <v>0.3428144059296969</v>
+        <v>0.350259235697868</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06712268270637056</v>
+        <v>0.04115716737124431</v>
       </c>
       <c r="N107" t="n">
-        <v>0.4962080331061307</v>
+        <v>0.5038191550454979</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06720449242771481</v>
+        <v>0.04104087404110477</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1216555030321336</v>
+        <v>0.138344921433684</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06842427957732286</v>
+        <v>0.01857703207100768</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1941857790173167</v>
+        <v>0.138344921433684</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06872769471066949</v>
+        <v>0.01857703207100768</v>
       </c>
       <c r="L108" t="n">
-        <v>0.343455567041983</v>
+        <v>0.3474481465575485</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06872084181842701</v>
+        <v>0.0421370999277025</v>
       </c>
       <c r="N108" t="n">
-        <v>0.4932557807521603</v>
+        <v>0.5029717757907636</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06880459939027946</v>
+        <v>0.04201803770875012</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1189521040531399</v>
+        <v>0.1389620694608278</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07001554189307455</v>
+        <v>0.01900905607265902</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1920033329779725</v>
+        <v>0.1389620694608278</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07032601319231296</v>
+        <v>0.01900905607265902</v>
       </c>
       <c r="L109" t="n">
-        <v>0.3391406526288856</v>
+        <v>0.3475144651896809</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07031900093048345</v>
+        <v>0.0431170324841607</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4879191207084447</v>
+        <v>0.5001953203267013</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07040470635284408</v>
+        <v>0.04299520137639547</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1162367931353543</v>
+        <v>0.1395615205499033</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07160680420882624</v>
+        <v>0.01944108007431036</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1925968461508872</v>
+        <v>0.1395615205499033</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07192433167395644</v>
+        <v>0.01944108007431036</v>
       </c>
       <c r="L110" t="n">
-        <v>0.3383834427784793</v>
+        <v>0.3477657085408362</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0719171600425399</v>
+        <v>0.0440969650406189</v>
       </c>
       <c r="N110" t="n">
-        <v>0.484917893699426</v>
+        <v>0.4982971636018554</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07200481331540871</v>
+        <v>0.04397236504404083</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1155145113056096</v>
+        <v>0.1401435160710022</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07319806652457794</v>
+        <v>0.0198731040759617</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1899741126886899</v>
+        <v>0.1401435160710022</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07352265015559992</v>
+        <v>0.0198731040759617</v>
       </c>
       <c r="L111" t="n">
-        <v>0.3362977175788382</v>
+        <v>0.3467093935575857</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07351531915459635</v>
+        <v>0.04507689759707709</v>
       </c>
       <c r="N111" t="n">
-        <v>0.4827719404495464</v>
+        <v>0.4969846805647703</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07360492027797336</v>
+        <v>0.04494952871168617</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1147901995907382</v>
+        <v>0.1407082973942164</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07478932884032964</v>
+        <v>0.02030512807761304</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1891429267440093</v>
+        <v>0.1407082973942164</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07512096863724339</v>
+        <v>0.02030512807761304</v>
       </c>
       <c r="L112" t="n">
-        <v>0.3354972571180365</v>
+        <v>0.3444530371865009</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07511347826665278</v>
+        <v>0.04605683015353529</v>
       </c>
       <c r="N112" t="n">
-        <v>0.4810011016832479</v>
+        <v>0.5003652461639905</v>
       </c>
       <c r="O112" t="n">
-        <v>0.075205027240538</v>
+        <v>0.04592669237933153</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.115068799017573</v>
+        <v>0.1412561058896378</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07638059115608134</v>
+        <v>0.02073715207926438</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1873110824694746</v>
+        <v>0.1412561058896378</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07671928711888687</v>
+        <v>0.02073715207926438</v>
       </c>
       <c r="L113" t="n">
-        <v>0.3316958414841485</v>
+        <v>0.3439041563741526</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07671163737870923</v>
+        <v>0.04703676270999349</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4786252181249728</v>
+        <v>0.4960462353480601</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07680513420310264</v>
+        <v>0.04690385604697688</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1113552506129465</v>
+        <v>0.1417871829273584</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07797185347183304</v>
+        <v>0.02116917608091572</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1874863740177147</v>
+        <v>0.1417871829273584</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07831760560053035</v>
+        <v>0.02116917608091572</v>
       </c>
       <c r="L114" t="n">
-        <v>0.3313072507652487</v>
+        <v>0.3409702680671123</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07830979649076567</v>
+        <v>0.04801669526645169</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4765641304991632</v>
+        <v>0.4978350230655237</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07840524116566727</v>
+        <v>0.04788101971462223</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.1105986698373085</v>
+        <v>0.1423017698774701</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07956311578758472</v>
+        <v>0.02160120008256707</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1860688925762712</v>
+        <v>0.1423017698774701</v>
       </c>
       <c r="K115" t="n">
-        <v>0.07991592408217382</v>
+        <v>0.02160120008256707</v>
       </c>
       <c r="L115" t="n">
-        <v>0.3297301374556594</v>
+        <v>0.3422588892119512</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07990795560282211</v>
+        <v>0.04899662782290989</v>
       </c>
       <c r="N115" t="n">
-        <v>0.4728346319661947</v>
+        <v>0.4947389842649255</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08000534812823192</v>
+        <v>0.04885818338226759</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.1187398933432837</v>
+        <v>0.1428001081100647</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08115437810333641</v>
+        <v>0.02203322408421841</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1854288277680184</v>
+        <v>0.1428001081100647</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0815142425638173</v>
+        <v>0.02203322408421841</v>
       </c>
       <c r="L116" t="n">
-        <v>0.325432947939828</v>
+        <v>0.3401775367552405</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08150611471487855</v>
+        <v>0.04997656037936809</v>
       </c>
       <c r="N116" t="n">
-        <v>0.4685554837933958</v>
+        <v>0.4925654938948099</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08160545509079656</v>
+        <v>0.04983534704991294</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1047947601768116</v>
+        <v>0.1432824389952342</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08274564041908811</v>
+        <v>0.02246524808586975</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1842365500719884</v>
+        <v>0.1432824389952342</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08311256104546078</v>
+        <v>0.02246524808586975</v>
       </c>
       <c r="L117" t="n">
-        <v>0.3245672813125609</v>
+        <v>0.3390337276435518</v>
       </c>
       <c r="M117" t="n">
-        <v>0.083104273826935</v>
+        <v>0.05095649293582628</v>
       </c>
       <c r="N117" t="n">
-        <v>0.4673786034159694</v>
+        <v>0.4902219269037212</v>
       </c>
       <c r="O117" t="n">
-        <v>0.0832055620533612</v>
+        <v>0.05081251071755829</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1097793687939399</v>
+        <v>0.1437490039030704</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08433690273483981</v>
+        <v>0.02289727208752109</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1812174537691222</v>
+        <v>0.1437490039030704</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08471087952710425</v>
+        <v>0.02289727208752109</v>
       </c>
       <c r="L118" t="n">
-        <v>0.3210780347480099</v>
+        <v>0.3398349788234557</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08470243293899143</v>
+        <v>0.05193642549228448</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4636686342858133</v>
+        <v>0.491815658240204</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08480566901592583</v>
+        <v>0.05178967438520363</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.106709817650716</v>
+        <v>0.1442000442036654</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0859281650505915</v>
+        <v>0.02332929608917243</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1800969331403608</v>
+        <v>0.1442000442036654</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08630919800874773</v>
+        <v>0.02332929608917243</v>
       </c>
       <c r="L119" t="n">
-        <v>0.3184101054203272</v>
+        <v>0.337988807241524</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08630059205104787</v>
+        <v>0.05291635804874267</v>
       </c>
       <c r="N119" t="n">
-        <v>0.4596902198548254</v>
+        <v>0.4892540628528025</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08640577597849046</v>
+        <v>0.05276683805284899</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1066022052031876</v>
+        <v>0.1446358012671109</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0875194273663432</v>
+        <v>0.02376132009082377</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1775003824666453</v>
+        <v>0.1446358012671109</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0879075164903912</v>
+        <v>0.02376132009082377</v>
       </c>
       <c r="L120" t="n">
-        <v>0.3174083905036647</v>
+        <v>0.3358027298443278</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08789875116310431</v>
+        <v>0.05389629060520088</v>
       </c>
       <c r="N120" t="n">
-        <v>0.4511080035749037</v>
+        <v>0.491044515690061</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0880058829410551</v>
+        <v>0.05374400172049434</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1084726299074024</v>
+        <v>0.1450565164634989</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08911068968209489</v>
+        <v>0.02419334409247511</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1768531960289166</v>
+        <v>0.1450565164634989</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08950583497203468</v>
+        <v>0.02419334409247511</v>
       </c>
       <c r="L121" t="n">
-        <v>0.3116177871721743</v>
+        <v>0.3359842635784382</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08949691027516075</v>
+        <v>0.05487622316165908</v>
       </c>
       <c r="N121" t="n">
-        <v>0.4515866288979464</v>
+        <v>0.4854943917005239</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08960598990361975</v>
+        <v>0.0547211653881397</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1083371902194078</v>
+        <v>0.1454624311629212</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09070195199784659</v>
+        <v>0.02462536809412645</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1746807681081159</v>
+        <v>0.1454624311629212</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09110415345367816</v>
+        <v>0.02462536809412645</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3089831926000078</v>
+        <v>0.3373409253904267</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09109506938721719</v>
+        <v>0.05585615571811728</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4448907392758511</v>
+        <v>0.4853107476160576</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09120609686618439</v>
+        <v>0.05569832905578504</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09821198459525146</v>
+        <v>0.1458537867354699</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09229321431359827</v>
+        <v>0.0250573920957778</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1728084929851842</v>
+        <v>0.1458537867354699</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09270247193532163</v>
+        <v>0.0250573920957778</v>
       </c>
       <c r="L123" t="n">
-        <v>0.3074495039613173</v>
+        <v>0.3362569900401942</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09269322849927364</v>
+        <v>0.05683608827457547</v>
       </c>
       <c r="N123" t="n">
-        <v>0.4397849781605158</v>
+        <v>0.4877281206325926</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09280620382874902</v>
+        <v>0.05667549272343039</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.102113111490981</v>
+        <v>0.1462308245512367</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09388447662934997</v>
+        <v>0.02548941609742914</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1723617649410624</v>
+        <v>0.1462308245512367</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09430079041696511</v>
+        <v>0.02548941609742914</v>
       </c>
       <c r="L124" t="n">
-        <v>0.303661618430255</v>
+        <v>0.3335630205875648</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09429138761133009</v>
+        <v>0.05781602083103367</v>
       </c>
       <c r="N124" t="n">
-        <v>0.4344339890038386</v>
+        <v>0.4827979561837713</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09440631079131366</v>
+        <v>0.05765265639107575</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.1060566693626441</v>
+        <v>0.1465937859803137</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09547573894510167</v>
+        <v>0.02592144009908048</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1700659782566915</v>
+        <v>0.1465937859803137</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09589910889860859</v>
+        <v>0.02592144009908048</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2996644331809722</v>
+        <v>0.3342566202194703</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09588954672338652</v>
+        <v>0.05879595338749186</v>
       </c>
       <c r="N125" t="n">
-        <v>0.4312024152577173</v>
+        <v>0.4856272705365948</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0960064177538783</v>
+        <v>0.0586298200587211</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.1060306593376784</v>
+        <v>0.1469429123927926</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09706700126085337</v>
+        <v>0.02635346410073182</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1682465272130126</v>
+        <v>0.1469429123927926</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09749742738025206</v>
+        <v>0.02635346410073182</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2983028453876214</v>
+        <v>0.3320410090567667</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09748770583544297</v>
+        <v>0.05977588594395006</v>
       </c>
       <c r="N126" t="n">
-        <v>0.4249549003740499</v>
+        <v>0.4839230799580643</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09760652471644293</v>
+        <v>0.05960698372636645</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.1019184417289173</v>
+        <v>0.1472784451587654</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09865826357660505</v>
+        <v>0.02678548810238316</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1655022412173633</v>
+        <v>0.1472784451587654</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09909574586189554</v>
+        <v>0.02678548810238316</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2957914389059465</v>
+        <v>0.3328194072203104</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09908586494749941</v>
+        <v>0.06075581850040825</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4205302929966998</v>
+        <v>0.4810924007151814</v>
       </c>
       <c r="O127" t="n">
-        <v>0.09920663167900756</v>
+        <v>0.0605841473940118</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1057249793247483</v>
+        <v>0.1476006256483241</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1002495258923568</v>
+        <v>0.02721751210403451</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1638088147011201</v>
+        <v>0.1476006256483241</v>
       </c>
       <c r="K128" t="n">
-        <v>0.100694064343539</v>
+        <v>0.02721751210403451</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2903168651517237</v>
+        <v>0.3319950348309578</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1006840240595559</v>
+        <v>0.06173575105686645</v>
       </c>
       <c r="N128" t="n">
-        <v>0.418527225424299</v>
+        <v>0.483542249074947</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1008067386415722</v>
+        <v>0.06156131106165716</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1004733170697196</v>
+        <v>0.1479096952315604</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1018407882081084</v>
+        <v>0.02764953610568584</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1624021610802896</v>
+        <v>0.1479096952315604</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1022923828251825</v>
+        <v>0.02764953610568584</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2870429571681704</v>
+        <v>0.3307711120095649</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1022821831716123</v>
+        <v>0.06271568361332465</v>
       </c>
       <c r="N129" t="n">
-        <v>0.4136221834865583</v>
+        <v>0.4790796413043625</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1024068456041368</v>
+        <v>0.0625384747293025</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09318649990837943</v>
+        <v>0.1482058952785664</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1034320505238601</v>
+        <v>0.02808156010733718</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1611186322754782</v>
+        <v>0.1482058952785664</v>
       </c>
       <c r="K130" t="n">
-        <v>0.103890701306826</v>
+        <v>0.02808156010733718</v>
       </c>
       <c r="L130" t="n">
-        <v>0.284133985273238</v>
+        <v>0.331550858876988</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1038803422836687</v>
+        <v>0.06369561616978285</v>
       </c>
       <c r="N130" t="n">
-        <v>0.407807704303807</v>
+        <v>0.479911593670429</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1040069525667015</v>
+        <v>0.06351563839694785</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.08988757278527598</v>
+        <v>0.1484894671594338</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1050233128396118</v>
+        <v>0.02851358410898853</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1595945802072922</v>
+        <v>0.1484894671594338</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1054890197884694</v>
+        <v>0.02851358410898853</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2813542197848777</v>
+        <v>0.3287374955540833</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1054785013957252</v>
+        <v>0.06467554872624105</v>
       </c>
       <c r="N131" t="n">
-        <v>0.4054763249963741</v>
+        <v>0.4800451224401481</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1056070595292661</v>
+        <v>0.06449280206459322</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08959958064495741</v>
+        <v>0.1487606522442548</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1066145751553635</v>
+        <v>0.02894560811063987</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1564663567963381</v>
+        <v>0.1487606522442548</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1070873382701129</v>
+        <v>0.02894560811063987</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2778679310210405</v>
+        <v>0.3283342421617069</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1070766605077816</v>
+        <v>0.06565548128269924</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3981205826845894</v>
+        <v>0.4750872438805204</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1072071664918308</v>
+        <v>0.06546996573223857</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09134556843197192</v>
+        <v>0.149019691903121</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1082058374711152</v>
+        <v>0.02937763211229121</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1554703139632221</v>
+        <v>0.149019691903121</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1086856567517564</v>
+        <v>0.02937763211229121</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2719393892996778</v>
+        <v>0.3300443188207154</v>
       </c>
       <c r="M133" t="n">
-        <v>0.108674819619838</v>
+        <v>0.06663541383915744</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3931330144887818</v>
+        <v>0.4756449742585477</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1088072734543954</v>
+        <v>0.06644712939988391</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08614858109086776</v>
+        <v>0.1492668275061245</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1097970997868669</v>
+        <v>0.02980965611394255</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1533428036285507</v>
+        <v>0.1492668275061245</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1102839752333999</v>
+        <v>0.02980965611394255</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2704328649387406</v>
+        <v>0.3281709456519647</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1102729787318945</v>
+        <v>0.06761534639561564</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3903061575292807</v>
+        <v>0.476525329841231</v>
       </c>
       <c r="O134" t="n">
-        <v>0.11040738041696</v>
+        <v>0.06742429306752926</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09703166356619314</v>
+        <v>0.149502300423357</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1113883621026186</v>
+        <v>0.03024168011559389</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1509201777129302</v>
+        <v>0.149502300423357</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1118822937150433</v>
+        <v>0.03024168011559389</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2669126282561803</v>
+        <v>0.3273173427763113</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1118711378439509</v>
+        <v>0.06859527895207385</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3857325489264155</v>
+        <v>0.4734353268955717</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1120074873795247</v>
+        <v>0.06840145673517461</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.08501786080249615</v>
+        <v>0.1497263520249106</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1129796244183703</v>
+        <v>0.03067370411724523</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1488387881369668</v>
+        <v>0.1497263520249106</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1134806121966868</v>
+        <v>0.03067370411724523</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2627429495699481</v>
+        <v>0.3273867303146112</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1134692969560074</v>
+        <v>0.06957521150853203</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3797047258005155</v>
+        <v>0.4716819816885708</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1136075943420893</v>
+        <v>0.06937862040281997</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.08213021774432505</v>
+        <v>0.1499392236808772</v>
       </c>
       <c r="G137" t="n">
-        <v>0.114570886734122</v>
+        <v>0.03110572811889658</v>
       </c>
       <c r="J137" t="n">
-        <v>0.148434986821267</v>
+        <v>0.1499392236808772</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1150789306783303</v>
+        <v>0.03110572811889658</v>
       </c>
       <c r="L137" t="n">
-        <v>0.260988099197995</v>
+        <v>0.3280823283877208</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1150674560680638</v>
+        <v>0.07055514406499024</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3748152252719098</v>
+        <v>0.4723723104872299</v>
       </c>
       <c r="O137" t="n">
-        <v>0.115207701304654</v>
+        <v>0.07035578407046532</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.08939177933622808</v>
+        <v>0.1501411567613485</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1161621490498737</v>
+        <v>0.03153775212054791</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1462451256864373</v>
+        <v>0.1501411567613485</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1166772491599738</v>
+        <v>0.03153775212054791</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2577123474582723</v>
+        <v>0.3260073571164961</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1166656151801203</v>
+        <v>0.07153507662144844</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3725565844609278</v>
+        <v>0.4699133295585498</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1168078082672186</v>
+        <v>0.07133294773811066</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09082559052275338</v>
+        <v>0.1503323926364167</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1177534113656254</v>
+        <v>0.03196977612219926</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1455055566530838</v>
+        <v>0.1503323926364167</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1182755676416173</v>
+        <v>0.03196977612219926</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2567799646687312</v>
+        <v>0.3243650366217937</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1182637742921767</v>
+        <v>0.07251500917790664</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3717213404878986</v>
+        <v>0.4687120551695322</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1184079152297832</v>
+        <v>0.07231011140575602</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.09045469624844912</v>
+        <v>0.1505131726761735</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1193446736813771</v>
+        <v>0.0324018001238506</v>
       </c>
       <c r="J140" t="n">
-        <v>0.145552631641813</v>
+        <v>0.1505131726761735</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1198738861232607</v>
+        <v>0.0324018001238506</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2570552211473228</v>
+        <v>0.3262585870244695</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1198619334042332</v>
+        <v>0.07349494173436484</v>
       </c>
       <c r="N140" t="n">
-        <v>0.365802030473152</v>
+        <v>0.4695755035871783</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1200080221923479</v>
+        <v>0.07328727507340138</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.08530214145786358</v>
+        <v>0.1506837382507109</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1209359359971288</v>
+        <v>0.03283382412550194</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1444227025732312</v>
+        <v>0.1506837382507109</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1214722046049042</v>
+        <v>0.03283382412550194</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2548023872119984</v>
+        <v>0.3258912284453799</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1214600925162896</v>
+        <v>0.07447487429082303</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3661911915370166</v>
+        <v>0.4707106910784887</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1216081291549125</v>
+        <v>0.07426443874104673</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.08031232663274127</v>
+        <v>0.1508443307301207</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1225271983128805</v>
+        <v>0.03326584812715328</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1440360721551164</v>
+        <v>0.1508443307301207</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1230705230865477</v>
+        <v>0.03326584812715328</v>
       </c>
       <c r="L142" t="n">
-        <v>0.25565506934876</v>
+        <v>0.3231661810053811</v>
       </c>
       <c r="M142" t="n">
-        <v>0.123058251628346</v>
+        <v>0.07545480684728123</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3644686282534469</v>
+        <v>0.4670246339104653</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1232082361174772</v>
+        <v>0.07524160240869207</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.08935900156644899</v>
+        <v>0.1509951914844949</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1241184606286322</v>
+        <v>0.03369787212880462</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1452805285283834</v>
+        <v>0.1509951914844949</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1246688415681912</v>
+        <v>0.03369787212880462</v>
       </c>
       <c r="L143" t="n">
-        <v>0.255934838195534</v>
+        <v>0.3251866648253293</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1246564107404025</v>
+        <v>0.07643473940373942</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3654628715825801</v>
+        <v>0.4701243483501094</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1248083430800418</v>
+        <v>0.07621876607633743</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.08443823066805634</v>
+        <v>0.1511365618839253</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1257097229443839</v>
+        <v>0.03412989613045597</v>
       </c>
       <c r="J144" t="n">
-        <v>0.144977537177807</v>
+        <v>0.1511365618839253</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1262671600498347</v>
+        <v>0.03412989613045597</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2566074719253112</v>
+        <v>0.3236559000260809</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1262545698524589</v>
+        <v>0.07741467196019762</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3684916615949613</v>
+        <v>0.4670168506644217</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1264084500426064</v>
+        <v>0.07719592974398277</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.08554832060343248</v>
+        <v>0.1512686832985039</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1273009852601356</v>
+        <v>0.03456192013210731</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1448244269775033</v>
+        <v>0.1512686832985039</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1278654785314781</v>
+        <v>0.03456192013210731</v>
       </c>
       <c r="L145" t="n">
-        <v>0.2559682479785401</v>
+        <v>0.3255771067284918</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1278527289645154</v>
+        <v>0.07839460451665581</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3672481986966972</v>
+        <v>0.4668091571204039</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1280085570051711</v>
+        <v>0.07817309341162813</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.09168757803844654</v>
+        <v>0.1513917970983225</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1288922475758873</v>
+        <v>0.03499394413375865</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1444185268015875</v>
+        <v>0.1513917970983225</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1294637970131216</v>
+        <v>0.03499394413375865</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2553124437956694</v>
+        <v>0.3254535050534186</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1294508880765718</v>
+        <v>0.07937453707311401</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3685256832938946</v>
+        <v>0.4671082839850571</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1296086639677357</v>
+        <v>0.07915025707927349</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.09185430963896765</v>
+        <v>0.1515061446534732</v>
       </c>
       <c r="G147" t="n">
-        <v>0.130483509891639</v>
+        <v>0.03542596813540998</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1456571655241756</v>
+        <v>0.1515061446534732</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1310621154947651</v>
+        <v>0.03542596813540998</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2566353368171476</v>
+        <v>0.3255883151217173</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1310490471886283</v>
+        <v>0.08035446962957221</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3697173157926598</v>
+        <v>0.4674212475253825</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1312087709303003</v>
+        <v>0.08012742074691884</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08904682207086492</v>
+        <v>0.1516119673340477</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1320747722073906</v>
+        <v>0.03585799213706133</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1460376720193834</v>
+        <v>0.1516119673340477</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1326604339764085</v>
+        <v>0.03585799213706133</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2574322044834232</v>
+        <v>0.3247815364538247</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1326472063006847</v>
+        <v>0.08133440218603041</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3693162965990991</v>
+        <v>0.4675360338324099</v>
       </c>
       <c r="O148" t="n">
-        <v>0.132808877892865</v>
+        <v>0.08110458441456418</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.09226342200000756</v>
+        <v>0.1517095065101381</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1336660345231423</v>
+        <v>0.03629001613871267</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1449573751613263</v>
+        <v>0.1517095065101381</v>
       </c>
       <c r="K149" t="n">
-        <v>0.134258752458052</v>
+        <v>0.03629001613871267</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2564983242349449</v>
+        <v>0.3243100620787954</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1342453654127411</v>
+        <v>0.08231433474248862</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3704158261193197</v>
+        <v>0.4651111011284926</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1344089848554296</v>
+        <v>0.08208174808220954</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08950241609226459</v>
+        <v>0.1517990035518361</v>
       </c>
       <c r="G150" t="n">
-        <v>0.135257296838894</v>
+        <v>0.03672204014036401</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1453136038241202</v>
+        <v>0.1517990035518361</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1358570709396955</v>
+        <v>0.03672204014036401</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2576289735121612</v>
+        <v>0.322567373531655</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1358435245247976</v>
+        <v>0.0832942672989468</v>
       </c>
       <c r="N150" t="n">
-        <v>0.3686091047594274</v>
+        <v>0.4686416880276192</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1360090918179943</v>
+        <v>0.0830589117498549</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.08876211101350526</v>
+        <v>0.1518806998292337</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1368485591546457</v>
+        <v>0.03715406414201535</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1464036868818806</v>
+        <v>0.1518806998292337</v>
       </c>
       <c r="K151" t="n">
-        <v>0.137455389421339</v>
+        <v>0.03715406414201535</v>
       </c>
       <c r="L151" t="n">
-        <v>0.2599194297555206</v>
+        <v>0.3237518458727955</v>
       </c>
       <c r="M151" t="n">
-        <v>0.137441683636854</v>
+        <v>0.084274199855405</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3695893329255291</v>
+        <v>0.4666246109471966</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1376091987805589</v>
+        <v>0.08403607541750024</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.08604081342959863</v>
+        <v>0.1519548367124228</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1384398214703974</v>
+        <v>0.03758608814366669</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1463249532087234</v>
+        <v>0.1519548367124228</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1390537079029825</v>
+        <v>0.03758608814366669</v>
       </c>
       <c r="L152" t="n">
-        <v>0.2585649704054718</v>
+        <v>0.3244618541626092</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1390398427489105</v>
+        <v>0.08525413241186321</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3726497110237312</v>
+        <v>0.4687566863046317</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1392093057431235</v>
+        <v>0.08501323908514559</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.09433683000641394</v>
+        <v>0.1520216555714952</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1400310837861491</v>
+        <v>0.03801811214531804</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1477747316787641</v>
+        <v>0.1520216555714952</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1406520263846259</v>
+        <v>0.03801811214531804</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2605608729024634</v>
+        <v>0.3230957734614884</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1406380018609669</v>
+        <v>0.08623406496832141</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3715834394601403</v>
+        <v>0.4686347305173313</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1408094127056882</v>
+        <v>0.08599040275279095</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.09468583457772431</v>
+        <v>0.152081397776543</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1416223461019008</v>
+        <v>0.03845013614696938</v>
       </c>
       <c r="J154" t="n">
-        <v>0.14735037189936</v>
+        <v>0.152081397776543</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1422503448662694</v>
+        <v>0.03845013614696938</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2628025903650774</v>
+        <v>0.3256519788298254</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1422361609730233</v>
+        <v>0.08721399752477961</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3724837186408629</v>
+        <v>0.4666555600027026</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1424095196682528</v>
+        <v>0.08696756642043631</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.09129455437143219</v>
+        <v>0.152134304697658</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1432136084176525</v>
+        <v>0.03888216014862072</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1484842772795118</v>
+        <v>0.152134304697658</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1438486633479129</v>
+        <v>0.03888216014862072</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2620094651066458</v>
+        <v>0.3239288453280126</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1438343200850798</v>
+        <v>0.0881939300812378</v>
       </c>
       <c r="N155" t="n">
-        <v>0.376307991800119</v>
+        <v>0.465915991178152</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1440096266308174</v>
+        <v>0.08794473008808165</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.08615221909719403</v>
+        <v>0.1521806177049321</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1448048707334042</v>
+        <v>0.03931418415027206</v>
       </c>
       <c r="J156" t="n">
-        <v>0.148747945715511</v>
+        <v>0.1521806177049321</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1454469818295563</v>
+        <v>0.03931418415027206</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2647746885536771</v>
+        <v>0.3239247480164418</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1454324791971362</v>
+        <v>0.089173862637696</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3783419767062125</v>
+        <v>0.4670128404610867</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1456097335933821</v>
+        <v>0.088921893755727</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08920771108460673</v>
+        <v>0.1522205781684572</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1463961330491559</v>
+        <v>0.0397462081519234</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1501607423639026</v>
+        <v>0.1522205781684572</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1470453003111998</v>
+        <v>0.0397462081519234</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2659556980316178</v>
+        <v>0.3246380619555054</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1470306383091927</v>
+        <v>0.09015379519415419</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3822884841051613</v>
+        <v>0.4668429242689135</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1472098405559467</v>
+        <v>0.08989905742337234</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08740991266326714</v>
+        <v>0.1522544274583253</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1479873953649076</v>
+        <v>0.04017823215357474</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1538420323812313</v>
+        <v>0.1522544274583253</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1486436187928433</v>
+        <v>0.04017823215357474</v>
       </c>
       <c r="L158" t="n">
-        <v>0.2689099308659139</v>
+        <v>0.3250671622055957</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1486287974212491</v>
+        <v>0.09113372775061239</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3869422506687262</v>
+        <v>0.4688030590190393</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1488099475185114</v>
+        <v>0.09087622109101771</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1007077061627721</v>
+        <v>0.1522824069446281</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1495786576806593</v>
+        <v>0.04061025615522609</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1558111809240419</v>
+        <v>0.1522824069446281</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1502419372744868</v>
+        <v>0.04061025615522609</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2755948243820117</v>
+        <v>0.3269104238271051</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1502269565333056</v>
+        <v>0.09211366030707058</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3946980130686679</v>
+        <v>0.471290061128871</v>
       </c>
       <c r="O159" t="n">
-        <v>0.150410054481076</v>
+        <v>0.09185338475866306</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.09204997391271846</v>
+        <v>0.1523047579974577</v>
       </c>
       <c r="G160" t="n">
-        <v>0.151169919996411</v>
+        <v>0.04104228015687743</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1570875531488795</v>
+        <v>0.1523047579974577</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1518402557561302</v>
+        <v>0.04104228015687743</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2773678159053574</v>
+        <v>0.3255662218804255</v>
       </c>
       <c r="M160" t="n">
-        <v>0.151825115645362</v>
+        <v>0.09309359286352878</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3972505079767477</v>
+        <v>0.4718007470158154</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1520101614436407</v>
+        <v>0.0928305484263084</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.09338559824270315</v>
+        <v>0.152321721986906</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1527611823121627</v>
+        <v>0.04147430415852876</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1585905142122886</v>
+        <v>0.152321721986906</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1534385742377737</v>
+        <v>0.04147430415852876</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2817863427613974</v>
+        <v>0.3253329314259494</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1534232747574185</v>
+        <v>0.09407352541998698</v>
       </c>
       <c r="N161" t="n">
-        <v>0.4041944720647261</v>
+        <v>0.4721319330972794</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1536102684062053</v>
+        <v>0.09380771209395376</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.100663461482323</v>
+        <v>0.1523335402830647</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1543524446279144</v>
+        <v>0.0419063281601801</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1606394292708143</v>
+        <v>0.1523335402830647</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1550368927194172</v>
+        <v>0.0419063281601801</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2856078422755777</v>
+        <v>0.3271089275240691</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1550214338694749</v>
+        <v>0.09505345797644518</v>
       </c>
       <c r="N162" t="n">
-        <v>0.4105246420043642</v>
+        <v>0.47348043579067</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1552103753687699</v>
+        <v>0.09478487576159911</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1028324459611749</v>
+        <v>0.1523404542560259</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1559437069436661</v>
+        <v>0.04233835216183145</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1620536634810013</v>
+        <v>0.1523404542560259</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1566352112010607</v>
+        <v>0.04233835216183145</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2895897517733448</v>
+        <v>0.3252925852351765</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1566195929815313</v>
+        <v>0.09603339053290338</v>
       </c>
       <c r="N163" t="n">
-        <v>0.4145357544674229</v>
+        <v>0.470843071513394</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1568104823313345</v>
+        <v>0.09576203942924447</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.104845271720486</v>
+        <v>0.1523427052758815</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1575349692594178</v>
+        <v>0.04277037616348279</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1652525819993945</v>
+        <v>0.1523427052758815</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1582335296827042</v>
+        <v>0.04277037616348279</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2900895085801448</v>
+        <v>0.3253822796196639</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1582177520935878</v>
+        <v>0.09701332308936157</v>
       </c>
       <c r="N164" t="n">
-        <v>0.4147225461256629</v>
+        <v>0.4742166566828582</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1584105892938992</v>
+        <v>0.09673920309688981</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.09578292485923845</v>
+        <v>0.1523427052758815</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1591262315751694</v>
+        <v>0.04277037616348279</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1668424937991139</v>
+        <v>0.1523427052758815</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1598318481643476</v>
+        <v>0.04277037616348279</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2932224556155961</v>
+        <v>0.3281763857379237</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1598159112056442</v>
+        <v>0.09799325564581977</v>
       </c>
       <c r="N165" t="n">
-        <v>0.4189393618382757</v>
+        <v>0.4721980077164695</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1600106962564638</v>
+        <v>0.09771636676453517</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1026980388171659</v>
+        <v>0.1498686291895407</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1607174938909211</v>
+        <v>0.04277010763501878</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1667883913982804</v>
+        <v>0.1498686291895407</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1614301666459911</v>
+        <v>0.04277010763501878</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2978787055057422</v>
+        <v>0.3292732786503483</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1614140703177006</v>
+        <v>0.09897318820227798</v>
       </c>
       <c r="N166" t="n">
-        <v>0.4253217066349871</v>
+        <v>0.4718839410316349</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1616108032190285</v>
+        <v>0.09869353043218052</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1005922352006264</v>
+        <v>0.1474221839450638</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1623087562066728</v>
+        <v>0.04276983910655476</v>
       </c>
       <c r="J167" t="n">
-        <v>0.168300331839184</v>
+        <v>0.1474221839450638</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1630284851276346</v>
+        <v>0.04276983910655476</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2992749572358397</v>
+        <v>0.3289713334173296</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1630122294297571</v>
+        <v>0.09995312075873618</v>
       </c>
       <c r="N167" t="n">
-        <v>0.4273169937553358</v>
+        <v>0.4720712730457614</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1632109101815931</v>
+        <v>0.09967069409982587</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.09846713561597845</v>
+        <v>0.1450046531402913</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1639000185224245</v>
+        <v>0.04276957057809074</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1703808731017524</v>
+        <v>0.1450046531402913</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1646268036092781</v>
+        <v>0.04276957057809074</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2997157333230082</v>
+        <v>0.3284689250992602</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1646103885418135</v>
+        <v>0.1009330533151944</v>
       </c>
       <c r="N168" t="n">
-        <v>0.429531734769892</v>
+        <v>0.4769568201762555</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1648110171441577</v>
+        <v>0.1006478577674712</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1103243616695803</v>
+        <v>0.1426173203728516</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1654912808381762</v>
+        <v>0.04276930204962672</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1721325731659136</v>
+        <v>0.1426173203728516</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1662251220909216</v>
+        <v>0.04276930204962672</v>
       </c>
       <c r="L169" t="n">
-        <v>0.3028055562843671</v>
+        <v>0.3284644287565317</v>
       </c>
       <c r="M169" t="n">
-        <v>0.16620854765387</v>
+        <v>0.1019129858716526</v>
       </c>
       <c r="N169" t="n">
-        <v>0.4331724412492256</v>
+        <v>0.4733373988405244</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1664111241067224</v>
+        <v>0.1016250214351166</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1011655349677903</v>
+        <v>0.1402614692405825</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1670825431539279</v>
+        <v>0.0427690335211627</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1729579900115953</v>
+        <v>0.1402614692405825</v>
       </c>
       <c r="K170" t="n">
-        <v>0.167823440572565</v>
+        <v>0.0427690335211627</v>
       </c>
       <c r="L170" t="n">
-        <v>0.3071489486370363</v>
+        <v>0.3275562194495371</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1678067067659264</v>
+        <v>0.1028929184281108</v>
       </c>
       <c r="N170" t="n">
-        <v>0.4399456247639068</v>
+        <v>0.4755098254559748</v>
       </c>
       <c r="O170" t="n">
-        <v>0.168011231069287</v>
+        <v>0.1026021851027619</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1069922771169668</v>
+        <v>0.1379383833411152</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1686738054696796</v>
+        <v>0.04276876499269868</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1748596816187254</v>
+        <v>0.1379383833411152</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1694217590542085</v>
+        <v>0.04276876499269868</v>
       </c>
       <c r="L171" t="n">
-        <v>0.3085504328981354</v>
+        <v>0.3304426722386682</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1694048658779829</v>
+        <v>0.103872850984569</v>
       </c>
       <c r="N171" t="n">
-        <v>0.442557796884505</v>
+        <v>0.4745709164400136</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1696113380318517</v>
+        <v>0.1035793487704073</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.113806209723468</v>
+        <v>0.1356493462722846</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1702650677854313</v>
+        <v>0.04276849646423467</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1764402059672318</v>
+        <v>0.1356493462722846</v>
       </c>
       <c r="K172" t="n">
-        <v>0.171020077535852</v>
+        <v>0.04276849646423467</v>
       </c>
       <c r="L172" t="n">
-        <v>0.3121145315847844</v>
+        <v>0.3288221621843173</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1710030249900393</v>
+        <v>0.1048527835410272</v>
       </c>
       <c r="N172" t="n">
-        <v>0.4433154691815906</v>
+        <v>0.4783174882100478</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1712114449944163</v>
+        <v>0.1045565124380526</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1096089543936523</v>
+        <v>0.1333956416317252</v>
       </c>
       <c r="G173" t="n">
-        <v>0.171856330101183</v>
+        <v>0.04276822793577065</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1761021210370421</v>
+        <v>0.1333956416317252</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1726183960174955</v>
+        <v>0.04276822793577065</v>
       </c>
       <c r="L173" t="n">
-        <v>0.3126457672141023</v>
+        <v>0.3290930643468766</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1726011841020957</v>
+        <v>0.1058327160974853</v>
       </c>
       <c r="N173" t="n">
-        <v>0.4501251532257334</v>
+        <v>0.4798463571834843</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1728115519569809</v>
+        <v>0.105533676105698</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.102402132733878</v>
+        <v>0.1311785530172686</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1734475924169347</v>
+        <v>0.04276795940730663</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1788479848080844</v>
+        <v>0.1311785530172686</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1742167144991389</v>
+        <v>0.04276795940730663</v>
       </c>
       <c r="L174" t="n">
-        <v>0.3156486623032091</v>
+        <v>0.3300537537867385</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1741993432141522</v>
+        <v>0.1068126486539435</v>
       </c>
       <c r="N174" t="n">
-        <v>0.4511933605875034</v>
+        <v>0.4798543397777298</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1744116589195456</v>
+        <v>0.1065108397733433</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1131873663505034</v>
+        <v>0.1289993640265522</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1750388547326864</v>
+        <v>0.04276769087884261</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1790803552602864</v>
+        <v>0.1289993640265522</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1758150329807824</v>
+        <v>0.04276769087884261</v>
       </c>
       <c r="L175" t="n">
-        <v>0.3181277393692244</v>
+        <v>0.3318026055642951</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1757975023262086</v>
+        <v>0.1077925812104018</v>
       </c>
       <c r="N175" t="n">
-        <v>0.4564266028374705</v>
+        <v>0.4805382524101913</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1760117658821102</v>
+        <v>0.1074880034409887</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1059792528880761</v>
+        <v>0.1268593582574047</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1766301170484381</v>
+        <v>0.0427674223503786</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1804046507180293</v>
+        <v>0.1268593582574047</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1774133514624259</v>
+        <v>0.0427674223503786</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3201929762250509</v>
+        <v>0.3299379947399387</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1773956614382651</v>
+        <v>0.10877251376686</v>
       </c>
       <c r="N176" t="n">
-        <v>0.4556337086802735</v>
+        <v>0.4804949114982758</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1776118728446749</v>
+        <v>0.108465167108634</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1168170211611022</v>
+        <v>0.1247598193074668</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1782213793641898</v>
+        <v>0.04276715382191458</v>
       </c>
       <c r="J177" t="n">
-        <v>0.182088346642229</v>
+        <v>0.1247598193074668</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1790116699440694</v>
+        <v>0.04276715382191458</v>
       </c>
       <c r="L177" t="n">
-        <v>0.3204641815041143</v>
+        <v>0.3322582963740615</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1789938205503215</v>
+        <v>0.1097524463233182</v>
       </c>
       <c r="N177" t="n">
-        <v>0.4627746684282751</v>
+        <v>0.4796211334593898</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1792119798072395</v>
+        <v>0.1094423307762794</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1106785967105473</v>
+        <v>0.1227020307745637</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1798126416799415</v>
+        <v>0.04276688529345057</v>
       </c>
       <c r="J178" t="n">
-        <v>0.18392630842418</v>
+        <v>0.1227020307745637</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1806099884257128</v>
+        <v>0.04276688529345057</v>
       </c>
       <c r="L178" t="n">
-        <v>0.3233306645641515</v>
+        <v>0.3306618855270558</v>
       </c>
       <c r="M178" t="n">
-        <v>0.180591979662378</v>
+        <v>0.1107323788797764</v>
       </c>
       <c r="N178" t="n">
-        <v>0.4658644896958655</v>
+        <v>0.4785137347109406</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1808120867698041</v>
+        <v>0.1104194944439247</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1145361231992485</v>
+        <v>0.1206872762563396</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1814039039956932</v>
+        <v>0.04276661676498655</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1846745944803036</v>
+        <v>0.1206872762563396</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1822083069073563</v>
+        <v>0.04276661676498655</v>
       </c>
       <c r="L179" t="n">
-        <v>0.3261147365375382</v>
+        <v>0.3304471372593137</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1821901387744344</v>
+        <v>0.1117123114362346</v>
       </c>
       <c r="N179" t="n">
-        <v>0.4684913151852942</v>
+        <v>0.4801695316703349</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1824121937323688</v>
+        <v>0.1113966581115701</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1073617442900428</v>
+        <v>0.1187168393506161</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1829951663114449</v>
+        <v>0.04276634823652253</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1863892632270212</v>
+        <v>0.1187168393506161</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1838066253889998</v>
+        <v>0.04276634823652253</v>
       </c>
       <c r="L180" t="n">
-        <v>0.3286387085566504</v>
+        <v>0.3293124266312277</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1837882978864908</v>
+        <v>0.1126922439926927</v>
       </c>
       <c r="N180" t="n">
-        <v>0.4724432875988106</v>
+        <v>0.4785853407549795</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1840123006949334</v>
+        <v>0.1123738217792154</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1111276036457674</v>
+        <v>0.1167920036550412</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1845864286271965</v>
+        <v>0.04276607970805851</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1862263730807542</v>
+        <v>0.1167920036550412</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1854049438706433</v>
+        <v>0.04276607970805851</v>
       </c>
       <c r="L181" t="n">
-        <v>0.3318248917538639</v>
+        <v>0.3308561287031896</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1853864569985473</v>
+        <v>0.1136721765491509</v>
       </c>
       <c r="N181" t="n">
-        <v>0.4738085496386645</v>
+        <v>0.4807579783822815</v>
       </c>
       <c r="O181" t="n">
-        <v>0.185612407657498</v>
+        <v>0.1133509854468608</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1088058449292595</v>
+        <v>0.1149140527674325</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1861776909429482</v>
+        <v>0.04276581117959449</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1886419824579242</v>
+        <v>0.1149140527674325</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1870032623522867</v>
+        <v>0.04276581117959449</v>
       </c>
       <c r="L182" t="n">
-        <v>0.3315955972615545</v>
+        <v>0.3300766185355922</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1869846161106037</v>
+        <v>0.1146521091056091</v>
       </c>
       <c r="N182" t="n">
-        <v>0.475575244007105</v>
+        <v>0.4831842609696475</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1872125146200627</v>
+        <v>0.1143281491145062</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1213686118033563</v>
+        <v>0.1130842702854814</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1877689532586999</v>
+        <v>0.04276554265113048</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1901921497749526</v>
+        <v>0.1130842702854814</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1886015808339302</v>
+        <v>0.04276554265113048</v>
       </c>
       <c r="L183" t="n">
-        <v>0.3350731362120978</v>
+        <v>0.3317722711888272</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1885827752226602</v>
+        <v>0.1156320416620673</v>
       </c>
       <c r="N183" t="n">
-        <v>0.4779315134063817</v>
+        <v>0.4811610049344847</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1888126215826273</v>
+        <v>0.1153053127821515</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1147880479308949</v>
+        <v>0.1113039398068835</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1893602155744516</v>
+        <v>0.04276527412266646</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1909329334482607</v>
+        <v>0.1113039398068835</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1901998993155737</v>
+        <v>0.04276527412266646</v>
       </c>
       <c r="L184" t="n">
-        <v>0.3373798197378698</v>
+        <v>0.3308414617232873</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1901809343347166</v>
+        <v>0.1166119742185255</v>
       </c>
       <c r="N184" t="n">
-        <v>0.4823655005387442</v>
+        <v>0.4834850266941997</v>
       </c>
       <c r="O184" t="n">
-        <v>0.190412728545192</v>
+        <v>0.1162824764497968</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1211037148162588</v>
+        <v>0.10957434492945</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1909514778902033</v>
+        <v>0.04276500559420245</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1897574115171869</v>
+        <v>0.10957434492945</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1917982177972172</v>
+        <v>0.04276500559420245</v>
       </c>
       <c r="L185" t="n">
-        <v>0.3383054488170217</v>
+        <v>0.3326825651993645</v>
       </c>
       <c r="M185" t="n">
-        <v>0.191779093446773</v>
+        <v>0.1175919067749837</v>
       </c>
       <c r="N185" t="n">
-        <v>0.4841298438328363</v>
+        <v>0.4792531426661996</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1920128355077566</v>
+        <v>0.1172596401174422</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1224114765734577</v>
+        <v>0.1078967692508396</v>
       </c>
       <c r="G186" t="n">
-        <v>0.192542740205955</v>
+        <v>0.04276473706573843</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1912422148724889</v>
+        <v>0.1078967692508396</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1933965362788607</v>
+        <v>0.04276473706573843</v>
       </c>
       <c r="L186" t="n">
-        <v>0.3380626100943257</v>
+        <v>0.3328929160740263</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1933772525588295</v>
+        <v>0.1185718393314419</v>
       </c>
       <c r="N186" t="n">
-        <v>0.48276351120475</v>
+        <v>0.4814530175693201</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1936129424703212</v>
+        <v>0.1182368037850876</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.11971254365163</v>
+        <v>0.106272496368859</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1941340025217067</v>
+        <v>0.04276446853727441</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1908165601081482</v>
+        <v>0.106272496368859</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1949948547605041</v>
+        <v>0.04276446853727441</v>
       </c>
       <c r="L187" t="n">
-        <v>0.3381012773132409</v>
+        <v>0.3296956716067478</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1949754116708859</v>
+        <v>0.1195517718879001</v>
       </c>
       <c r="N187" t="n">
-        <v>0.4854706221268118</v>
+        <v>0.4798769306008607</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1952130494328859</v>
+        <v>0.1192139674527329</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1170068135356856</v>
+        <v>0.1047028098811714</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1957252648374584</v>
+        <v>0.04276420000881039</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1908802855131915</v>
+        <v>0.1047028098811714</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1965931732421476</v>
+        <v>0.04276420000881039</v>
       </c>
       <c r="L188" t="n">
-        <v>0.3392211645682217</v>
+        <v>0.3303500943391314</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1965735707829424</v>
+        <v>0.1205317044443583</v>
       </c>
       <c r="N188" t="n">
-        <v>0.48895076494903</v>
+        <v>0.4791033961766918</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1968131563954505</v>
+        <v>0.1201911311203782</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1122941837105342</v>
+        <v>0.103188993385579</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1973165271532101</v>
+        <v>0.04276393148034638</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1928332293766449</v>
+        <v>0.103188993385579</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1981914917237911</v>
+        <v>0.04276393148034638</v>
       </c>
       <c r="L189" t="n">
-        <v>0.340521985953723</v>
+        <v>0.3307648080131536</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1981717298949988</v>
+        <v>0.1215116370008165</v>
       </c>
       <c r="N189" t="n">
-        <v>0.486603528021412</v>
+        <v>0.4782436024627575</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1984132633580151</v>
+        <v>0.1211682947880236</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1185745516610856</v>
+        <v>0.1017270891223367</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1989077894689618</v>
+        <v>0.04276366295188236</v>
       </c>
       <c r="J190" t="n">
-        <v>0.193375229987535</v>
+        <v>0.1017270891223367</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1997898102054345</v>
+        <v>0.04276366295188236</v>
       </c>
       <c r="L190" t="n">
-        <v>0.339203455564199</v>
+        <v>0.3301484363707905</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1997698890070553</v>
+        <v>0.1224915695572747</v>
       </c>
       <c r="N190" t="n">
-        <v>0.4873284996939665</v>
+        <v>0.4803087376250013</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2000133703205798</v>
+        <v>0.122145458455669</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1148478148722496</v>
+        <v>0.1002869325447636</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2004990517847135</v>
+        <v>0.04276339442341835</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1928061256348881</v>
+        <v>0.1002869325447636</v>
       </c>
       <c r="K191" t="n">
-        <v>0.201388128687078</v>
+        <v>0.04276339442341835</v>
       </c>
       <c r="L191" t="n">
-        <v>0.3408652874941043</v>
+        <v>0.3301096031540187</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2013680481191117</v>
+        <v>0.1234715021137329</v>
       </c>
       <c r="N191" t="n">
-        <v>0.4879252683167012</v>
+        <v>0.4799099898293672</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2016134772831444</v>
+        <v>0.1231226221233143</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1161138708289361</v>
+        <v>0.09886456589311755</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2020903141004652</v>
+        <v>0.04276312589495432</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1945257546077305</v>
+        <v>0.09886456589311755</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2029864471687215</v>
+        <v>0.04276312589495432</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3415071958378936</v>
+        <v>0.3299569321048145</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2029662072311681</v>
+        <v>0.1244514346701911</v>
       </c>
       <c r="N192" t="n">
-        <v>0.4922934222396247</v>
+        <v>0.4754585472417986</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2032135842457091</v>
+        <v>0.1240997857909597</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1253726170160548</v>
+        <v>0.09746127276519424</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2036815764162169</v>
+        <v>0.0427628573664903</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1949339551950887</v>
+        <v>0.09746127276519424</v>
       </c>
       <c r="K193" t="n">
-        <v>0.204584765650365</v>
+        <v>0.0427628573664903</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3420288946900212</v>
+        <v>0.3296990469651545</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2045643663432246</v>
+        <v>0.1254313672266493</v>
       </c>
       <c r="N193" t="n">
-        <v>0.4923325498127444</v>
+        <v>0.4793655980282397</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2048136912082737</v>
+        <v>0.125076949458605</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1246239509185156</v>
+        <v>0.09607833675866644</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2052728387319686</v>
+        <v>0.04276258883802628</v>
       </c>
       <c r="J194" t="n">
-        <v>0.195330565685989</v>
+        <v>0.09607833675866644</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2061830841320085</v>
+        <v>0.04276258883802628</v>
       </c>
       <c r="L194" t="n">
-        <v>0.3429300981449417</v>
+        <v>0.3287445714770149</v>
       </c>
       <c r="M194" t="n">
-        <v>0.206162525455281</v>
+        <v>0.1264112997831075</v>
       </c>
       <c r="N194" t="n">
-        <v>0.4919422393860687</v>
+        <v>0.4751423303546342</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2064137981708384</v>
+        <v>0.1260541131262504</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1138677700212281</v>
+        <v>0.09471704147132816</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2068641010477203</v>
+        <v>0.04276232030956227</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1954154243694579</v>
+        <v>0.09471704147132816</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2077814026136519</v>
+        <v>0.04276232030956227</v>
       </c>
       <c r="L195" t="n">
-        <v>0.3436105202971096</v>
+        <v>0.3253021293823722</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2077606845673375</v>
+        <v>0.1273912323395657</v>
       </c>
       <c r="N195" t="n">
-        <v>0.4919220793096059</v>
+        <v>0.4715999323869258</v>
       </c>
       <c r="O195" t="n">
-        <v>0.208013905133403</v>
+        <v>0.1270312767938957</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1231039718091024</v>
+        <v>0.09337867050085392</v>
       </c>
       <c r="G196" t="n">
-        <v>0.208455363363472</v>
+        <v>0.04276205178109825</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1941883695345216</v>
+        <v>0.09337867050085392</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2093797210952954</v>
+        <v>0.04276205178109825</v>
       </c>
       <c r="L196" t="n">
-        <v>0.3434698752409795</v>
+        <v>0.3241803444232029</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2093588436793939</v>
+        <v>0.1283711648960239</v>
       </c>
       <c r="N196" t="n">
-        <v>0.4974716579333638</v>
+        <v>0.4714495922910583</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2096140120959676</v>
+        <v>0.1280084404615411</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1253324537670481</v>
+        <v>0.09206450744503585</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2100466256792237</v>
+        <v>0.04276178325263424</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1955492394702067</v>
+        <v>0.09206450744503585</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2109780395769389</v>
+        <v>0.04276178325263424</v>
       </c>
       <c r="L197" t="n">
-        <v>0.3444078770710057</v>
+        <v>0.3242878403414832</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2109570027914503</v>
+        <v>0.1293510974524821</v>
       </c>
       <c r="N197" t="n">
-        <v>0.4957905636073503</v>
+        <v>0.4716024982329754</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2112141190585323</v>
+        <v>0.1289856041291864</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1225531133799751</v>
+        <v>0.09077583590157833</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2116378879949754</v>
+        <v>0.04276151472417022</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1958978724655395</v>
+        <v>0.09077583590157833</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2125763580585824</v>
+        <v>0.04276151472417022</v>
       </c>
       <c r="L198" t="n">
-        <v>0.3469242398816429</v>
+        <v>0.3240332408791897</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2125551619035068</v>
+        <v>0.1303310300089403</v>
       </c>
       <c r="N198" t="n">
-        <v>0.4948783846815739</v>
+        <v>0.4675698383786211</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2128142260210969</v>
+        <v>0.1299627677968318</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1237658481327932</v>
+        <v>0.08951393946818796</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2132291503107271</v>
+        <v>0.0427612461957062</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1968341068095464</v>
+        <v>0.08951393946818796</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2141746765402258</v>
+        <v>0.0427612461957062</v>
       </c>
       <c r="L199" t="n">
-        <v>0.3453186777673456</v>
+        <v>0.3223251697782987</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2141533210155633</v>
+        <v>0.1313109625653985</v>
       </c>
       <c r="N199" t="n">
-        <v>0.4993347095060426</v>
+        <v>0.465062800893939</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2144143329836616</v>
+        <v>0.1309399314644771</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1189705555104121</v>
+        <v>0.08828010174265348</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2148204126264787</v>
+        <v>0.04276097766724219</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1970577807912537</v>
+        <v>0.08828010174265348</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2157729950218693</v>
+        <v>0.04276097766724219</v>
       </c>
       <c r="L200" t="n">
-        <v>0.3490909048225684</v>
+        <v>0.3199722507807867</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2157514801276197</v>
+        <v>0.1322908951218567</v>
       </c>
       <c r="N200" t="n">
-        <v>0.4986591264307644</v>
+        <v>0.467892573944873</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2160144399462262</v>
+        <v>0.1319170951321225</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1271671329977417</v>
+        <v>0.08707560632265511</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2164116749422304</v>
+        <v>0.04276070913877817</v>
       </c>
       <c r="J201" t="n">
-        <v>0.196768732699688</v>
+        <v>0.08707560632265511</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2173713135035128</v>
+        <v>0.04276070913877817</v>
       </c>
       <c r="L201" t="n">
-        <v>0.3470406351417654</v>
+        <v>0.3190831076286301</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2173496392396761</v>
+        <v>0.1332708276783149</v>
       </c>
       <c r="N201" t="n">
-        <v>0.4969512238057472</v>
+        <v>0.4640703456973669</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2176145469087908</v>
+        <v>0.1328942587997678</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1163554780796917</v>
+        <v>0.08590173680597894</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2180029372579821</v>
+        <v>0.04276044061031416</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1976668008238754</v>
+        <v>0.08590173680597894</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2189696319851563</v>
+        <v>0.04276044061031416</v>
       </c>
       <c r="L202" t="n">
-        <v>0.3502675828193916</v>
+        <v>0.3185663640638053</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2189477983517326</v>
+        <v>0.1342507602347731</v>
       </c>
       <c r="N202" t="n">
-        <v>0.4995105899809993</v>
+        <v>0.4596073043173645</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2192146538713554</v>
+        <v>0.1338714224674132</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1155354882411721</v>
+        <v>0.08475977679030784</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2195941995737339</v>
+        <v>0.04276017208185014</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1984518234528425</v>
+        <v>0.08475977679030784</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2205679504667998</v>
+        <v>0.04276017208185014</v>
       </c>
       <c r="L203" t="n">
-        <v>0.3490714619499014</v>
+        <v>0.3150306438282887</v>
       </c>
       <c r="M203" t="n">
-        <v>0.220545957463789</v>
+        <v>0.1352306927912313</v>
       </c>
       <c r="N203" t="n">
-        <v>0.4997368133065287</v>
+        <v>0.4582146379708094</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2208147608339201</v>
+        <v>0.1348485861350585</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1217070609670925</v>
+        <v>0.08365100987342529</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2211854618894855</v>
+        <v>0.04275990355338612</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1969236388756155</v>
+        <v>0.08365100987342529</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2221662689484432</v>
+        <v>0.04275990355338612</v>
       </c>
       <c r="L204" t="n">
-        <v>0.3499519866277493</v>
+        <v>0.3158845706640566</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2221441165758455</v>
+        <v>0.1362106253476895</v>
       </c>
       <c r="N204" t="n">
-        <v>0.4991294821323438</v>
+        <v>0.4566035348236457</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2224148677964847</v>
+        <v>0.1358257498027039</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1228700937423629</v>
+        <v>0.08257671965301681</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2227767242052372</v>
+        <v>0.0427596350249221</v>
       </c>
       <c r="J205" t="n">
-        <v>0.197182085381221</v>
+        <v>0.08257671965301681</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2237645874300867</v>
+        <v>0.0427596350249221</v>
       </c>
       <c r="L205" t="n">
-        <v>0.3491088709473895</v>
+        <v>0.3132367683130856</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2237422756879019</v>
+        <v>0.1371905579041477</v>
       </c>
       <c r="N205" t="n">
-        <v>0.5028881848084521</v>
+        <v>0.4562851830418166</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2240149747590493</v>
+        <v>0.1368029134703492</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1260244840518929</v>
+        <v>0.08153818972686304</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2243679865209889</v>
+        <v>0.04275936649645808</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1986270012586853</v>
+        <v>0.08153818972686304</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2253629059117302</v>
+        <v>0.04275936649645808</v>
       </c>
       <c r="L206" t="n">
-        <v>0.3494418290032769</v>
+        <v>0.3111958605173519</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2253404347999583</v>
+        <v>0.1381704904606059</v>
       </c>
       <c r="N206" t="n">
-        <v>0.5025125096848621</v>
+        <v>0.4531707707912666</v>
       </c>
       <c r="O206" t="n">
-        <v>0.225615081721614</v>
+        <v>0.1377800771379946</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1201701293805924</v>
+        <v>0.0805367036926526</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2259592488367406</v>
+        <v>0.04275909796799406</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1980582247970348</v>
+        <v>0.0805367036926526</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2269612243933736</v>
+        <v>0.04275909796799406</v>
       </c>
       <c r="L207" t="n">
-        <v>0.3503505748898661</v>
+        <v>0.3105704710188323</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2269385939120148</v>
+        <v>0.1391504230170641</v>
       </c>
       <c r="N207" t="n">
-        <v>0.5037020451115817</v>
+        <v>0.4507714862379392</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2272151886841786</v>
+        <v>0.1387572408056399</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1213069272133712</v>
+        <v>0.07957354514816288</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2275505111524923</v>
+        <v>0.04275882943953005</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1995755942852958</v>
+        <v>0.07957354514816288</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2285595428750171</v>
+        <v>0.04275882943953005</v>
       </c>
       <c r="L208" t="n">
-        <v>0.3530348227016111</v>
+        <v>0.3082692235595027</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2285367530240713</v>
+        <v>0.1401303555735223</v>
       </c>
       <c r="N208" t="n">
-        <v>0.5058563794386192</v>
+        <v>0.4482985175477781</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2288152956467433</v>
+        <v>0.1397344044732853</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1254347750351391</v>
+        <v>0.07864999769108579</v>
       </c>
       <c r="G209" t="n">
-        <v>0.229141773468244</v>
+        <v>0.04275856091106603</v>
       </c>
       <c r="J209" t="n">
-        <v>0.1992789480124947</v>
+        <v>0.07864999769108579</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2301578613566606</v>
+        <v>0.04275856091106603</v>
       </c>
       <c r="L209" t="n">
-        <v>0.351094286532967</v>
+        <v>0.3086007418813399</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2301349121361277</v>
+        <v>0.1411102881299805</v>
       </c>
       <c r="N209" t="n">
-        <v>0.5070751010159823</v>
+        <v>0.445963052886727</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2304154026093079</v>
+        <v>0.1407115681409306</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1175535703308059</v>
+        <v>0.07776734491919539</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2307330357839957</v>
+        <v>0.04275829238260202</v>
       </c>
       <c r="J210" t="n">
-        <v>0.198768124267658</v>
+        <v>0.07776734491919539</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2317561798383041</v>
+        <v>0.04275829238260202</v>
       </c>
       <c r="L210" t="n">
-        <v>0.3518286804783879</v>
+        <v>0.3072736497263202</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2317330712481841</v>
+        <v>0.1420902206864387</v>
       </c>
       <c r="N210" t="n">
-        <v>0.5046577981936795</v>
+        <v>0.44577628042073</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2320155095718726</v>
+        <v>0.141688731808576</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1286632105852815</v>
+        <v>0.07692687043018702</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2323242980997474</v>
+        <v>0.042758023854138</v>
       </c>
       <c r="J211" t="n">
-        <v>0.199742961339812</v>
+        <v>0.07692687043018702</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2333544983199476</v>
+        <v>0.042758023854138</v>
       </c>
       <c r="L211" t="n">
-        <v>0.3529377186323286</v>
+        <v>0.3040965708364198</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2333312303602406</v>
+        <v>0.1430701532428969</v>
       </c>
       <c r="N211" t="n">
-        <v>0.5048040593217186</v>
+        <v>0.4450493883157307</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2336156165344372</v>
+        <v>0.1426658954762213</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1157635932834755</v>
+        <v>0.07612985782183111</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2339155604154991</v>
+        <v>0.04275775532567398</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1998032975179831</v>
+        <v>0.07612985782183111</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2349528168015911</v>
+        <v>0.04275775532567398</v>
       </c>
       <c r="L212" t="n">
-        <v>0.3533211150892434</v>
+        <v>0.3035781289536156</v>
       </c>
       <c r="M212" t="n">
-        <v>0.234929389472297</v>
+        <v>0.1440500857993551</v>
       </c>
       <c r="N212" t="n">
-        <v>0.5063134727501077</v>
+        <v>0.4428935647376728</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2352157234970018</v>
+        <v>0.1436430591438667</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1288546159102979</v>
+        <v>0.07537759069182685</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2355068227312508</v>
+        <v>0.04275748679720996</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1998489710911977</v>
+        <v>0.07537759069182685</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2365511352832345</v>
+        <v>0.04275748679720996</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3537785839435869</v>
+        <v>0.3013269478198835</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2365275485843534</v>
+        <v>0.1450300183558133</v>
       </c>
       <c r="N213" t="n">
-        <v>0.5087856268288551</v>
+        <v>0.4397199978525004</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2368158304595665</v>
+        <v>0.144620222811512</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1239361759506585</v>
+        <v>0.07467135263794074</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2370980850470025</v>
+        <v>0.04275721826874595</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1994798203484823</v>
+        <v>0.07467135263794074</v>
       </c>
       <c r="K214" t="n">
-        <v>0.238149453764878</v>
+        <v>0.04275721826874595</v>
       </c>
       <c r="L214" t="n">
-        <v>0.3520098392898137</v>
+        <v>0.3005516511772001</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2381257076964099</v>
+        <v>0.1460099509122715</v>
       </c>
       <c r="N214" t="n">
-        <v>0.5087201099079687</v>
+        <v>0.4397398758261568</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2384159374221311</v>
+        <v>0.1455973864791574</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1160081708894669</v>
+        <v>0.07467135263794074</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2386893473627542</v>
+        <v>0.04275721826874595</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1989956835788629</v>
+        <v>0.07467135263794074</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2397477722465215</v>
+        <v>0.04275721826874595</v>
       </c>
       <c r="L215" t="n">
-        <v>0.3545145952223779</v>
+        <v>0.3010608627675418</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2397238668084663</v>
+        <v>0.1469898834687297</v>
       </c>
       <c r="N215" t="n">
-        <v>0.5062165103374565</v>
+        <v>0.4357643868245863</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2400160443846958</v>
+        <v>0.1465745501468028</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.124070498211633</v>
+        <v>0.07265764033058676</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2402806096785058</v>
+        <v>0.04274697409507318</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1994963990713663</v>
+        <v>0.07265764033058676</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2413460907281649</v>
+        <v>0.04274697409507318</v>
       </c>
       <c r="L216" t="n">
-        <v>0.3549925658357349</v>
+        <v>0.2997632063328852</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2413220259205227</v>
+        <v>0.1479698160251879</v>
       </c>
       <c r="N216" t="n">
-        <v>0.5065744164673267</v>
+        <v>0.4356047190137324</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2416161513472604</v>
+        <v>0.1475517138144481</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1181230554020667</v>
+        <v>0.07066392538890277</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2418718719942575</v>
+        <v>0.04273672992140041</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1999818051150188</v>
+        <v>0.07066392538890277</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2429444092098084</v>
+        <v>0.04273672992140041</v>
       </c>
       <c r="L217" t="n">
-        <v>0.3538434652243382</v>
+        <v>0.2991673056152065</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2429201850325792</v>
+        <v>0.1489497485816461</v>
       </c>
       <c r="N217" t="n">
-        <v>0.5084934166475875</v>
+        <v>0.4371720605595389</v>
       </c>
       <c r="O217" t="n">
-        <v>0.243216258309825</v>
+        <v>0.1485288774820935</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1241657399456778</v>
+        <v>0.06869084397314489</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2434631343100093</v>
+        <v>0.04272648574772765</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1990517399988467</v>
+        <v>0.06869084397314489</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2445427276914519</v>
+        <v>0.04272648574772765</v>
       </c>
       <c r="L218" t="n">
-        <v>0.3540670074826432</v>
+        <v>0.2993817843564822</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2445183441446356</v>
+        <v>0.1499296811381043</v>
       </c>
       <c r="N218" t="n">
-        <v>0.5078730992282469</v>
+        <v>0.4329775996279498</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2448163652723896</v>
+        <v>0.1495060411497388</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.128198449327376</v>
+        <v>0.06673903224356921</v>
       </c>
       <c r="G219" t="n">
-        <v>0.245054396625761</v>
+        <v>0.04271624157405488</v>
       </c>
       <c r="J219" t="n">
-        <v>0.2006060420118764</v>
+        <v>0.06673903224356921</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2461410461730954</v>
+        <v>0.04271624157405488</v>
       </c>
       <c r="L219" t="n">
-        <v>0.3537629067051036</v>
+        <v>0.2969152662986886</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2461165032566921</v>
+        <v>0.1509096136945625</v>
       </c>
       <c r="N219" t="n">
-        <v>0.5061130525593127</v>
+        <v>0.4353325243849084</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2464164722349543</v>
+        <v>0.1504832048173841</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1282210810320712</v>
+        <v>0.06480912636043294</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2466456589415126</v>
+        <v>0.04270599740038211</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2010445494431343</v>
+        <v>0.06480912636043294</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2477393646547388</v>
+        <v>0.04270599740038211</v>
       </c>
       <c r="L220" t="n">
-        <v>0.3533308769861745</v>
+        <v>0.2952763751838023</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2477146623687485</v>
+        <v>0.1518895462510207</v>
       </c>
       <c r="N220" t="n">
-        <v>0.5057128649907933</v>
+        <v>0.4306480229963591</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2480165791975189</v>
+        <v>0.1514603684850295</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1172335325446731</v>
+        <v>0.06290176248399011</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2482369212572643</v>
+        <v>0.04269575322670935</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2005671005816467</v>
+        <v>0.06290176248399011</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2493376831363824</v>
+        <v>0.04269575322670935</v>
       </c>
       <c r="L221" t="n">
-        <v>0.3537706324203103</v>
+        <v>0.2962587144358172</v>
       </c>
       <c r="M221" t="n">
-        <v>0.249312821480805</v>
+        <v>0.1528694788074788</v>
       </c>
       <c r="N221" t="n">
-        <v>0.5083721248726967</v>
+        <v>0.4301049415617444</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2496166861600836</v>
+        <v>0.1524375321526749</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.119222493453266</v>
+        <v>0.06101757677449789</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2498281835730161</v>
+        <v>0.04268550905303658</v>
       </c>
       <c r="J222" t="n">
-        <v>0.2009708872913867</v>
+        <v>0.06101757677449789</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2509360016180258</v>
+        <v>0.04268550905303658</v>
       </c>
       <c r="L222" t="n">
-        <v>0.3524768201080613</v>
+        <v>0.2968644357661144</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2509109805928614</v>
+        <v>0.153849411363937</v>
       </c>
       <c r="N222" t="n">
-        <v>0.5063884248916445</v>
+        <v>0.4326804122578333</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2512167931226482</v>
+        <v>0.1534146958203202</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1259749370806431</v>
+        <v>0.05915720539221243</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2514194458887677</v>
+        <v>0.04267526487936382</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2004717121320758</v>
+        <v>0.05915720539221243</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2525343200996693</v>
+        <v>0.04267526487936382</v>
       </c>
       <c r="L223" t="n">
-        <v>0.3523442286261568</v>
+        <v>0.2948744074755646</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2525091397049179</v>
+        <v>0.1548293439203952</v>
       </c>
       <c r="N223" t="n">
-        <v>0.5078858120349132</v>
+        <v>0.432560513137297</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2528169000852128</v>
+        <v>0.1543918594879655</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1154409080182284</v>
+        <v>0.05732128449738989</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2530107082045194</v>
+        <v>0.04266502070569105</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1988135148270526</v>
+        <v>0.05732128449738989</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2541326385813127</v>
+        <v>0.04266502070569105</v>
       </c>
       <c r="L224" t="n">
-        <v>0.3506003679264773</v>
+        <v>0.2968887584292853</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2541072988169743</v>
+        <v>0.1558092764768534</v>
       </c>
       <c r="N224" t="n">
-        <v>0.5057101416890252</v>
+        <v>0.4297457292651637</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2544170070477775</v>
+        <v>0.1553690231556109</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1256523646669975</v>
+        <v>0.05551045025028641</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2546019705202711</v>
+        <v>0.04265477653201828</v>
       </c>
       <c r="J225" t="n">
-        <v>0.19754670770222</v>
+        <v>0.05551045025028641</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2557309570629562</v>
+        <v>0.04265477653201828</v>
       </c>
       <c r="L225" t="n">
-        <v>0.349034367170849</v>
+        <v>0.2961076174923928</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2557054579290307</v>
+        <v>0.1567892090333116</v>
       </c>
       <c r="N225" t="n">
-        <v>0.5000897430148702</v>
+        <v>0.4282365457064612</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2560171140103421</v>
+        <v>0.1563461868232563</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1156412654279261</v>
+        <v>0.05372533881115811</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2561932328360228</v>
+        <v>0.04264453235834551</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1973217030834807</v>
+        <v>0.05372533881115811</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2573292755445997</v>
+        <v>0.04264453235834551</v>
       </c>
       <c r="L226" t="n">
-        <v>0.3488353555210988</v>
+        <v>0.2950311135300048</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2573036170410872</v>
+        <v>0.1577691415897698</v>
       </c>
       <c r="N226" t="n">
-        <v>0.4966529451733379</v>
+        <v>0.4287334475262173</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2576172209729068</v>
+        <v>0.1573233504909016</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1144395687019899</v>
+        <v>0.05196658634026109</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2577844951517745</v>
+        <v>0.04263428818467274</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1952889132967375</v>
+        <v>0.05196658634026109</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2589275940262432</v>
+        <v>0.04263428818467274</v>
       </c>
       <c r="L227" t="n">
-        <v>0.344692462139053</v>
+        <v>0.2934593754072381</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2589017761531436</v>
+        <v>0.158749074146228</v>
       </c>
       <c r="N227" t="n">
-        <v>0.4940280773253184</v>
+        <v>0.4282369197894602</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2592173279354714</v>
+        <v>0.158300514158547</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1150792328901647</v>
+        <v>0.05023482899785149</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2593757574675262</v>
+        <v>0.04262404401099997</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1933987506678932</v>
+        <v>0.05023482899785149</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2605259125078866</v>
+        <v>0.04262404401099997</v>
       </c>
       <c r="L228" t="n">
-        <v>0.3417948161865385</v>
+        <v>0.2929925319892096</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2604999352652</v>
+        <v>0.1597290067026862</v>
       </c>
       <c r="N228" t="n">
-        <v>0.4888434686317011</v>
+        <v>0.4277474475612177</v>
       </c>
       <c r="O228" t="n">
-        <v>0.260817434898036</v>
+        <v>0.1592776778261923</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1135922163934261</v>
+        <v>0.04853070294418553</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2609670197832779</v>
+        <v>0.04261379983732721</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1902016275228506</v>
+        <v>0.04853070294418553</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2621242309895301</v>
+        <v>0.04261379983732721</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3353315468253816</v>
+        <v>0.2923307121410364</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2620980943772565</v>
+        <v>0.1607089392591444</v>
       </c>
       <c r="N229" t="n">
-        <v>0.482927448253376</v>
+        <v>0.4259655159065179</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2624175418606007</v>
+        <v>0.1602548414938377</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.11101047761275</v>
+        <v>0.04685484433952021</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2625582820990296</v>
+        <v>0.04260355566365445</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1869479561875124</v>
+        <v>0.04685484433952021</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2637225494711736</v>
+        <v>0.04260355566365445</v>
       </c>
       <c r="L230" t="n">
-        <v>0.3335917832174089</v>
+        <v>0.2932740447278357</v>
       </c>
       <c r="M230" t="n">
-        <v>0.263696253489313</v>
+        <v>0.1616888718156026</v>
       </c>
       <c r="N230" t="n">
-        <v>0.4767083453512329</v>
+        <v>0.4278916098903885</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2640176488231653</v>
+        <v>0.161232005161483</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1133659749491119</v>
+        <v>0.04520788934410978</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2641495444147813</v>
+        <v>0.04259331148998168</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1861881489877815</v>
+        <v>0.04520788934410978</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2653208679528171</v>
+        <v>0.04259331148998168</v>
       </c>
       <c r="L231" t="n">
-        <v>0.3265646545244472</v>
+        <v>0.2947226586147241</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2652944126013694</v>
+        <v>0.1626688043720608</v>
       </c>
       <c r="N231" t="n">
-        <v>0.4701144890861613</v>
+        <v>0.4255262145778578</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2656177557857299</v>
+        <v>0.1622091688291284</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1066906668034877</v>
+        <v>0.04359047411821131</v>
       </c>
       <c r="G232" t="n">
-        <v>0.265740806730533</v>
+        <v>0.04258306731630891</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1816726182495605</v>
+        <v>0.04359047411821131</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2669191864344606</v>
+        <v>0.04258306731630891</v>
       </c>
       <c r="L232" t="n">
-        <v>0.323539289908323</v>
+        <v>0.2928766826668191</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2668925717134258</v>
+        <v>0.163648736928519</v>
       </c>
       <c r="N232" t="n">
-        <v>0.4638742086190513</v>
+        <v>0.4245698150339533</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2672178627482946</v>
+        <v>0.1631863324967737</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.115016511576853</v>
+        <v>0.042003234822081</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2673320690462846</v>
+        <v>0.04257282314263614</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1802517762987525</v>
+        <v>0.042003234822081</v>
       </c>
       <c r="K233" t="n">
-        <v>0.268517504916104</v>
+        <v>0.04257282314263614</v>
       </c>
       <c r="L233" t="n">
-        <v>0.3192048185308628</v>
+        <v>0.2921362457492373</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2684907308254822</v>
+        <v>0.1646286694849772</v>
       </c>
       <c r="N233" t="n">
-        <v>0.4570158331107923</v>
+        <v>0.4254228963237034</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2688179697108593</v>
+        <v>0.1641634961644191</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1023754676701835</v>
+        <v>0.04044680761597495</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2689233313620363</v>
+        <v>0.04256257896896337</v>
       </c>
       <c r="J234" t="n">
-        <v>0.17777603546126</v>
+        <v>0.04044680761597495</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2701158233977475</v>
+        <v>0.04256257896896337</v>
       </c>
       <c r="L234" t="n">
-        <v>0.3122503695538932</v>
+        <v>0.291501476727096</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2700888899375387</v>
+        <v>0.1656086020414354</v>
       </c>
       <c r="N234" t="n">
-        <v>0.4502676917222747</v>
+        <v>0.4211859435121358</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2704180766734239</v>
+        <v>0.1651406598320644</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.103799493484455</v>
+        <v>0.03892182866014933</v>
       </c>
       <c r="G235" t="n">
-        <v>0.270514593677788</v>
+        <v>0.04255233479529061</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1749958080629859</v>
+        <v>0.03892182866014933</v>
       </c>
       <c r="K235" t="n">
-        <v>0.271714141879391</v>
+        <v>0.04255233479529061</v>
       </c>
       <c r="L235" t="n">
-        <v>0.3077650721392409</v>
+        <v>0.2918725044655121</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2716870490495952</v>
+        <v>0.1665885345978936</v>
       </c>
       <c r="N235" t="n">
-        <v>0.4448581136143873</v>
+        <v>0.4239594416642782</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2720181836359885</v>
+        <v>0.1661178234997098</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.1023205474206431</v>
+        <v>0.03742893411486022</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2721058559935397</v>
+        <v>0.04254209062161784</v>
       </c>
       <c r="J236" t="n">
-        <v>0.173161506429833</v>
+        <v>0.03742893411486022</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2733124603610345</v>
+        <v>0.04254209062161784</v>
       </c>
       <c r="L236" t="n">
-        <v>0.3056380554487325</v>
+        <v>0.2935494578296027</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2732852081616516</v>
+        <v>0.1675684671543518</v>
       </c>
       <c r="N236" t="n">
-        <v>0.439515427948021</v>
+        <v>0.4224438758451591</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2736182905985531</v>
+        <v>0.1670949871673551</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1029653337431825</v>
+        <v>0.03596876014036378</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2736971183092914</v>
+        <v>0.04253184644794508</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1704212428195436</v>
+        <v>0.03596876014036378</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2749107788426779</v>
+        <v>0.04253184644794508</v>
       </c>
       <c r="L237" t="n">
-        <v>0.302454217169676</v>
+        <v>0.2927324656844847</v>
       </c>
       <c r="M237" t="n">
-        <v>0.274883367273708</v>
+        <v>0.16854839971081</v>
       </c>
       <c r="N237" t="n">
-        <v>0.4346644442844463</v>
+        <v>0.4201397311198061</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2752183975611178</v>
+        <v>0.1680721508350005</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09964672584031151</v>
+        <v>0.03454194289691613</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2752883806250431</v>
+        <v>0.0425216022742723</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1681604342394958</v>
+        <v>0.03454194289691613</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2765090973243214</v>
+        <v>0.0425216022742723</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2970099386156555</v>
+        <v>0.2910216568952754</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2764815263857645</v>
+        <v>0.1695283322672682</v>
       </c>
       <c r="N238" t="n">
-        <v>0.4253307587492955</v>
+        <v>0.4199474925532473</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2768185045236824</v>
+        <v>0.1690493145026458</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.1013232543552757</v>
+        <v>0.03314911854477341</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2768796429407948</v>
+        <v>0.04251135810059953</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1657920012490918</v>
+        <v>0.03314911854477341</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2781074158059649</v>
+        <v>0.04251135810059953</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2938521781867788</v>
+        <v>0.2928171603270914</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2780796854978209</v>
+        <v>0.1705082648237264</v>
       </c>
       <c r="N239" t="n">
-        <v>0.4233776951126104</v>
+        <v>0.4225676452105104</v>
       </c>
       <c r="O239" t="n">
-        <v>0.278418611486247</v>
+        <v>0.1700264781702912</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1019948435774381</v>
+        <v>0.03178832558981336</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2784709052565465</v>
+        <v>0.04250111392692677</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1637158244196621</v>
+        <v>0.03178832558981336</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2797057342876084</v>
+        <v>0.04250111392692677</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2914807247327565</v>
+        <v>0.2921191048450499</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2796778446098774</v>
+        <v>0.1714881973801846</v>
       </c>
       <c r="N240" t="n">
-        <v>0.41570494935785</v>
+        <v>0.4217006741566235</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2800187184488117</v>
+        <v>0.1710036418379365</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09866141779616164</v>
+        <v>0.03044461426601512</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2800621675722982</v>
+        <v>0.04249086975325401</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1618317843225371</v>
+        <v>0.03044461426601512</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2813040527692519</v>
+        <v>0.04249086975325401</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2862953671032988</v>
+        <v>0.292827619314268</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2812760037219338</v>
+        <v>0.1724681299366428</v>
       </c>
       <c r="N241" t="n">
-        <v>0.4128122174684732</v>
+        <v>0.4224470644566147</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2816188254113763</v>
+        <v>0.1719808055055819</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09132290130080928</v>
+        <v>0.02911602307925655</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2816534298880499</v>
+        <v>0.04248062557958124</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1597397615290473</v>
+        <v>0.02911602307925655</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2829023712508953</v>
+        <v>0.04248062557958124</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2826958941481162</v>
+        <v>0.2908428325998629</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2828741628339903</v>
+        <v>0.173448062493101</v>
       </c>
       <c r="N242" t="n">
-        <v>0.4081991954279391</v>
+        <v>0.4190073011755117</v>
       </c>
       <c r="O242" t="n">
-        <v>0.283218932373941</v>
+        <v>0.1729579691732273</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09697921838074403</v>
+        <v>0.02780318818979362</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2832446922038016</v>
+        <v>0.04247038140590847</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1575396366105232</v>
+        <v>0.02780318818979362</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2845006897325388</v>
+        <v>0.04247038140590847</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2789820947169193</v>
+        <v>0.2897648735669511</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2844723219460467</v>
+        <v>0.1744279950495592</v>
       </c>
       <c r="N243" t="n">
-        <v>0.4013655792197066</v>
+        <v>0.4197818693783425</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2848190393365056</v>
+        <v>0.1739351328408726</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08963029332532876</v>
+        <v>0.02650674575788257</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2848359545195533</v>
+        <v>0.0424601372322357</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1559312901382953</v>
+        <v>0.02650674575788257</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2860990082141823</v>
+        <v>0.0424601372322357</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2742537576594183</v>
+        <v>0.29109387108065</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2860704810581031</v>
+        <v>0.1754079276060174</v>
       </c>
       <c r="N244" t="n">
-        <v>0.3972110648272346</v>
+        <v>0.419671254130135</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2864191462990703</v>
+        <v>0.1749122965085179</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09927605042392654</v>
+        <v>0.0252273319437795</v>
       </c>
       <c r="G245" t="n">
-        <v>0.286427216835305</v>
+        <v>0.04244989305856293</v>
       </c>
       <c r="J245" t="n">
-        <v>0.154314602683694</v>
+        <v>0.0252273319437795</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2876973266958258</v>
+        <v>0.04244989305856293</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2736106718253236</v>
+        <v>0.2909299540060766</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2876686401701596</v>
+        <v>0.1763878601624756</v>
       </c>
       <c r="N245" t="n">
-        <v>0.3925353482339821</v>
+        <v>0.4205759404959173</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2880192532616349</v>
+        <v>0.1758894601761633</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09591641396590028</v>
+        <v>0.02396558290774055</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2880184791510567</v>
+        <v>0.04243964888489017</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1521894548180499</v>
+        <v>0.02396558290774055</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2892956451774693</v>
+        <v>0.04243964888489017</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2688526260643456</v>
+        <v>0.2922732512083477</v>
       </c>
       <c r="M246" t="n">
-        <v>0.289266799282216</v>
+        <v>0.1773677927189338</v>
       </c>
       <c r="N246" t="n">
-        <v>0.383838125423408</v>
+        <v>0.4158964135407174</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2896193602241995</v>
+        <v>0.1768666238438087</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08955130824061286</v>
+        <v>0.02272213481002185</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2896097414668084</v>
+        <v>0.0424294047112174</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1504557271126932</v>
+        <v>0.02272213481002185</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2908939636591127</v>
+        <v>0.0424294047112174</v>
       </c>
       <c r="L247" t="n">
-        <v>0.264479409226195</v>
+        <v>0.2890238915525806</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2908649583942725</v>
+        <v>0.178347725275392</v>
       </c>
       <c r="N247" t="n">
-        <v>0.3787190923789716</v>
+        <v>0.4202331583295632</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2912194671867642</v>
+        <v>0.177843787511454</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08518065753742737</v>
+        <v>0.02149762381087954</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2912010037825601</v>
+        <v>0.04241916053754463</v>
       </c>
       <c r="J248" t="n">
-        <v>0.1472133001389547</v>
+        <v>0.02149762381087954</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2924922821407562</v>
+        <v>0.04241916053754463</v>
       </c>
       <c r="L248" t="n">
-        <v>0.2607908101605818</v>
+        <v>0.2891820039038922</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2924631175063289</v>
+        <v>0.1793276578318502</v>
       </c>
       <c r="N248" t="n">
-        <v>0.3715779450841313</v>
+        <v>0.4150866599274823</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2928195741493288</v>
+        <v>0.1788209511790994</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.0808043861457067</v>
+        <v>0.02029268607056979</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2927922660983118</v>
+        <v>0.04240891636387187</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1448620544681645</v>
+        <v>0.02029268607056979</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2940906006223997</v>
+        <v>0.04240891636387187</v>
       </c>
       <c r="L249" t="n">
-        <v>0.2584866177172167</v>
+        <v>0.2907477171273996</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2940612766183854</v>
+        <v>0.1803075903883084</v>
       </c>
       <c r="N249" t="n">
-        <v>0.3707143795223464</v>
+        <v>0.4188574033995031</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2944196811118934</v>
+        <v>0.1797981148467447</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.08142241835481381</v>
+        <v>0.01910795774934936</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2943835284140635</v>
+        <v>0.0423986721901991</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1439018706716534</v>
+        <v>0.01910795774934936</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2956889191040432</v>
+        <v>0.0423986721901991</v>
       </c>
       <c r="L250" t="n">
-        <v>0.2518666207458099</v>
+        <v>0.2897211600882196</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2956594357304418</v>
+        <v>0.1812875229447666</v>
       </c>
       <c r="N250" t="n">
-        <v>0.360728091677076</v>
+        <v>0.4150458738106533</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2960197880744581</v>
+        <v>0.1807752785143901</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08503467845411167</v>
+        <v>0.01794407500747301</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2959747907298152</v>
+        <v>0.04238842801652633</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1416326293207518</v>
+        <v>0.01794407500747301</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2972872375856866</v>
+        <v>0.04238842801652633</v>
       </c>
       <c r="L251" t="n">
-        <v>0.2490306080960721</v>
+        <v>0.2882024616514693</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2972575948424982</v>
+        <v>0.1822674555012248</v>
       </c>
       <c r="N251" t="n">
-        <v>0.3587187775317786</v>
+        <v>0.4140525562259609</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2976198950370227</v>
+        <v>0.1817524421820354</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.08764109073296325</v>
+        <v>0.01680167400519765</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2975660530455669</v>
+        <v>0.04237818384285357</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1378542109867901</v>
+        <v>0.01680167400519765</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2988855560673301</v>
+        <v>0.04237818384285357</v>
       </c>
       <c r="L252" t="n">
-        <v>0.2461783686177135</v>
+        <v>0.2905917506822659</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2988557539545547</v>
+        <v>0.183247388057683</v>
       </c>
       <c r="N252" t="n">
-        <v>0.3519861330699136</v>
+        <v>0.4188779357104538</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2992200019995874</v>
+        <v>0.1827296058496808</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.08424157948073155</v>
+        <v>0.01568139090277933</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2991573153613186</v>
+        <v>0.0423679396691808</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1364664962410988</v>
+        <v>0.01568139090277933</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3004838745489736</v>
+        <v>0.0423679396691808</v>
       </c>
       <c r="L253" t="n">
-        <v>0.2427096911604446</v>
+        <v>0.2892891560457263</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3004539130666111</v>
+        <v>0.1842273206141412</v>
       </c>
       <c r="N253" t="n">
-        <v>0.3442298542749397</v>
+        <v>0.41842249732916</v>
       </c>
       <c r="O253" t="n">
-        <v>0.300820108962152</v>
+        <v>0.1837067695173261</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.08183606898677942</v>
+        <v>0.01458386186047422</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3007485776770703</v>
+        <v>0.04235769549550803</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1344693656550083</v>
+        <v>0.01458386186047422</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3020821930306171</v>
+        <v>0.04235769549550803</v>
       </c>
       <c r="L254" t="n">
-        <v>0.2375243645739757</v>
+        <v>0.2879948066069674</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3020520721786676</v>
+        <v>0.1852072531705994</v>
       </c>
       <c r="N254" t="n">
-        <v>0.3385496371303161</v>
+        <v>0.4180867261471076</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3024202159247166</v>
+        <v>0.1846839331849714</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.08242448354046991</v>
+        <v>0.01350972303853847</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3023398399928219</v>
+        <v>0.04234745132183527</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1325626997998492</v>
+        <v>0.01350972303853847</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3036805115122605</v>
+        <v>0.04234745132183527</v>
       </c>
       <c r="L255" t="n">
-        <v>0.2345221777080173</v>
+        <v>0.2884088312311064</v>
       </c>
       <c r="M255" t="n">
-        <v>0.303650231290724</v>
+        <v>0.1861871857270576</v>
       </c>
       <c r="N255" t="n">
-        <v>0.3340451776195014</v>
+        <v>0.4139711072293244</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3040203228872813</v>
+        <v>0.1856610968526168</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0810067474311659</v>
+        <v>0.01245961059722819</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3039311023085737</v>
+        <v>0.0423372071481625</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1298463792469519</v>
+        <v>0.01245961059722819</v>
       </c>
       <c r="K256" t="n">
-        <v>0.305278829993904</v>
+        <v>0.0423372071481625</v>
       </c>
       <c r="L256" t="n">
-        <v>0.2294029194122799</v>
+        <v>0.2904313587832604</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3052483904027805</v>
+        <v>0.1871671182835158</v>
       </c>
       <c r="N256" t="n">
-        <v>0.3281161717259549</v>
+        <v>0.4179761256408382</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3056204298498459</v>
+        <v>0.1866382605202622</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.06958278494823045</v>
+        <v>0.01143416069679952</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3055223646243254</v>
+        <v>0.04232696297448973</v>
       </c>
       <c r="J257" t="n">
-        <v>0.127120284567647</v>
+        <v>0.01143416069679952</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3068771484755475</v>
+        <v>0.04232696297448973</v>
       </c>
       <c r="L257" t="n">
-        <v>0.2260663785364736</v>
+        <v>0.2910625181285461</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3068465495148369</v>
+        <v>0.188147050839974</v>
       </c>
       <c r="N257" t="n">
-        <v>0.3225623154331353</v>
+        <v>0.4166022664466772</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3072205368124106</v>
+        <v>0.1876154241879075</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.07915252038102646</v>
+        <v>0.01043400949750861</v>
       </c>
       <c r="G258" t="n">
-        <v>0.307113626940077</v>
+        <v>0.04231671880081696</v>
       </c>
       <c r="J258" t="n">
-        <v>0.1245842963332648</v>
+        <v>0.01043400949750861</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3084754669571909</v>
+        <v>0.04231671880081696</v>
       </c>
       <c r="L258" t="n">
-        <v>0.2230123439303093</v>
+        <v>0.2900024381320808</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3084447086268933</v>
+        <v>0.1891269833964322</v>
       </c>
       <c r="N258" t="n">
-        <v>0.3196833047245018</v>
+        <v>0.4144500147118692</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3088206437749752</v>
+        <v>0.1885925878555529</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.07671587801891694</v>
+        <v>0.009459793159611596</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3087048892558287</v>
+        <v>0.04230647462714419</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1225382951151358</v>
+        <v>0.009459793159611596</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3100737854388345</v>
+        <v>0.04230647462714419</v>
       </c>
       <c r="L259" t="n">
-        <v>0.2179406044434969</v>
+        <v>0.2890512476589814</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3100428677389497</v>
+        <v>0.1901069159528904</v>
       </c>
       <c r="N259" t="n">
-        <v>0.3136788355835133</v>
+        <v>0.412519855501442</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3104207507375398</v>
+        <v>0.1895697515231982</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.07627278215126476</v>
+        <v>0.008512147843365125</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3102961515715804</v>
+        <v>0.04229623045347144</v>
       </c>
       <c r="J260" t="n">
-        <v>0.1199821614845904</v>
+        <v>0.008512147843365125</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3116721039204779</v>
+        <v>0.04229623045347144</v>
       </c>
       <c r="L260" t="n">
-        <v>0.2134509489257471</v>
+        <v>0.2880090755743649</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3116410268510062</v>
+        <v>0.1910868485093486</v>
       </c>
       <c r="N260" t="n">
-        <v>0.3089486039936286</v>
+        <v>0.4171122738804239</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3120208577001045</v>
+        <v>0.1905469151908436</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.06882315706743292</v>
+        <v>0.007591709709024258</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3118874138873322</v>
+        <v>0.04228598627979867</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1188157760129593</v>
+        <v>0.007591709709024258</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3132704224021214</v>
+        <v>0.04228598627979867</v>
       </c>
       <c r="L261" t="n">
-        <v>0.2085431662267703</v>
+        <v>0.2893760507433484</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3132391859630627</v>
+        <v>0.1920667810658068</v>
       </c>
       <c r="N261" t="n">
-        <v>0.3009923059383068</v>
+        <v>0.4145277549138425</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3136209646626691</v>
+        <v>0.1915240788584889</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.06836692705678438</v>
+        <v>0.006699114916845703</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3134786762030838</v>
+        <v>0.0422757421061259</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1162390192715729</v>
+        <v>0.006699114916845703</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3148687408837649</v>
+        <v>0.0422757421061259</v>
       </c>
       <c r="L262" t="n">
-        <v>0.206617045196277</v>
+        <v>0.2880523020310489</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3148373450751191</v>
+        <v>0.1930467136222649</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2975096374010067</v>
+        <v>0.4127667836667263</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3152210716252338</v>
+        <v>0.1925012425261343</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.06490401640868215</v>
+        <v>0.005834999627085558</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3150699385188355</v>
+        <v>0.04226549793245313</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1136517718317615</v>
+        <v>0.005834999627085558</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3164670593654084</v>
+        <v>0.04226549793245313</v>
       </c>
       <c r="L263" t="n">
-        <v>0.2026723746839774</v>
+        <v>0.2887379583025833</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3164355041871755</v>
+        <v>0.1940266461787231</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2912002943651876</v>
+        <v>0.4163298452041024</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3168211785877983</v>
+        <v>0.1934784061937796</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.06243434941248912</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3166612008345872</v>
+        <v>0.04225525375878036</v>
       </c>
       <c r="J264" t="n">
-        <v>0.1109539142648557</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3180653778470518</v>
+        <v>0.04225525375878036</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1994089435395819</v>
+        <v>0.2898331484230687</v>
       </c>
       <c r="M264" t="n">
-        <v>0.318033663299232</v>
+        <v>0.1950065787351814</v>
       </c>
       <c r="N264" t="n">
-        <v>0.284063972814308</v>
+        <v>0.4156174245909994</v>
       </c>
       <c r="O264" t="n">
-        <v>0.318421285550363</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.194455569861425</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04224209586404352</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.04224209586404352</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006827646786965347</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04224236439250754</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006827646786965347</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04224236439250754</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.008645894738021492</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04224263292097156</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.008645894738021492</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04224263292097156</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01045464752862582</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04224290144943557</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01045464752862582</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04224290144943557</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01225380883439353</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04224316997789959</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01225380883439353</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04224316997789959</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.01404328233078282</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04224343850636361</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.01404328233078282</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04224343850636361</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01582297169340804</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04224370703482763</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01582297169340804</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.04224370703482763</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01759278059772822</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04224397556329165</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.01759278059772822</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04224397556329165</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01935261271935688</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04224424409175567</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01935261271935688</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04224424409175567</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02110237173375394</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04224451262021968</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.02110237173375394</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04224451262021968</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02284196131653198</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0422447811486837</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.02284196131653198</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.0422447811486837</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.02457128514315184</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04224504967714771</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.02457128514315184</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04224504967714771</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.0262902468892252</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04224531820561173</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.0262902468892252</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.04224531820561173</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02799875023021382</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04224558673407575</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02799875023021382</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04224558673407575</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02969669884172847</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04224585526253977</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02969669884172847</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04224585526253977</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0313839963992318</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04224612379100378</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.0313839963992318</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04224612379100378</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03306054657833367</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0422463923194678</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.03306054657833367</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.0422463923194678</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.03472625305449763</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04224666084793181</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.03472625305449763</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04224666084793181</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.03638101950329677</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04224692937639583</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.03638101950329677</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.04224692937639583</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.03802474960030326</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04224719790485985</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.03802474960030326</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04224719790485985</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.03965734702098199</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04224746643332387</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.03965734702098199</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04224746643332387</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.04127871544094057</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04224773496178789</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.04127871544094057</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04224773496178789</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.04288875853564485</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0422480034902519</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.04288875853564485</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.0422480034902519</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.04448737998070139</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04224827201871592</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.04448737998070139</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04224827201871592</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.04607448345157718</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04224854054717993</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.04607448345157718</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04224854054717993</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.04765036594877038</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04224880907564395</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.04765036594877038</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04224880907564395</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.04921729109710497</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04224907760410797</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.04921729109710497</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04224907760410797</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.05077555589707831</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04224934613257199</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.05077555589707831</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04224934613257199</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.05232506402415908</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.042249614661036</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.05232506402415908</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.042249614661036</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.05386571915395118</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04224988318950002</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.05386571915395118</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04224988318950002</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.05539742496192408</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04225015171796404</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.05539742496192408</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04225015171796404</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.05692008512368092</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04225042024642806</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.05692008512368092</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04225042024642806</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.05843360331469195</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04225068877489208</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.05843360331469195</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04225068877489208</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0599378832105268</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04225095730335609</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.0599378832105268</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04225095730335609</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.06143282848675448</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04225122583182011</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.06143282848675448</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04225122583182011</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.06291834281884638</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04225149436028412</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.06291834281884638</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04225149436028412</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.06439432988240364</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04225176288874814</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.06439432988240364</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04225176288874814</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0658606933528985</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04225203141721216</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.0658606933528985</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04225203141721216</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.06731733690593127</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04225229994567618</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.06731733690593127</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04225229994567618</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.06876416421697508</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04225256847414019</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.06876416421697508</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04225256847414019</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.07020107896162929</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04225283700260421</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.07020107896162929</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04225283700260421</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.07162798481536793</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04225310553106822</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.07162798481536793</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04225310553106822</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.07304478545378958</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04225337405953224</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.07304478545378958</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04225337405953224</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.07445138455236906</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04225364258799626</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.07445138455236906</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04225364258799626</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.07584768578670405</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04225391111646028</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.07584768578670405</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04225391111646028</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.07723359283227031</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0422541796449243</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.07723359283227031</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.0422541796449243</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.07860900936466457</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04225444817338832</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.07860900936466457</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04225444817338832</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.07997383905936357</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04225471670185233</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.07997383905936357</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.04225471670185233</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.08132798559196312</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04225498523031635</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.08132798559196312</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04225498523031635</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.08267135263794075</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04225525375878036</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.08267135263794075</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04225525375878036</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.08267135263794075</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04224209586404352</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.08267135263794075</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.04224209586404352</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.08443291293476095</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04225287709464433</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.08443291293476095</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04225287709464433</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.08618122590098669</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04226365832524513</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.08618122590098669</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04226365832524513</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.08791605183115374</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04227443955584593</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.08791605183115374</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04227443955584593</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0896371510197967</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04228522078644673</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.0896371510197967</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.04228522078644673</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.09134428376145319</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04229600201704753</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.09134428376145319</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04229600201704753</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.09303721035065786</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04230678324764833</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.09303721035065786</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04230678324764833</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0947156910819464</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04231756447824914</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.0947156910819464</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04231756447824914</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.09637948624985442</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04232834570884993</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.09637948624985442</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.04232834570884993</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0980283561489176</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04233912693945074</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.0980283561489176</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04233912693945074</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.09966206107367075</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04234990817005153</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.09966206107367075</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.04234990817005153</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1012803613186512</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04236068940065234</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1012803613186512</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04236068940065234</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1028830171783938</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04237147063125314</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1028830171783938</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.04237147063125314</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1044697889474342</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04238225186185394</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1044697889474342</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04238225186185394</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.106040436920308</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04239303309245474</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.106040436920308</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.04239303309245474</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1075947213915508</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04240381432305555</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.1075947213915508</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04240381432305555</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1091324026556976</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04241459555365634</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1091324026556976</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04241459555365634</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1106532410072856</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04242537678425715</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.1106532410072856</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04242537678425715</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1121569967408496</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04243615801485795</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.1121569967408496</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.04243615801485795</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1136434301509253</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04244693924545875</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1136434301509253</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04244693924545875</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1151123015320484</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04245772047605955</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1151123015320484</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04245772047605955</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1165633711787544</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04246850170666035</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.1165633711787544</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04246850170666035</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.1179963993855783</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04247928293726115</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.1179963993855783</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.04247928293726115</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1194111464470573</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04249006416786195</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.1194111464470573</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04249006416786195</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1208073726577262</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.04250084539846275</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.1208073726577262</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.04250084539846275</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1221858171094335</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04251162662906355</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.1221858171094335</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04251162662906355</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.1235521128805913</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04252240785966436</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.1235521128805913</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.04252240785966436</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1249069990630481</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04253318909026516</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.1249069990630481</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04253318909026516</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1262502359513387</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04254397032086596</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.1262502359513387</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.04254397032086596</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1275815838400002</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04255475155146676</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.1275815838400002</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04255475155146676</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1289008030235676</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04256553278206756</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.1289008030235676</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04256553278206756</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1302076537965765</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04257631401266836</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.1302076537965765</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04257631401266836</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1315018964535626</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04258709524326917</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.1315018964535626</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.04258709524326917</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1327832912890616</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04259787647386997</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.1327832912890616</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04259787647386997</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1340515985976084</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04260865770447077</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.1340515985976084</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.04260865770447077</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.13530657867374</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04261943893507156</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.13530657867374</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04261943893507156</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1365479918119913</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04263022016567237</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.1365479918119913</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.04263022016567237</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1377755983068982</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04264100139627317</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.1377755983068982</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04264100139627317</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1389891584529961</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04265178262687398</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.1389891584529961</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.04265178262687398</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1401884325448208</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04266256385747478</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.1401884325448208</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04266256385747478</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1413731808769073</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04267334508807558</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.1413731808769073</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.04267334508807558</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1425431637437924</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04268412631867637</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.1425431637437924</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04268412631867637</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1436981414400113</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04269490754927718</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.1436981414400113</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.04269490754927718</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1448378742600995</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04270568877987798</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.1448378742600995</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04270568877987798</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1459621224985927</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04271647001047878</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.1459621224985927</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.04271647001047878</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1470706464500267</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04272725124107959</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.1470706464500267</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04272725124107959</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1481632064089363</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04273803247168038</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.1481632064089363</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04273803247168038</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1492395626698585</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04274881370228118</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.1492395626698585</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04274881370228118</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1502994755273283</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04275959493288198</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.1502994755273283</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.04275959493288198</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1513427052758815</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04277037616348279</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.1513427052758815</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04277037616348279</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1513427052758815</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04277037616348279</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.1513427052758815</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04277037616348279</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1486918298666159</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04595080251214188</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.1486918298666159</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04595080251214188</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1463453301273404</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04913122886080098</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.1463453301273404</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.04913122886080098</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1442858351149486</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05231165520946007</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.1442858351149486</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05231165520946007</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1424959738863343</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05549208155811917</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.1424959738863343</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05549208155811917</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1409583754983911</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05867250790677826</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.1409583754983911</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.05867250790677826</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1396556690080127</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06185293425543736</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.1396556690080127</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06185293425543736</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1385704834720929</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06503336060409645</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.1385704834720929</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06503336060409645</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.1376854479475254</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06821378695275555</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.1376854479475254</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.06821378695275555</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1369831914912037</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07139421330141466</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1369831914912037</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07139421330141466</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1364463431600217</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07457463965007376</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1364463431600217</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07457463965007376</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1360575320108731</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07775506599873284</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.1360575320108731</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.07775506599873284</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1357993871006514</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08093549234739195</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.1357993871006514</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08093549234739195</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.1356545374862506</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.08411591869605103</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.1356545374862506</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.08411591869605103</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.1356056122245642</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08729634504471014</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.1356056122245642</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.08729634504471014</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.1360494996366007</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.09047677139336922</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.1360494996366007</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.09047677139336922</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.1373781840146986</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09365719774202831</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.1373781840146986</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09365719774202831</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.13930601032236</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09683762409068741</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.13930601032236</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09683762409068741</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.1415432383173758</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1000180504393465</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.1415432383173758</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1000180504393465</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.1438001277575371</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1031984767880056</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.1438001277575371</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1031984767880056</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.1457869384006352</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1063789031366647</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.1457869384006352</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1063789031366647</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.1472139300044609</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1095593294853238</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.1472139300044609</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1095593294853238</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.1477913623268052</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1127397558339829</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.1477913623268052</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1127397558339829</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.1475341192500335</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.115920182182642</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.1475341192500335</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.115920182182642</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.1467359023353423</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1191006085313011</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.1467359023353423</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1191006085313011</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.1454470612966119</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1222810348799602</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.1454470612966119</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1222810348799602</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.1437172755060569</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1254614612286193</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.1437172755060569</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1254614612286193</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.1415962243358915</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1286418875772784</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.1415962243358915</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1286418875772784</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.13913358715833</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1318223139259375</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.13913358715833</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1318223139259375</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1363790433455868</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1350027402745966</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.1363790433455868</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1350027402745966</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1333822722698762</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1381831666232557</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.1333822722698762</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1381831666232557</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1301929533034126</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1413635929719148</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.1301929533034126</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1413635929719148</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1268607658184103</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1445440193205739</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.1268607658184103</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1445440193205739</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1234353891870836</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.147724445669233</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.1234353891870836</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.147724445669233</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1196639969907931</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.1196639969907931</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1131686220438991</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1540852983665512</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.1131686220438991</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1540852983665512</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1059142299403126</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1572657247152102</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.1059142299403126</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1572657247152102</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1010130934489732</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1604461510638694</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1010130934489732</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1604461510638694</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.100409283929217</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1636265774125284</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.100409283929217</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1636265774125284</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1004457731099039</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1668070037611875</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1004457731099039</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1668070037611875</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1005190854977321</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1699874301098466</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1005190854977321</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1699874301098466</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1006317303224084</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1731678564585057</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.1006317303224084</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1731678564585057</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1007862168136393</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1763482828071648</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.1007862168136393</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1763482828071648</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1009850542011314</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1795287091558239</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.1009850542011314</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1795287091558239</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1012307517145914</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.182709135504483</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.1012307517145914</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.182709135504483</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1015258185837258</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1858895618531421</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1015258185837258</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1858895618531421</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1020699002697245</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1890699882018012</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1020699002697245</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1890699882018012</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1046399804806725</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1922504145504603</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.1046399804806725</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1922504145504603</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.1082462281006632</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1954308408991194</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.1082462281006632</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1954308408991194</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1111244289613611</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1986112672477785</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.1111244289613611</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.1986112672477785</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1131875107741653</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2017916935964376</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.1131875107741653</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2017916935964376</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1150481253249718</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2049721199450967</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.1150481253249718</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2049721199450967</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1167625366354355</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2081525462937558</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.1167625366354355</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2081525462937558</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1183870087272117</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2113329726424149</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1183870087272117</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2113329726424149</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1199778056219553</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2145133989910739</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.1199778056219553</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2145133989910739</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1215699724253265</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2176938253397331</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.1215699724253265</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2176938253397331</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1229896422215179</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2208742516883921</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.1229896422215179</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2208742516883921</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1243357010922652</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2240546780370512</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.1243357010922652</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2240546780370512</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1257989662089335</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2272351043857103</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.1257989662089335</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2272351043857103</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.1275702547428877</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2304155307343694</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.1275702547428877</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2304155307343694</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1299621184234814</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2335959570830285</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.1299621184234814</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2335959570830285</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1331164685863556</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2367763834316876</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.1331164685863556</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2367763834316876</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.136929989309188</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2399568097803467</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.136929989309188</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2399568097803467</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1412991266817102</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2431372361290058</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.1412991266817102</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2431372361290058</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1461203267936542</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2463176624776649</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.1461203267936542</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2463176624776649</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1512900357347517</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.249498088826324</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.1512900357347517</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.249498088826324</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1567046995947348</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2526785151749831</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1567046995947348</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2526785151749831</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1622607644633352</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2558589415236422</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1622607644633352</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2558589415236422</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1678546764302848</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2590393678723013</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1678546764302848</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2590393678723013</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1733828815853155</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2622197942209604</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1733828815853155</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2622197942209604</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1787418260181591</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2654002205696195</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1787418260181591</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2654002205696195</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1838279558185476</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2685806469182786</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1838279558185476</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2685806469182786</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1885377170762126</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2717610732669377</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1885377170762126</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2717610732669377</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1927675558808862</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2749414996155968</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.1927675558808862</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2749414996155968</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.1964139183223001</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2781219259642559</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.1964139183223001</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2781219259642559</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.1993732504901863</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2813023523129149</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.1993732504901863</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2813023523129149</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.2015419984742766</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2844827786615741</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.2015419984742766</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2844827786615741</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.2031236070345086</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2876632050102332</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.2031236070345086</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2876632050102332</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.2029085761989348</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2908436313588922</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.2029085761989348</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2908436313588922</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.197690399932318</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2940240577075514</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.197690399932318</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2940240577075514</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1869272725727582</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2972044840562105</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1869272725727582</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2972044840562105</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1725302295181292</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3003849104048695</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1725302295181292</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3003849104048695</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1564103061663047</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3035653367535286</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1564103061663047</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3035653367535286</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1404785379151586</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3067457631021878</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.1404785379151586</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3067457631021878</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.1266459601625645</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3099261894508468</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.1266459601625645</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3099261894508468</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1168236083063963</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3131066157995059</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1168236083063963</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3131066157995059</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1115335826204577</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3162870421481651</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.1115335826204577</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3162870421481651</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1068402774208212</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3194674684968241</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.1068402774208212</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3194674684968241</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.102362007771821</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3226478948454832</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.102362007771821</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3226478948454832</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.09812669052937383</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3258283211941423</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.09812669052937383</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3258283211941423</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.09416224254939622</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3290087475428014</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.09416224254939622</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3290087475428014</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.09049658068780499</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3321891738914605</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.09049658068780499</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3321891738914605</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.08715762180051682</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3353696002401196</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.08715762180051682</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3353696002401196</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.08417328274344839</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3385500265887787</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.08417328274344839</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3385500265887787</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.08157148037251651</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3417304529374378</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.08157148037251651</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3417304529374378</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.07938013154363775</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3449108792860969</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.07938013154363775</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3449108792860969</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.07762715311272893</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.348091305634756</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.07762715311272893</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.348091305634756</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.07634046193570669</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.351271731983415</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.07634046193570669</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.351271731983415</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.07554797486848779</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3544521583320742</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.07554797486848779</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3544521583320742</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.07527760876698887</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3576325846807333</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.07527760876698887</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3576325846807333</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
